--- a/TRL Calculations - Media.xlsx
+++ b/TRL Calculations - Media.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/TRL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1230" documentId="13_ncr:1_{94779E9C-2E3D-4E3A-B9AD-064335246722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0838DFB3-8AD8-4882-A033-55F8AB405449}"/>
+  <xr:revisionPtr revIDLastSave="1349" documentId="13_ncr:1_{94779E9C-2E3D-4E3A-B9AD-064335246722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9158BB46-2435-4E92-B6EA-B49AAD70F681}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TG" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="207">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -492,15 +492,6 @@
     <t>Media 13C 16:0 from TG(nmol/L)</t>
   </si>
   <si>
-    <t>13C 16:0 from TG uptake (nmol/g of protein)</t>
-  </si>
-  <si>
-    <t>TRL starting media 13C 16:0 from TG (nmol/L)</t>
-  </si>
-  <si>
-    <t>Media 13C 16:0 from TG (nmol/L)</t>
-  </si>
-  <si>
     <t>Media 16:0 (umol/L)</t>
   </si>
   <si>
@@ -519,9 +510,6 @@
     <t>Uncorrected media 13C 16:0 (nmol/L)</t>
   </si>
   <si>
-    <t>TRL uptake (%)</t>
-  </si>
-  <si>
     <t>FA_113</t>
   </si>
   <si>
@@ -576,9 +564,6 @@
     <t>TG_124</t>
   </si>
   <si>
-    <t>Uncorrected 13C 16:0 from TG uptake (nmol/L)</t>
-  </si>
-  <si>
     <t>FA_149</t>
   </si>
   <si>
@@ -652,6 +637,30 @@
   </si>
   <si>
     <t>13C 16:0 Release (nmol/g of protein)</t>
+  </si>
+  <si>
+    <t>Uncorrected Media TG 13C 16:0 disappearance (nmol/L)</t>
+  </si>
+  <si>
+    <t>Media TG 13C 16:0 (nmol/L)</t>
+  </si>
+  <si>
+    <t>TRL starting media TG 13C 16:0 (nmol/L)</t>
+  </si>
+  <si>
+    <t>TTR-background</t>
+  </si>
+  <si>
+    <t>TG 13C 16:0 disappearance (nmol/g of protein)</t>
+  </si>
+  <si>
+    <t>TRL disappearance (%)</t>
+  </si>
+  <si>
+    <t>TT-background</t>
+  </si>
+  <si>
+    <t>TRL starting media TG 13C 16:0 (nmol/g of protein)</t>
   </si>
 </sst>
 </file>
@@ -758,12 +767,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50305BE5-A182-4CC7-AB88-7F08B49B4E7F}" name="Table14" displayName="Table14" ref="A1:M49" totalsRowShown="0">
-  <autoFilter ref="A1:M49" xr:uid="{42C8B7F5-C567-45AA-AA9A-3E8890A5232D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L49">
-    <sortCondition descending="1" ref="F1:F49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50305BE5-A182-4CC7-AB88-7F08B49B4E7F}" name="Table14" displayName="Table14" ref="A1:N49" totalsRowShown="0">
+  <autoFilter ref="A1:N49" xr:uid="{42C8B7F5-C567-45AA-AA9A-3E8890A5232D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N49">
+    <sortCondition ref="A1:A49"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{FDC386DA-D318-4D64-8415-0D1A1C408299}" name="SAMPLE_ID"/>
     <tableColumn id="11" xr3:uid="{B2107646-EC95-491F-8D26-BA0B535EF908}" name="Round"/>
     <tableColumn id="2" xr3:uid="{374A08E7-A633-41FD-A3B5-A5172198E569}" name="Sample Type"/>
@@ -772,11 +781,12 @@
     <tableColumn id="5" xr3:uid="{FB07FAFE-53C4-4BD5-83E0-8E488F2CC827}" name="TRL"/>
     <tableColumn id="6" xr3:uid="{570BD415-4C46-430F-8AD5-1F922B19F5B3}" name="Time (hours)"/>
     <tableColumn id="7" xr3:uid="{E95A375C-AF58-4DE0-8688-D66828CD4B8E}" name="Protein (mg/mL)"/>
-    <tableColumn id="9" xr3:uid="{0102A5DF-EEBD-4BFA-8E08-E9A44ABF0308}" name="Media 13C 16:0 from TG (nmol/L)"/>
-    <tableColumn id="10" xr3:uid="{A3957CB4-CE5A-4832-AD28-38611BDCBFDF}" name="TRL starting media 13C 16:0 from TG (nmol/L)"/>
-    <tableColumn id="12" xr3:uid="{B1215606-9E32-409C-89FD-D26AF791D992}" name="Uncorrected 13C 16:0 from TG uptake (nmol/L)"/>
-    <tableColumn id="13" xr3:uid="{E9E3B424-238C-44FB-AAA5-D31916949368}" name="13C 16:0 from TG uptake (nmol/g of protein)"/>
-    <tableColumn id="8" xr3:uid="{08E8C185-E485-452E-9D1A-501636459C86}" name="TRL uptake (%)"/>
+    <tableColumn id="9" xr3:uid="{0102A5DF-EEBD-4BFA-8E08-E9A44ABF0308}" name="Media TG 13C 16:0 (nmol/L)"/>
+    <tableColumn id="10" xr3:uid="{A3957CB4-CE5A-4832-AD28-38611BDCBFDF}" name="TRL starting media TG 13C 16:0 (nmol/L)"/>
+    <tableColumn id="12" xr3:uid="{B1215606-9E32-409C-89FD-D26AF791D992}" name="Uncorrected Media TG 13C 16:0 disappearance (nmol/L)"/>
+    <tableColumn id="14" xr3:uid="{5BB2385D-690A-4F37-99BA-949030F449E9}" name="TRL starting media TG 13C 16:0 (nmol/g of protein)"/>
+    <tableColumn id="13" xr3:uid="{E9E3B424-238C-44FB-AAA5-D31916949368}" name="TG 13C 16:0 disappearance (nmol/g of protein)"/>
+    <tableColumn id="8" xr3:uid="{08E8C185-E485-452E-9D1A-501636459C86}" name="TRL disappearance (%)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1090,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,19 +1116,19 @@
     <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="17.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="32.5703125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="34.5703125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="16.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="17.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="32.5703125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="34.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1129,18 +1139,30 @@
         <v>148</v>
       </c>
       <c r="F1" s="3">
-        <v>1.1445000000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.1439489833372503</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.1571866563526389E-2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1151,15 +1173,16 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1188,34 +1211,37 @@
         <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="M5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="R5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>104</v>
       </c>
@@ -1245,38 +1271,42 @@
         <v>1.9654404292574999E-2</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ref="J6:J14" si="1">(I6/(1+I6))*100</f>
+        <f>I6-$F$2</f>
+        <v>8.0825377290486104E-3</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6:K14" si="1">(I6/(1+I6))*100</f>
         <v>1.9275554746621242</v>
       </c>
-      <c r="K6" s="2">
-        <f t="shared" ref="K6:K41" si="2">J6-$F$1</f>
-        <v>0.78305547466212411</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
+        <f t="shared" ref="L6:L41" si="2">K6-$F$1</f>
+        <v>0.78360649132487392</v>
+      </c>
+      <c r="M6" s="1">
         <v>18</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>649.20000000000005</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>-37.805</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>12.712999999999999</v>
       </c>
-      <c r="Q6" s="4">
-        <f t="shared" ref="Q6:Q30" si="3">((H6/P6)*$D$1)/256.4*(1/$D$2*1000)</f>
-        <v>531.99315182549901</v>
-      </c>
       <c r="R6" s="4">
-        <f>Q6*(K6/100)*1000</f>
-        <v>4165.8015001971562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <f>((H6/Q6)*$D$1)/256.4*(1/$D$2*1000)/3</f>
+        <v>177.33105060849968</v>
+      </c>
+      <c r="S6" s="4">
+        <f>R6*(L6/100)*1000</f>
+        <v>1389.5776237028008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>105</v>
       </c>
@@ -1306,38 +1336,42 @@
         <v>1.9675931256150001E-2</v>
       </c>
       <c r="J7" s="2">
+        <f t="shared" ref="J7:J59" si="3">I7-$F$2</f>
+        <v>8.1040646926236123E-3</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
         <v>1.9296259383028689</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>0.78512593830286881</v>
-      </c>
-      <c r="L7" s="1">
+        <v>0.78567695496561862</v>
+      </c>
+      <c r="M7" s="1">
         <v>19</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>649.20000000000005</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>-37.290999999999997</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>13.618</v>
       </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="3"/>
-        <v>484.14577132358318</v>
-      </c>
       <c r="R7" s="4">
-        <f t="shared" ref="R7:R20" si="4">Q7*(K7/100)*1000</f>
-        <v>3801.1540298579439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R7:R57" si="4">((H7/Q7)*$D$1)/256.4*(1/$D$2*1000)/3</f>
+        <v>161.38192377452773</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" ref="S7:S20" si="5">R7*(L7/100)*1000</f>
+        <v>1267.9405845766453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>106</v>
       </c>
@@ -1367,38 +1401,42 @@
         <v>1.9742756777574998E-2</v>
       </c>
       <c r="J8" s="2">
+        <f t="shared" si="3"/>
+        <v>8.1708902140486088E-3</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
         <v>1.9360526609635202</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>0.79155266096352017</v>
-      </c>
-      <c r="L8" s="1">
-        <v>20</v>
-      </c>
-      <c r="M8" s="1" t="s">
+        <v>0.79210367762626999</v>
+      </c>
+      <c r="M8" s="1">
+        <v>20</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>649.6</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>-35.917000000000002</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>14.384</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="3"/>
-        <v>515.82577415999879</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="4"/>
-        <v>4083.032641299149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>171.94192471999961</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="5"/>
+        <v>1361.9583090885094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>110</v>
       </c>
@@ -1428,38 +1466,42 @@
         <v>1.9781046834249996E-2</v>
       </c>
       <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>8.2091802707236067E-3</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
         <v>1.9397347004690022</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>0.79523470046900213</v>
-      </c>
-      <c r="L9" s="1">
+        <v>0.79578571713175195</v>
+      </c>
+      <c r="M9" s="1">
         <v>21</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>649.6</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>-36.326999999999998</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>13.827999999999999</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="3"/>
-        <v>449.97083438443127</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" si="4"/>
-        <v>3578.3242170149015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>149.99027812814376</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="5"/>
+        <v>1193.601210429958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>111</v>
       </c>
@@ -1485,42 +1527,46 @@
         <v>17.829999999999998</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" ref="I10:I14" si="5">(((G10/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I10:I14" si="6">(((G10/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.9949238922924998E-2</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>8.3773723593986091E-3</v>
+      </c>
+      <c r="K10" s="2">
         <f>(I10/(1+I10))*100</f>
         <v>1.9559050746477895</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>0.81140507464778944</v>
-      </c>
-      <c r="L10" s="1">
+        <v>0.81195609131053925</v>
+      </c>
+      <c r="M10" s="1">
         <v>22</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>649.20000000000005</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>-34.555999999999997</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>13.276</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="3"/>
-        <v>437.72278911644565</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" si="4"/>
-        <v>3551.7049237806818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>145.90759637214856</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="5"/>
+        <v>1184.7056164284556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>112</v>
       </c>
@@ -1546,42 +1592,46 @@
         <v>15.801</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0076991840424999E-2</v>
       </c>
       <c r="J11" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5051252768986105E-3</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>1.968183970525798</v>
       </c>
-      <c r="K11" s="2">
-        <f>J11-$F$1</f>
-        <v>0.82368397052579789</v>
-      </c>
-      <c r="L11" s="1">
-        <v>23</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="L11" s="2">
+        <f>K11-$F$1</f>
+        <v>0.82423498718854771</v>
+      </c>
+      <c r="M11" s="1">
+        <v>23</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>648.9</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>-34.115000000000002</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>12.323</v>
-      </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="3"/>
-        <v>417.91040382993231</v>
       </c>
       <c r="R11" s="4">
         <f t="shared" si="4"/>
-        <v>3442.2610075067828</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>139.30346794331078</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="5"/>
+        <v>1148.1879211557502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>116</v>
       </c>
@@ -1595,7 +1645,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F12" s="2">
         <v>801.3</v>
@@ -1607,42 +1657,46 @@
         <v>19.472000000000001</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0285097761174996E-2</v>
       </c>
       <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>8.7132311976486077E-3</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>1.9881793633648921</v>
       </c>
-      <c r="K12" s="2">
-        <f t="shared" ref="K12:K15" si="6">J12-$F$1</f>
-        <v>0.84367936336489202</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
+        <f t="shared" ref="L12:L15" si="7">K12-$F$1</f>
+        <v>0.84423038002764184</v>
+      </c>
+      <c r="M12" s="1">
         <v>5</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="N12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" s="1">
         <v>646.4</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>-32.21</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>12.576000000000001</v>
-      </c>
-      <c r="Q12" s="4">
-        <f t="shared" si="3"/>
-        <v>504.64164877027662</v>
       </c>
       <c r="R12" s="4">
         <f t="shared" si="4"/>
-        <v>4257.5574496191639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>168.21388292342553</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" si="5"/>
+        <v>1420.1127030636878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>117</v>
       </c>
@@ -1656,7 +1710,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F13" s="2">
         <v>801.1</v>
@@ -1668,42 +1722,46 @@
         <v>18.047999999999998</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0051859140299999E-2</v>
       </c>
       <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>8.4799925767736102E-3</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
         <v>1.9657685989808118</v>
       </c>
-      <c r="K13" s="2">
-        <f t="shared" si="6"/>
-        <v>0.82126859898081173</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
+        <f t="shared" si="7"/>
+        <v>0.82181961564356154</v>
+      </c>
+      <c r="M13" s="1">
         <v>6</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="N13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O13" s="1">
         <v>646.4</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>-32.606999999999999</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>10.885999999999999</v>
-      </c>
-      <c r="Q13" s="4">
-        <f t="shared" si="3"/>
-        <v>540.35081484097134</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" si="4"/>
-        <v>4437.7315666258455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>180.11693828032378</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="5"/>
+        <v>1480.2363298843077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>118</v>
       </c>
@@ -1717,7 +1775,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F14" s="2">
         <v>801.3</v>
@@ -1729,42 +1787,46 @@
         <v>18.172999999999998</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9910507103824998E-2</v>
       </c>
       <c r="J14" s="2">
+        <f t="shared" si="3"/>
+        <v>8.3386405402986093E-3</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
         <v>1.9521817811607409</v>
       </c>
-      <c r="K14" s="2">
-        <f t="shared" si="6"/>
-        <v>0.80768178116074085</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="L14" s="2">
+        <f t="shared" si="7"/>
+        <v>0.80823279782349067</v>
+      </c>
+      <c r="M14" s="1">
         <v>7</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="N14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O14" s="1">
         <v>646.4</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>-32.823999999999998</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>10.565</v>
-      </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="3"/>
-        <v>560.62464268566021</v>
       </c>
       <c r="R14" s="4">
         <f t="shared" si="4"/>
-        <v>4528.0630996695791</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>186.87488089522006</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="5"/>
+        <v>1510.384078288753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>122</v>
       </c>
@@ -1778,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F15" s="2">
         <v>801.1</v>
@@ -1790,42 +1852,46 @@
         <v>16.998999999999999</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" ref="I15:I47" si="7">(((G15/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I15:I47" si="8">(((G15/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.9937180002674998E-2</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" ref="J15:J47" si="8">(I15/(1+I15))*100</f>
+        <f t="shared" si="3"/>
+        <v>8.3653134391486091E-3</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" ref="K15:K47" si="9">(I15/(1+I15))*100</f>
         <v>1.9547458798023922</v>
       </c>
-      <c r="K15" s="2">
-        <f t="shared" si="6"/>
-        <v>0.81024587980239215</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2">
+        <f t="shared" si="7"/>
+        <v>0.81079689646514197</v>
+      </c>
+      <c r="M15" s="1">
         <v>8</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="N15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O15" s="1">
         <v>646.20000000000005</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>-33.023000000000003</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>9.6120000000000001</v>
-      </c>
-      <c r="Q15" s="4">
-        <f t="shared" si="3"/>
-        <v>576.40092640742671</v>
       </c>
       <c r="R15" s="4">
         <f t="shared" si="4"/>
-        <v>4670.2647573589929</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>192.13364213580891</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="5"/>
+        <v>1557.8136075025809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>123</v>
       </c>
@@ -1839,7 +1905,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F16" s="2">
         <v>801.1</v>
@@ -1851,42 +1917,46 @@
         <v>17.43</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0095557801799998E-2</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>8.5236912382736091E-3</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="9"/>
         <v>1.9699681709333032</v>
       </c>
-      <c r="K16" s="2">
-        <f>J16-$F$1</f>
-        <v>0.82546817093330316</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
+        <f>K16-$F$1</f>
+        <v>0.82601918759605297</v>
+      </c>
+      <c r="M16" s="1">
         <v>5</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="N16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" s="1">
         <v>646.6</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>-32.502000000000002</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>10.185</v>
-      </c>
-      <c r="Q16" s="4">
-        <f t="shared" si="3"/>
-        <v>557.76519720582644</v>
       </c>
       <c r="R16" s="4">
         <f t="shared" si="4"/>
-        <v>4604.1741714774662</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>185.92173240194214</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="5"/>
+        <v>1535.74918355103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>124</v>
       </c>
@@ -1900,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F17" s="2">
         <v>802.1</v>
@@ -1912,42 +1982,46 @@
         <v>20.657</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9980651813200002E-2</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>8.4087852496736136E-3</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="9"/>
         <v>1.9589245911361928</v>
       </c>
-      <c r="K17" s="2">
-        <f>J17-$F$1</f>
-        <v>0.8144245911361927</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="L17" s="2">
+        <f>K17-$F$1</f>
+        <v>0.81497560779894251</v>
+      </c>
+      <c r="M17" s="1">
         <v>3</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="N17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" s="1">
         <v>646.4</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>-33.387</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>11.273999999999999</v>
-      </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="3"/>
-        <v>597.1786565271376</v>
       </c>
       <c r="R17" s="4">
         <f t="shared" si="4"/>
-        <v>4863.5698317737488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>199.05955217571253</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="5"/>
+        <v>1622.2867952258662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>128</v>
       </c>
@@ -1958,27 +2032,31 @@
         <v>20</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q18" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>3.5916483425696644E-2</v>
       </c>
       <c r="R18" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>129</v>
       </c>
@@ -1989,27 +2067,31 @@
         <v>20</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q19" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>3.5916483425696644E-2</v>
       </c>
       <c r="R19" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>130</v>
       </c>
@@ -2020,27 +2102,31 @@
         <v>20</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q20" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>3.5916483425696644E-2</v>
       </c>
       <c r="R20" s="4" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>134</v>
       </c>
@@ -2051,27 +2137,31 @@
         <v>20</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q21" s="4" t="e">
-        <f t="shared" si="3"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R21" s="4" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R21" s="4" t="e">
-        <f t="shared" ref="R21:R26" si="9">Q21*(K21/100)*1000</f>
+      <c r="S21" s="4" t="e">
+        <f t="shared" ref="S21:S26" si="10">R21*(L21/100)*1000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>135</v>
       </c>
@@ -2082,27 +2172,31 @@
         <v>20</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q22" s="4" t="e">
-        <f t="shared" si="3"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R22" s="4" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R22" s="4" t="e">
-        <f t="shared" si="9"/>
+      <c r="S22" s="4" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>136</v>
       </c>
@@ -2113,27 +2207,31 @@
         <v>20</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q23" s="4" t="e">
-        <f t="shared" si="3"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R23" s="4" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R23" s="4" t="e">
-        <f t="shared" si="9"/>
+      <c r="S23" s="4" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>140</v>
       </c>
@@ -2144,27 +2242,31 @@
         <v>20</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q24" s="4" t="e">
-        <f t="shared" si="3"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R24" s="4" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R24" s="4" t="e">
-        <f t="shared" si="9"/>
+      <c r="S24" s="4" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>141</v>
       </c>
@@ -2175,27 +2277,31 @@
         <v>20</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q25" s="4" t="e">
-        <f t="shared" si="3"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R25" s="4" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R25" s="4" t="e">
-        <f t="shared" si="9"/>
+      <c r="S25" s="4" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>142</v>
       </c>
@@ -2206,27 +2312,31 @@
         <v>20</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q26" s="4" t="e">
-        <f t="shared" si="3"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R26" s="4" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R26" s="4" t="e">
-        <f t="shared" si="9"/>
+      <c r="S26" s="4" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>146</v>
       </c>
@@ -2237,27 +2347,31 @@
         <v>20</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q27" s="4" t="e">
-        <f t="shared" si="3"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R27" s="4" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R27" s="4" t="e">
-        <f t="shared" ref="R27:R30" si="10">Q27*(K27/100)*1000</f>
+      <c r="S27" s="4" t="e">
+        <f t="shared" ref="S27:S30" si="11">R27*(L27/100)*1000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>147</v>
       </c>
@@ -2268,27 +2382,31 @@
         <v>20</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K28" s="2">
+      <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q28" s="4" t="e">
-        <f t="shared" si="3"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R28" s="4" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R28" s="4" t="e">
-        <f t="shared" si="10"/>
+      <c r="S28" s="4" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>148</v>
       </c>
@@ -2299,27 +2417,31 @@
         <v>20</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q29" s="4" t="e">
-        <f t="shared" si="3"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R29" s="4" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R29" s="4" t="e">
-        <f t="shared" si="10"/>
+      <c r="S29" s="4" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>152</v>
       </c>
@@ -2333,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F30" s="2">
         <v>799.4</v>
@@ -2345,42 +2467,46 @@
         <v>17.157</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" ref="I30:I38" si="11">(((G30/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I30:I38" si="12">(((G30/1000)+1)*0.0112372)*(17/16)</f>
         <v>2.0118278717874995E-2</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" ref="J30:J37" si="12">(I30/(1+I30))*100</f>
+        <f t="shared" si="3"/>
+        <v>8.5464121543486066E-3</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" ref="K30:K37" si="13">(I30/(1+I30))*100</f>
         <v>1.9721515766936795</v>
       </c>
-      <c r="K30" s="2">
-        <f t="shared" ref="K30:K35" si="13">J30-$F$1</f>
-        <v>0.82765157669367939</v>
-      </c>
-      <c r="L30" s="1">
+      <c r="L30" s="2">
+        <f t="shared" ref="L30:L35" si="14">K30-$F$1</f>
+        <v>0.82820259335642921</v>
+      </c>
+      <c r="M30" s="1">
         <v>3</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N30" s="1">
+      <c r="N30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O30" s="1">
         <v>645.79999999999995</v>
       </c>
-      <c r="O30" s="1">
+      <c r="P30" s="1">
         <v>-35.597000000000001</v>
       </c>
-      <c r="P30" s="1">
+      <c r="Q30" s="1">
         <v>11.92</v>
       </c>
-      <c r="Q30" s="4">
-        <f t="shared" si="3"/>
-        <v>469.11590138102173</v>
-      </c>
       <c r="R30" s="4">
-        <f t="shared" si="10"/>
-        <v>3882.6451543007925</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>156.37196712700725</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" si="11"/>
+        <v>1295.0766870283369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>153</v>
       </c>
@@ -2394,7 +2520,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F31" s="2">
         <v>800.7</v>
@@ -2410,38 +2536,42 @@
         <v>2.0370357909199999E-2</v>
       </c>
       <c r="J31" s="2">
+        <f t="shared" si="3"/>
+        <v>8.7984913456736098E-3</v>
+      </c>
+      <c r="K31" s="2">
         <f>(I31/(1+I31))*100</f>
         <v>1.9963690390751923</v>
       </c>
-      <c r="K31" s="2">
-        <f t="shared" si="13"/>
-        <v>0.85186903907519218</v>
-      </c>
-      <c r="L31" s="1">
+      <c r="L31" s="2">
+        <f t="shared" si="14"/>
+        <v>0.852420055737942</v>
+      </c>
+      <c r="M31" s="1">
         <v>21</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="N31" s="1">
+      <c r="N31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O31" s="1">
         <v>646.6</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <v>-42.677</v>
       </c>
-      <c r="P31" s="1">
+      <c r="Q31" s="1">
         <v>7.1829999999999998</v>
       </c>
-      <c r="Q31" s="4">
-        <f t="shared" ref="Q31:Q35" si="14">((H31/P31)*$D$1)/256.4*(1/$D$2*1000)</f>
-        <v>420.61903832132691</v>
-      </c>
       <c r="R31" s="4">
-        <f t="shared" ref="R31:R35" si="15">Q31*(K31/100)*1000</f>
-        <v>3583.1233599152015</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>140.20634610710897</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" ref="S31:S35" si="15">R31*(L31/100)*1000</f>
+        <v>1195.1470136343501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>154</v>
       </c>
@@ -2455,7 +2585,7 @@
         <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F32" s="2">
         <v>800.7</v>
@@ -2467,42 +2597,46 @@
         <v>9.1790000000000003</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1014996742999999E-2</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="12"/>
-        <v>2.0582456486963521</v>
+        <f t="shared" si="3"/>
+        <v>9.4431301794736106E-3</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="13"/>
-        <v>0.913745648696352</v>
-      </c>
-      <c r="L32" s="1">
+        <v>2.0582456486963521</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="14"/>
+        <v>0.91429666535910181</v>
+      </c>
+      <c r="M32" s="1">
         <v>22</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N32" s="1">
+      <c r="N32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O32" s="1">
         <v>646.4</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <v>-42.189</v>
       </c>
-      <c r="P32" s="1">
+      <c r="Q32" s="1">
         <v>6.3440000000000003</v>
       </c>
-      <c r="Q32" s="4">
-        <f t="shared" si="14"/>
-        <v>471.57117842090742</v>
-      </c>
       <c r="R32" s="4">
+        <f t="shared" si="4"/>
+        <v>157.19039280696913</v>
+      </c>
+      <c r="S32" s="4">
         <f t="shared" si="15"/>
-        <v>4308.9611233271517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1437.1865196989925</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>158</v>
       </c>
@@ -2516,7 +2650,7 @@
         <v>23</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F33" s="2">
         <v>800.9</v>
@@ -2528,42 +2662,46 @@
         <v>10.885</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0616801644725E-2</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="12"/>
-        <v>2.0200335337906452</v>
+        <f t="shared" si="3"/>
+        <v>9.0449350811986108E-3</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="13"/>
-        <v>0.87553353379064514</v>
-      </c>
-      <c r="L33" s="1">
-        <v>23</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N33" s="1">
+        <v>2.0200335337906452</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="14"/>
+        <v>0.87608455045339495</v>
+      </c>
+      <c r="M33" s="1">
+        <v>23</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O33" s="1">
         <v>646.6</v>
       </c>
-      <c r="O33" s="1">
+      <c r="P33" s="1">
         <v>-40.917999999999999</v>
       </c>
-      <c r="P33" s="1">
+      <c r="Q33" s="1">
         <v>7.4180000000000001</v>
       </c>
-      <c r="Q33" s="4">
-        <f t="shared" si="14"/>
-        <v>478.25185452821194</v>
-      </c>
       <c r="R33" s="4">
+        <f t="shared" si="4"/>
+        <v>159.4172848427373</v>
+      </c>
+      <c r="S33" s="4">
         <f t="shared" si="15"/>
-        <v>4187.2553623701497</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1396.6302032595033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>159</v>
       </c>
@@ -2577,7 +2715,7 @@
         <v>24</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F34" s="2">
         <v>800.9</v>
@@ -2589,42 +2727,46 @@
         <v>11.666</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0360818228725E-2</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="12"/>
-        <v>1.9954527717038328</v>
+        <f t="shared" si="3"/>
+        <v>8.7889516651986112E-3</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="13"/>
-        <v>0.85095277170383277</v>
-      </c>
-      <c r="L34" s="1">
+        <v>1.9954527717038328</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="14"/>
+        <v>0.85150378836658258</v>
+      </c>
+      <c r="M34" s="1">
         <v>24</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N34" s="1">
+      <c r="N34" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O34" s="1">
         <v>646.6</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
         <v>-41.813000000000002</v>
       </c>
-      <c r="P34" s="1">
+      <c r="Q34" s="1">
         <v>7.8019999999999996</v>
       </c>
-      <c r="Q34" s="4">
-        <f t="shared" si="14"/>
-        <v>487.33890652729423</v>
-      </c>
       <c r="R34" s="4">
+        <f t="shared" si="4"/>
+        <v>162.44630217576474</v>
+      </c>
+      <c r="S34" s="4">
         <f t="shared" si="15"/>
-        <v>4147.0239326851606</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1383.236417088063</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>160</v>
       </c>
@@ -2638,7 +2780,7 @@
         <v>25</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F35" s="2">
         <v>801.1</v>
@@ -2650,42 +2792,46 @@
         <v>13.339</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0147602191274996E-2</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="12"/>
-        <v>1.9749693228703364</v>
+        <f t="shared" si="3"/>
+        <v>8.5757356277486076E-3</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="13"/>
-        <v>0.83046932287033637</v>
-      </c>
-      <c r="L35" s="1">
+        <v>1.9749693228703364</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="14"/>
+        <v>0.83102033953308618</v>
+      </c>
+      <c r="M35" s="1">
         <v>25</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N35" s="1">
+      <c r="N35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O35" s="1">
         <v>646.9</v>
       </c>
-      <c r="O35" s="1">
+      <c r="P35" s="1">
         <v>-41.603000000000002</v>
       </c>
-      <c r="P35" s="1">
+      <c r="Q35" s="1">
         <v>8.7080000000000002</v>
       </c>
-      <c r="Q35" s="4">
-        <f t="shared" si="14"/>
-        <v>499.25211179324543</v>
-      </c>
       <c r="R35" s="4">
+        <f t="shared" si="4"/>
+        <v>166.41737059774849</v>
+      </c>
+      <c r="S35" s="4">
         <f t="shared" si="15"/>
-        <v>4146.1356322252195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1382.9621981834439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>164</v>
       </c>
@@ -2696,27 +2842,31 @@
         <v>20</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="13"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K36" s="2">
-        <f t="shared" ref="K36" si="16">J36-$F$1</f>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q36" s="4" t="e">
-        <f t="shared" ref="Q36:Q54" si="17">((H36/P36)*$D$1)/256.4*(1/$D$2*1000)</f>
+      <c r="L36" s="2">
+        <f t="shared" ref="L36" si="16">K36-$F$1</f>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R36" s="4" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R36" s="4" t="e">
-        <f t="shared" ref="R36:R54" si="18">Q36*(K36/100)*1000</f>
+      <c r="S36" s="4" t="e">
+        <f t="shared" ref="S36:S54" si="17">R36*(L36/100)*1000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>165</v>
       </c>
@@ -2727,27 +2877,31 @@
         <v>20</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="13"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K37" s="2">
+      <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q37" s="4" t="e">
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R37" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S37" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R37" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>166</v>
       </c>
@@ -2758,27 +2912,31 @@
         <v>20</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q38" s="4" t="e">
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R38" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S38" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R38" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>170</v>
       </c>
@@ -2789,27 +2947,31 @@
         <v>20</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K39" s="2">
+      <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q39" s="4" t="e">
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R39" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S39" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R39" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>171</v>
       </c>
@@ -2820,27 +2982,31 @@
         <v>20</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K40" s="2">
+      <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q40" s="4" t="e">
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R40" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S40" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R40" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>172</v>
       </c>
@@ -2851,27 +3017,31 @@
         <v>20</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K41" s="2">
+      <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q41" s="4" t="e">
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R41" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S41" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R41" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>176</v>
       </c>
@@ -2882,27 +3052,31 @@
         <v>20</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K42" s="2">
-        <f t="shared" ref="K42:K55" si="19">J42-$F$1</f>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q42" s="4" t="e">
+      <c r="L42" s="2">
+        <f t="shared" ref="L42:L55" si="18">K42-$F$1</f>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R42" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S42" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R42" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>177</v>
       </c>
@@ -2913,27 +3087,31 @@
         <v>20</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K43" s="2">
-        <f t="shared" si="19"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q43" s="4" t="e">
+      <c r="L43" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R43" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S43" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R43" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>178</v>
       </c>
@@ -2944,27 +3122,31 @@
         <v>20</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K44" s="2">
-        <f t="shared" si="19"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q44" s="4" t="e">
+      <c r="L44" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R44" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S44" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R44" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>182</v>
       </c>
@@ -2975,27 +3157,31 @@
         <v>20</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K45" s="2">
-        <f t="shared" si="19"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q45" s="4" t="e">
+      <c r="L45" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R45" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S45" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R45" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>183</v>
       </c>
@@ -3006,27 +3192,31 @@
         <v>20</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K46" s="2">
-        <f t="shared" si="19"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q46" s="4" t="e">
+      <c r="L46" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R46" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S46" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R46" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>184</v>
       </c>
@@ -3037,27 +3227,31 @@
         <v>20</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="9"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K47" s="2">
-        <f t="shared" si="19"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q47" s="4" t="e">
+      <c r="L47" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R47" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S47" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R47" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>188</v>
       </c>
@@ -3068,27 +3262,31 @@
         <v>20</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" ref="I48:I55" si="20">(((G48/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I48:I55" si="19">(((G48/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" ref="J48:J55" si="21">(I48/(1+I48))*100</f>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" ref="K48:K53" si="20">(I48/(1+I48))*100</f>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K48" s="2">
-        <f t="shared" si="19"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q48" s="4" t="e">
+      <c r="L48" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R48" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S48" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R48" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>189</v>
       </c>
@@ -3099,27 +3297,31 @@
         <v>20</v>
       </c>
       <c r="I49" s="2">
+        <f t="shared" si="19"/>
+        <v>1.1939524999999999E-2</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K49" s="2">
         <f t="shared" si="20"/>
-        <v>1.1939524999999999E-2</v>
-      </c>
-      <c r="J49" s="2">
-        <f t="shared" si="21"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K49" s="2">
-        <f t="shared" si="19"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q49" s="4" t="e">
+      <c r="L49" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R49" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S49" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R49" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>190</v>
       </c>
@@ -3130,27 +3332,31 @@
         <v>20</v>
       </c>
       <c r="I50" s="2">
+        <f t="shared" si="19"/>
+        <v>1.1939524999999999E-2</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K50" s="2">
         <f t="shared" si="20"/>
-        <v>1.1939524999999999E-2</v>
-      </c>
-      <c r="J50" s="2">
-        <f t="shared" si="21"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K50" s="2">
-        <f t="shared" si="19"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q50" s="4" t="e">
+      <c r="L50" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R50" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S50" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R50" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>194</v>
       </c>
@@ -3161,27 +3367,31 @@
         <v>20</v>
       </c>
       <c r="I51" s="2">
+        <f t="shared" si="19"/>
+        <v>1.1939524999999999E-2</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K51" s="2">
         <f t="shared" si="20"/>
-        <v>1.1939524999999999E-2</v>
-      </c>
-      <c r="J51" s="2">
-        <f t="shared" si="21"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K51" s="2">
-        <f t="shared" si="19"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q51" s="4" t="e">
+      <c r="L51" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R51" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S51" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R51" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>195</v>
       </c>
@@ -3192,27 +3402,31 @@
         <v>20</v>
       </c>
       <c r="I52" s="2">
+        <f t="shared" si="19"/>
+        <v>1.1939524999999999E-2</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K52" s="2">
         <f t="shared" si="20"/>
-        <v>1.1939524999999999E-2</v>
-      </c>
-      <c r="J52" s="2">
-        <f t="shared" si="21"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K52" s="2">
-        <f t="shared" si="19"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q52" s="4" t="e">
+      <c r="L52" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R52" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S52" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R52" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>196</v>
       </c>
@@ -3223,27 +3437,31 @@
         <v>20</v>
       </c>
       <c r="I53" s="2">
+        <f t="shared" si="19"/>
+        <v>1.1939524999999999E-2</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K53" s="2">
         <f t="shared" si="20"/>
-        <v>1.1939524999999999E-2</v>
-      </c>
-      <c r="J53" s="2">
-        <f t="shared" si="21"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K53" s="2">
-        <f t="shared" si="19"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-      <c r="Q53" s="4" t="e">
+      <c r="L53" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R53" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S53" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R53" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>201</v>
       </c>
@@ -3269,42 +3487,46 @@
         <v>21.690999999999999</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.0150790044449998E-2</v>
       </c>
       <c r="J54" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5789234809236087E-3</v>
+      </c>
+      <c r="K54" s="2">
         <f>(I54/(1+I54))*100</f>
         <v>1.9752756397485109</v>
       </c>
-      <c r="K54" s="2">
-        <f>J54-$F$1</f>
-        <v>0.83077563974851087</v>
-      </c>
-      <c r="L54" s="1">
+      <c r="L54" s="2">
+        <f>K54-$F$1</f>
+        <v>0.83132665641126069</v>
+      </c>
+      <c r="M54" s="1">
         <v>7</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N54" s="1">
+      <c r="O54" s="1">
         <v>647.29999999999995</v>
       </c>
-      <c r="O54" s="1">
+      <c r="P54" s="1">
         <v>-33.524999999999999</v>
       </c>
-      <c r="P54" s="1">
+      <c r="Q54" s="1">
         <v>11.316000000000001</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="R54" s="4">
+        <f t="shared" si="4"/>
+        <v>208.24780823211245</v>
+      </c>
+      <c r="S54" s="4">
         <f t="shared" si="17"/>
-        <v>624.74342469633734</v>
-      </c>
-      <c r="R54" s="4">
-        <f t="shared" si="18"/>
-        <v>5190.2161833077525</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1731.2195412257545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>202</v>
       </c>
@@ -3330,88 +3552,108 @@
         <v>19.494</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.0090435745574998E-2</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
+        <v>8.518569182048609E-3</v>
+      </c>
+      <c r="K55" s="2">
+        <f>(I55/(1+I55))*100</f>
         <v>1.9694759446392693</v>
       </c>
-      <c r="K55" s="2">
-        <f t="shared" si="19"/>
-        <v>0.82497594463926927</v>
-      </c>
-      <c r="L55" s="1">
+      <c r="L55" s="2">
+        <f t="shared" si="18"/>
+        <v>0.82552696130201908</v>
+      </c>
+      <c r="M55" s="1">
         <v>8</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="N55" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N55" s="1">
+      <c r="O55" s="1">
         <v>646.6</v>
       </c>
-      <c r="O55" s="1">
+      <c r="P55" s="1">
         <v>-32.984999999999999</v>
       </c>
-      <c r="P55" s="1">
+      <c r="Q55" s="1">
         <v>10.083</v>
       </c>
-      <c r="Q55" s="4">
-        <f>((H55/P55)*$D$1)/256.4*(1/$D$2*1000)</f>
-        <v>630.1243361843965</v>
-      </c>
       <c r="R55" s="4">
-        <f>Q55*(K55/100)*1000</f>
-        <v>5198.3741948391498</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>210.04144539479884</v>
+      </c>
+      <c r="S55" s="4">
+        <f>R55*(L55/100)*1000</f>
+        <v>1733.9487616425226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>203</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" ref="I56:I57" si="22">(((G56/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I56:I57" si="21">(((G56/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1939524999999999E-2</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" ref="J56:J59" si="23">(I56/(1+I56))*100</f>
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" ref="K56:K59" si="22">(I56/(1+I56))*100</f>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K56" s="2">
-        <f t="shared" ref="K56:K59" si="24">J56-$F$1</f>
-        <v>3.5365466762946829E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L56" s="2">
+        <f>K56-$F$1</f>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R56" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>204</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I57" s="2">
+        <f t="shared" si="21"/>
+        <v>1.1939524999999999E-2</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="3"/>
+        <v>3.676584364736106E-4</v>
+      </c>
+      <c r="K57" s="2">
         <f t="shared" si="22"/>
-        <v>1.1939524999999999E-2</v>
-      </c>
-      <c r="J57" s="2">
-        <f t="shared" si="23"/>
         <v>1.1798654667629469</v>
       </c>
-      <c r="K57" s="2">
-        <f t="shared" si="24"/>
-        <v>3.5365466762946829E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L57" s="2">
+        <f t="shared" ref="L57:L59" si="23">K57-$F$1</f>
+        <v>3.5916483425696644E-2</v>
+      </c>
+      <c r="R57" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>205</v>
       </c>
@@ -3425,7 +3667,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F58" s="2">
         <v>793.8</v>
@@ -3441,38 +3683,42 @@
         <v>2.0141823461175001E-2</v>
       </c>
       <c r="J58" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5699568976486118E-3</v>
+      </c>
+      <c r="K58" s="2">
         <f>(I58/(1+I58))*100</f>
         <v>1.9744140469446763</v>
       </c>
-      <c r="K58" s="2">
-        <f t="shared" si="24"/>
-        <v>0.82991404694467619</v>
-      </c>
-      <c r="L58" s="1">
+      <c r="L58" s="2">
+        <f t="shared" si="23"/>
+        <v>0.830465063607426</v>
+      </c>
+      <c r="M58" s="1">
         <v>4</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N58" s="1">
+      <c r="N58" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O58" s="1">
         <v>645</v>
       </c>
-      <c r="O58" s="1">
+      <c r="P58" s="1">
         <v>-31.172000000000001</v>
       </c>
-      <c r="P58" s="1">
+      <c r="Q58" s="1">
         <v>9.859</v>
       </c>
-      <c r="Q58" s="4">
-        <f>((H58/P58)*$D$1)/256.4*(1/0.1*1000)</f>
-        <v>740.44265959704217</v>
-      </c>
       <c r="R58" s="4">
-        <f t="shared" ref="R58:R59" si="25">Q58*(K58/100)*1000</f>
-        <v>6145.037641566606</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+        <f>((H58/Q58)*$D$1)/256.4*(1/0.1*1000)/3</f>
+        <v>246.81421986568071</v>
+      </c>
+      <c r="S58" s="4">
+        <f t="shared" ref="S58:S59" si="24">R58*(L58/100)*1000</f>
+        <v>2049.7058679996971</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>206</v>
       </c>
@@ -3486,57 +3732,61 @@
         <v>30</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F59" s="2">
-        <v>796.9</v>
+        <v>790.7</v>
       </c>
       <c r="G59" s="2">
-        <v>807.54</v>
+        <v>715.16399999999999</v>
       </c>
       <c r="H59" s="2">
-        <v>3.1640000000000001</v>
+        <v>8.6080000000000005</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" ref="I59" si="26">(((G59/1000)+1)*0.0112372)*(17/16)</f>
-        <v>2.1581169018500001E-2</v>
+        <f t="shared" ref="I59" si="25">(((G59/1000)+1)*0.0112372)*(17/16)</f>
+        <v>2.0478243457099997E-2</v>
       </c>
       <c r="J59" s="2">
+        <f t="shared" si="3"/>
+        <v>8.906376893573608E-3</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="22"/>
+        <v>2.0067300394102801</v>
+      </c>
+      <c r="L59" s="2">
         <f t="shared" si="23"/>
-        <v>2.1125261186278959</v>
-      </c>
-      <c r="K59" s="2">
+        <v>0.8627810560730298</v>
+      </c>
+      <c r="M59" s="1">
+        <v>30</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O59" s="1">
+        <v>642.29999999999995</v>
+      </c>
+      <c r="P59" s="1">
+        <v>-32.645000000000003</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>14.689</v>
+      </c>
+      <c r="R59" s="4">
+        <f>((H59/Q59)*$D$1)/256.4*(1/0.1*1000)/3</f>
+        <v>190.99635794268318</v>
+      </c>
+      <c r="S59" s="4">
         <f t="shared" si="24"/>
-        <v>0.96802611862789578</v>
-      </c>
-      <c r="L59" s="1">
-        <v>30</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="N59" s="1">
-        <v>646.9</v>
-      </c>
-      <c r="O59" s="1">
-        <v>-47.045000000000002</v>
-      </c>
-      <c r="P59" s="1">
-        <v>5.6040000000000001</v>
-      </c>
-      <c r="Q59" s="4">
-        <f>((H59/P59)*$D$1)/256.4*(1/0.1*1000)</f>
-        <v>552.04522956078858</v>
-      </c>
-      <c r="R59" s="4">
-        <f t="shared" si="25"/>
-        <v>5343.9420087877588</v>
+        <v>1647.8803941189062</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3545,10 +3795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2164ACBF-CB39-409E-845E-5FA3CBD74056}">
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3560,18 +3810,18 @@
     <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="17.28515625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="17.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26" style="4" customWidth="1"/>
-    <col min="18" max="18" width="29.85546875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="16.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="17.28515625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="17.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26" style="4" customWidth="1"/>
+    <col min="19" max="19" width="29.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3579,7 +3829,7 @@
         <v>23.945</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
@@ -3587,7 +3837,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
@@ -3598,15 +3848,16 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -3635,34 +3886,37 @@
         <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="M5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="R5" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -3691,35 +3945,35 @@
         <f>(((G6/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1587500044899999E-2</v>
       </c>
-      <c r="J6" s="2">
-        <f>(I6/(1+I6))*100</f>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6:K29" si="0">(I6/(1+I6))*100</f>
         <v>1.1454767921099935</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>1036.4000000000001</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>-31.545999999999999</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>54.048000000000002</v>
       </c>
-      <c r="Q6" s="4">
-        <f>((H6/P6)*$D$1)/256.4*(1/$D$2*1000)</f>
+      <c r="R6" s="4">
+        <f t="shared" ref="R6:R37" si="1">((H6/Q6)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>62.987509879317621</v>
       </c>
-      <c r="R6" s="4">
-        <f>Q6*(K6/100)*1000</f>
+      <c r="S6" s="4">
+        <f>R6*(L6/100)*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>102</v>
       </c>
@@ -3745,38 +3999,38 @@
         <v>15.25</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" ref="I7:I11" si="0">(((G7/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I7:I11" si="2">(((G7/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.15541648911E-2</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" ref="J7:J17" si="1">(I7/(1+I7))*100</f>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
         <v>1.1422191012721377</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>9</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>1021.8</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>-35.575000000000003</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>23.155999999999999</v>
       </c>
-      <c r="Q7" s="4">
-        <f t="shared" ref="Q7:Q8" si="2">((H7/P7)*$D$1)/256.4*(1/$D$2*1000)</f>
+      <c r="R7" s="4">
+        <f t="shared" si="1"/>
         <v>205.01322082594831</v>
       </c>
-      <c r="R7" s="4">
-        <f t="shared" ref="R7:R17" si="3">Q7*(K7/100)*1000</f>
+      <c r="S7" s="4">
+        <f t="shared" ref="S7:S17" si="3">R7*(L7/100)*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -3802,38 +4056,38 @@
         <v>9.4039999999999999</v>
       </c>
       <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1581804891474999E-2</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>1.1581804891474999E-2</v>
-      </c>
-      <c r="J8" s="2">
+        <v>1.1449202462392571</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1037.7</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-32.146999999999998</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>72.122</v>
+      </c>
+      <c r="R8" s="4">
         <f t="shared" si="1"/>
-        <v>1.1449202462392571</v>
-      </c>
-      <c r="L8" s="1">
-        <v>7</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1037.7</v>
-      </c>
-      <c r="O8" s="1">
-        <v>-32.146999999999998</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72.122</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="2"/>
         <v>40.59012836096484</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>104</v>
       </c>
@@ -3859,42 +4113,46 @@
         <v>11.65</v>
       </c>
       <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4023103447274999E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <f>I9-AVERAGE($I$6:$I$8)</f>
+        <v>2.448613504783332E-3</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="0"/>
-        <v>1.4023103447274999E-2</v>
-      </c>
-      <c r="J9" s="2">
+        <v>1.3829175488804966</v>
+      </c>
+      <c r="L9" s="2">
+        <f>K9-AVERAGE($K$6:$K$8)</f>
+        <v>0.23871216900670045</v>
+      </c>
+      <c r="M9" s="1">
+        <v>8</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1054</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-36.988</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>62.743000000000002</v>
+      </c>
+      <c r="R9" s="4">
         <f t="shared" si="1"/>
-        <v>1.3829175488804966</v>
-      </c>
-      <c r="K9" s="2">
-        <f>J9-AVERAGE($J$6:$J$8)</f>
-        <v>0.23871216900670045</v>
-      </c>
-      <c r="L9" s="1">
-        <v>8</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1054</v>
-      </c>
-      <c r="O9" s="1">
-        <v>-36.988</v>
-      </c>
-      <c r="P9" s="1">
-        <v>62.743000000000002</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" ref="Q9:Q11" si="4">((H9/P9)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>57.801114301397526</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <f t="shared" si="3"/>
         <v>137.97829365890814</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>105</v>
       </c>
@@ -3924,38 +4182,42 @@
         <v>1.3080668980924999E-2</v>
       </c>
       <c r="J10" s="2">
-        <f>(I10/(1+I10))*100</f>
+        <f>I10-AVERAGE($I$6:$I$8)</f>
+        <v>1.5061790384333328E-3</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
         <v>1.2911774334893851</v>
       </c>
-      <c r="K10" s="2">
-        <f t="shared" ref="K10" si="5">J10-AVERAGE($J$6:$J$8)</f>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10" si="4">K10-AVERAGE($K$6:$K$8)</f>
         <v>0.14697205361558896</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>9</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>1028.0999999999999</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>-36.725000000000001</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>35.064</v>
       </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="4"/>
+      <c r="R10" s="4">
+        <f t="shared" si="1"/>
         <v>61.053860845969325</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <f t="shared" si="3"/>
         <v>89.732113096925104</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>106</v>
       </c>
@@ -3981,42 +4243,46 @@
         <v>6.2649999999999997</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2622477769525001E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <f>I11-AVERAGE($I$6:$I$8)</f>
+        <v>1.0479878270333344E-3</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>1.2622477769525001E-2</v>
-      </c>
-      <c r="J11" s="2">
+        <v>1.2465136856657753</v>
+      </c>
+      <c r="L11" s="2">
+        <f>K11-AVERAGE($K$6:$K$8)</f>
+        <v>0.10230830579197914</v>
+      </c>
+      <c r="M11" s="1">
+        <v>10</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1028.0999999999999</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-33.323</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>30.454999999999998</v>
+      </c>
+      <c r="R11" s="4">
         <f t="shared" si="1"/>
-        <v>1.2465136856657753</v>
-      </c>
-      <c r="K11" s="2">
-        <f>J11-AVERAGE($J$6:$J$8)</f>
-        <v>0.10230830579197914</v>
-      </c>
-      <c r="L11" s="1">
-        <v>10</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1028.0999999999999</v>
-      </c>
-      <c r="O11" s="1">
-        <v>-33.323</v>
-      </c>
-      <c r="P11" s="1">
-        <v>30.454999999999998</v>
-      </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="4"/>
         <v>64.038040917466617</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <f t="shared" si="3"/>
         <v>65.516234725034465</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>107</v>
       </c>
@@ -4045,35 +4311,35 @@
         <f>(((G12/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1621933635E-2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1488416026370252</v>
+      </c>
+      <c r="M12" s="1">
+        <v>16</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1024.5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-33.566000000000003</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>19.390999999999998</v>
+      </c>
+      <c r="R12" s="4">
         <f t="shared" si="1"/>
-        <v>1.1488416026370252</v>
-      </c>
-      <c r="L12" s="1">
-        <v>16</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1024.5</v>
-      </c>
-      <c r="O12" s="1">
-        <v>-33.566000000000003</v>
-      </c>
-      <c r="P12" s="1">
-        <v>19.390999999999998</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>((H12/P12)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>44.950382410118756</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>108</v>
       </c>
@@ -4102,35 +4368,35 @@
         <f>(((G13/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1598042645474999E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.14650702715324</v>
+      </c>
+      <c r="M13" s="1">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1026.5999999999999</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-35.188000000000002</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>20.826000000000001</v>
+      </c>
+      <c r="R13" s="4">
         <f t="shared" si="1"/>
-        <v>1.14650702715324</v>
-      </c>
-      <c r="L13" s="1">
-        <v>12</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1026.5999999999999</v>
-      </c>
-      <c r="O13" s="1">
-        <v>-35.188000000000002</v>
-      </c>
-      <c r="P13" s="1">
-        <v>20.826000000000001</v>
-      </c>
-      <c r="Q13" s="4">
-        <f>((H13/P13)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>57.891819418095075</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>109</v>
       </c>
@@ -4159,35 +4425,35 @@
         <f>(((G14/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1604334775149999E-2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1471218910631993</v>
+      </c>
+      <c r="M14" s="1">
+        <v>13</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1028.7</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-35.884999999999998</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>18.021999999999998</v>
+      </c>
+      <c r="R14" s="4">
         <f t="shared" si="1"/>
-        <v>1.1471218910631993</v>
-      </c>
-      <c r="L14" s="1">
-        <v>13</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1028.7</v>
-      </c>
-      <c r="O14" s="1">
-        <v>-35.884999999999998</v>
-      </c>
-      <c r="P14" s="1">
-        <v>18.021999999999998</v>
-      </c>
-      <c r="Q14" s="4">
-        <f>((H14/P14)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>41.058375494491543</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>110</v>
       </c>
@@ -4217,38 +4483,42 @@
         <v>1.3181880334350001E-2</v>
       </c>
       <c r="J15" s="2">
+        <f>I15-AVERAGE($I$12:$I$14)</f>
+        <v>1.5737766491416665E-3</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3010379074288203</v>
+      </c>
+      <c r="L15" s="2">
+        <f>K15-AVERAGE($K$12:$K$14)</f>
+        <v>0.15354773381099873</v>
+      </c>
+      <c r="M15" s="1">
+        <v>14</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1046.5</v>
+      </c>
+      <c r="P15" s="1">
+        <v>-36.46</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>37.863999999999997</v>
+      </c>
+      <c r="R15" s="4">
         <f t="shared" si="1"/>
-        <v>1.3010379074288203</v>
-      </c>
-      <c r="K15" s="2">
-        <f>J15-AVERAGE($J$12:$J$14)</f>
-        <v>0.15354773381099873</v>
-      </c>
-      <c r="L15" s="1">
-        <v>14</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1046.5</v>
-      </c>
-      <c r="O15" s="1">
-        <v>-36.46</v>
-      </c>
-      <c r="P15" s="1">
-        <v>37.863999999999997</v>
-      </c>
-      <c r="Q15" s="4">
-        <f>((H15/P15)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>54.96869753302704</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <f t="shared" si="3"/>
         <v>84.403189367385394</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>111</v>
       </c>
@@ -4274,42 +4544,46 @@
         <v>12.061</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" ref="I16:I17" si="6">(((G16/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I16:I17" si="5">(((G16/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.3108702985624998E-2</v>
       </c>
       <c r="J16" s="2">
+        <f>I16-AVERAGE($I$12:$I$14)</f>
+        <v>1.5005993004166638E-3</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2939088319934213</v>
+      </c>
+      <c r="L16" s="2">
+        <f>K16-AVERAGE($K$12:$K$14)</f>
+        <v>0.14641865837559975</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1041</v>
+      </c>
+      <c r="P16" s="1">
+        <v>-31.012</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>80.356999999999999</v>
+      </c>
+      <c r="R16" s="4">
         <f t="shared" si="1"/>
-        <v>1.2939088319934213</v>
-      </c>
-      <c r="K16" s="2">
-        <f>J16-AVERAGE($J$12:$J$14)</f>
-        <v>0.14641865837559975</v>
-      </c>
-      <c r="L16" s="1">
-        <v>5</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1041</v>
-      </c>
-      <c r="O16" s="1">
-        <v>-31.012</v>
-      </c>
-      <c r="P16" s="1">
-        <v>80.356999999999999</v>
-      </c>
-      <c r="Q16" s="4">
-        <f t="shared" ref="Q16:Q17" si="7">((H16/P16)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>46.723478568670984</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <f t="shared" si="3"/>
         <v>68.411890466658932</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>112</v>
       </c>
@@ -4335,42 +4609,46 @@
         <v>14.21</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.3182823556825001E-2</v>
       </c>
       <c r="J17" s="2">
+        <f>I17-AVERAGE($I$12:$I$14)</f>
+        <v>1.5747198716166665E-3</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3011297912203141</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" ref="L17" si="6">K17-AVERAGE($K$12:$K$14)</f>
+        <v>0.15363961760249256</v>
+      </c>
+      <c r="M17" s="1">
+        <v>6</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1041.7</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-31.901</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>80.343999999999994</v>
+      </c>
+      <c r="R17" s="4">
         <f t="shared" si="1"/>
-        <v>1.3011297912203141</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" ref="K17" si="8">J17-AVERAGE($J$12:$J$14)</f>
-        <v>0.15363961760249256</v>
-      </c>
-      <c r="L17" s="1">
-        <v>6</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1041.7</v>
-      </c>
-      <c r="O17" s="1">
-        <v>-31.901</v>
-      </c>
-      <c r="P17" s="1">
-        <v>80.343999999999994</v>
-      </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="7"/>
         <v>55.05746280334138</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <f t="shared" si="3"/>
         <v>84.590075312688285</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>113</v>
       </c>
@@ -4384,7 +4662,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F18" s="2">
         <v>796.9</v>
@@ -4396,38 +4674,38 @@
         <v>5.5060000000000002</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" ref="I18:I29" si="9">(((G18/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I18:I29" si="7">(((G18/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.164851101765E-2</v>
       </c>
-      <c r="J18" s="2">
-        <f t="shared" ref="J18:J65" si="10">(I18/(1+I18))*100</f>
+      <c r="K18" s="2">
+        <f t="shared" si="0"/>
         <v>1.1514385570470898</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>5</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="N18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" s="1">
         <v>1028.7</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>-31.626000000000001</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>36.018000000000001</v>
       </c>
-      <c r="Q18" s="4">
-        <f t="shared" ref="Q18:Q29" si="11">((H18/P18)*$D$1)/256.4*(1/$D$2*1000)</f>
+      <c r="R18" s="4">
+        <f t="shared" si="1"/>
         <v>47.587422126459167</v>
       </c>
-      <c r="R18" s="4">
-        <f t="shared" ref="R18:R29" si="12">Q18*(K18/100)*1000</f>
+      <c r="S18" s="4">
+        <f t="shared" ref="S18:S29" si="8">R18*(L18/100)*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>114</v>
       </c>
@@ -4441,7 +4719,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F19" s="2">
         <v>798.4</v>
@@ -4453,38 +4731,38 @@
         <v>6.7489999999999997</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.1591547543875E-2</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" si="10"/>
+      <c r="K19" s="2">
+        <f t="shared" si="0"/>
         <v>1.1458723209005706</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>6</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="N19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" s="1">
         <v>1032</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>-31.667000000000002</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>49.353999999999999</v>
       </c>
-      <c r="Q19" s="4">
-        <f t="shared" si="11"/>
+      <c r="R19" s="4">
+        <f t="shared" si="1"/>
         <v>42.568920510193998</v>
       </c>
-      <c r="R19" s="4">
-        <f t="shared" si="12"/>
+      <c r="S19" s="4">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>115</v>
       </c>
@@ -4498,7 +4776,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F20" s="2">
         <v>797.5</v>
@@ -4510,38 +4788,38 @@
         <v>4.649</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.1578628977824999E-2</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="10"/>
+      <c r="K20" s="2">
+        <f t="shared" si="0"/>
         <v>1.1446098846043153</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>7</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="N20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" s="1">
         <v>1027</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>-31.866</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>32.372</v>
       </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="11"/>
+      <c r="R20" s="4">
+        <f t="shared" si="1"/>
         <v>44.705975962997499</v>
       </c>
-      <c r="R20" s="4">
-        <f t="shared" si="12"/>
+      <c r="S20" s="4">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>116</v>
       </c>
@@ -4555,7 +4833,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F21" s="2">
         <v>799.4</v>
@@ -4567,42 +4845,46 @@
         <v>8.6340000000000003</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.3481347500399999E-2</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="10"/>
+        <f>I21-AVERAGE($I$18:$I$20)</f>
+        <v>1.8751183206166672E-3</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="0"/>
         <v>1.3302018368319972</v>
       </c>
-      <c r="K21" s="2">
-        <f t="shared" ref="K21:K22" si="13">J21-AVERAGE($J$18:$J$20)</f>
+      <c r="L21" s="2">
+        <f t="shared" ref="L21:L22" si="9">K21-AVERAGE($K$18:$K$20)</f>
         <v>0.18289491598133867</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>8</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="N21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" s="1">
         <v>1038.0999999999999</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>-32.081000000000003</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>65.052999999999997</v>
       </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="11"/>
+      <c r="R21" s="4">
+        <f t="shared" si="1"/>
         <v>41.316191408359153</v>
       </c>
-      <c r="R21" s="4">
-        <f t="shared" si="12"/>
+      <c r="S21" s="4">
+        <f t="shared" si="8"/>
         <v>75.565213563007532</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>117</v>
       </c>
@@ -4616,7 +4898,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F22" s="2">
         <v>799.2</v>
@@ -4628,42 +4910,46 @@
         <v>7.7329999999999997</v>
       </c>
       <c r="I22" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3241339168849999E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" ref="J22:J23" si="10">I22-AVERAGE($I$18:$I$20)</f>
+        <v>1.635109989066668E-3</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3068297410478451</v>
+      </c>
+      <c r="L22" s="2">
         <f t="shared" si="9"/>
-        <v>1.3241339168849999E-2</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="10"/>
-        <v>1.3068297410478451</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="13"/>
         <v>0.15952282019718655</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>9</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="N22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22" s="1">
         <v>1035.5999999999999</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>-33.247999999999998</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>48.561999999999998</v>
       </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="11"/>
+      <c r="R22" s="4">
+        <f t="shared" si="1"/>
         <v>49.570923675462737</v>
       </c>
-      <c r="R22" s="4">
-        <f>Q22*(K22/100)*1000</f>
+      <c r="S22" s="4">
+        <f>R22*(L22/100)*1000</f>
         <v>79.07693544489301</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>118</v>
       </c>
@@ -4677,7 +4963,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F23" s="2">
         <v>800.3</v>
@@ -4689,42 +4975,46 @@
         <v>9.7899999999999991</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.3886192914099999E-2</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="10"/>
+        <v>2.2799637343166677E-3</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="0"/>
         <v>1.3696007511640396</v>
       </c>
-      <c r="K23" s="2">
-        <f>J23-AVERAGE($J$18:$J$20)</f>
+      <c r="L23" s="2">
+        <f>K23-AVERAGE($K$18:$K$20)</f>
         <v>0.22229383031338101</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>10</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N23" s="1">
+      <c r="N23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O23" s="1">
         <v>1037.3</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>-34.216999999999999</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>51.805999999999997</v>
       </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="11"/>
+      <c r="R23" s="4">
+        <f t="shared" si="1"/>
         <v>58.82720252639006</v>
       </c>
-      <c r="R23" s="4">
-        <f t="shared" si="12"/>
+      <c r="S23" s="4">
+        <f t="shared" si="8"/>
         <v>130.7692417621225</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>119</v>
       </c>
@@ -4738,7 +5028,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F24" s="2">
         <v>797.5</v>
@@ -4750,38 +5040,38 @@
         <v>4.4770000000000003</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.1586222515724999E-2</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" si="10"/>
+      <c r="K24" s="2">
+        <f t="shared" si="0"/>
         <v>1.1453519490321937</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>11</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="N24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O24" s="1">
         <v>1027.9000000000001</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>-33.869999999999997</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>28.068999999999999</v>
       </c>
-      <c r="Q24" s="4">
-        <f t="shared" si="11"/>
+      <c r="R24" s="4">
+        <f t="shared" si="1"/>
         <v>49.65188258034437</v>
       </c>
-      <c r="R24" s="4">
-        <f t="shared" si="12"/>
+      <c r="S24" s="4">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>120</v>
       </c>
@@ -4795,7 +5085,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F25" s="2">
         <v>797.8</v>
@@ -4807,38 +5097,38 @@
         <v>5.0119999999999996</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.1574521781224999E-2</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="10"/>
+      <c r="K25" s="2">
+        <f t="shared" si="0"/>
         <v>1.1442085117806318</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>12</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="N25" s="1">
+      <c r="N25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O25" s="1">
         <v>1027.9000000000001</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>-33.555999999999997</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <v>27.695</v>
       </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="11"/>
+      <c r="R25" s="4">
+        <f t="shared" si="1"/>
         <v>56.335902831310939</v>
       </c>
-      <c r="R25" s="4">
-        <f t="shared" si="12"/>
+      <c r="S25" s="4">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>121</v>
       </c>
@@ -4852,7 +5142,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F26" s="2">
         <v>799.4</v>
@@ -4864,38 +5154,38 @@
         <v>7.2679999999999998</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.1582676476799999E-2</v>
       </c>
-      <c r="J26" s="2">
-        <f t="shared" si="10"/>
+      <c r="K26" s="2">
+        <f t="shared" si="0"/>
         <v>1.1450054203321107</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>13</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N26" s="1">
+      <c r="N26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O26" s="1">
         <v>1026.2</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>-32.993000000000002</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>41.616</v>
       </c>
-      <c r="Q26" s="4">
-        <f t="shared" si="11"/>
+      <c r="R26" s="4">
+        <f t="shared" si="1"/>
         <v>54.366346606959254</v>
       </c>
-      <c r="R26" s="4">
-        <f t="shared" si="12"/>
+      <c r="S26" s="4">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>122</v>
       </c>
@@ -4909,7 +5199,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F27" s="2">
         <v>799.8</v>
@@ -4921,42 +5211,46 @@
         <v>7.5309999999999997</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.3286315359524998E-2</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="10"/>
+        <f>I27-AVERAGE($I$24:$I$26)</f>
+        <v>1.7051751016083343E-3</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="0"/>
         <v>1.3112103813235521</v>
       </c>
-      <c r="K27" s="2">
-        <f t="shared" ref="K27:K29" si="14">J27-AVERAGE($J$24:$J$26)</f>
+      <c r="L27" s="2">
+        <f t="shared" ref="L27:L29" si="11">K27-AVERAGE($K$24:$K$26)</f>
         <v>0.16635508760857332</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>14</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="N27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O27" s="1">
         <v>1026.5999999999999</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>-34.226999999999997</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <v>47.167000000000002</v>
       </c>
-      <c r="Q27" s="4">
-        <f t="shared" si="11"/>
+      <c r="R27" s="4">
+        <f t="shared" si="1"/>
         <v>49.70384188615791</v>
       </c>
-      <c r="R27" s="4">
-        <f t="shared" si="12"/>
+      <c r="S27" s="4">
+        <f t="shared" si="8"/>
         <v>82.684869714544746</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>123</v>
       </c>
@@ -4970,7 +5264,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F28" s="2">
         <v>800.3</v>
@@ -4982,42 +5276,46 @@
         <v>7.9009999999999998</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.3251762374174999E-2</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J28:J29" si="12">I28-AVERAGE($I$24:$I$26)</f>
+        <v>1.6706221162583346E-3</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="0"/>
         <v>1.307844986435007</v>
       </c>
-      <c r="K28" s="2">
-        <f t="shared" si="14"/>
+      <c r="L28" s="2">
+        <f t="shared" si="11"/>
         <v>0.16298969272002828</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>15</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N28" s="1">
+      <c r="N28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O28" s="1">
         <v>1027.9000000000001</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>-34.902999999999999</v>
       </c>
-      <c r="P28" s="1">
+      <c r="Q28" s="1">
         <v>47.131</v>
       </c>
-      <c r="Q28" s="4">
-        <f t="shared" si="11"/>
+      <c r="R28" s="4">
+        <f t="shared" si="1"/>
         <v>52.185635090422402</v>
       </c>
-      <c r="R28" s="4">
-        <f t="shared" si="12"/>
+      <c r="S28" s="4">
+        <f t="shared" si="8"/>
         <v>85.057206277874712</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>124</v>
       </c>
@@ -5031,7 +5329,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F29" s="2">
         <v>801.3</v>
@@ -5043,42 +5341,46 @@
         <v>9.3149999999999995</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.2744786263625E-2</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
+        <v>1.1636460057083357E-3</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="0"/>
         <v>1.2584400765611483</v>
       </c>
-      <c r="K29" s="2">
-        <f t="shared" si="14"/>
+      <c r="L29" s="2">
+        <f t="shared" si="11"/>
         <v>0.11358478284616957</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>16</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N29" s="1">
+      <c r="N29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O29" s="1">
         <v>1040.5999999999999</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>-35.356000000000002</v>
       </c>
-      <c r="P29" s="1">
+      <c r="Q29" s="1">
         <v>44.243000000000002</v>
       </c>
-      <c r="Q29" s="4">
-        <f t="shared" si="11"/>
+      <c r="R29" s="4">
+        <f t="shared" si="1"/>
         <v>65.54111982529615</v>
       </c>
-      <c r="R29" s="4">
-        <f t="shared" si="12"/>
+      <c r="S29" s="4">
+        <f t="shared" si="8"/>
         <v>74.444738628510422</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>125</v>
       </c>
@@ -5088,16 +5390,16 @@
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="4" t="e">
-        <f t="shared" ref="Q30:Q65" si="15">((H30/P30)*$D$1)/256.4*(1/$D$2*1000)</f>
+      <c r="R30" s="4" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="4" t="e">
-        <f t="shared" ref="R30:R65" si="16">Q30*(K30/100)*1000</f>
+      <c r="S30" s="4" t="e">
+        <f t="shared" ref="S30:S65" si="13">R30*(L30/100)*1000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>126</v>
       </c>
@@ -5107,16 +5409,16 @@
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R31" s="4" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R31" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S31" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>127</v>
       </c>
@@ -5126,16 +5428,16 @@
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R32" s="4" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R32" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S32" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>128</v>
       </c>
@@ -5145,16 +5447,16 @@
       <c r="C33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R33" s="4" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R33" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S33" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>129</v>
       </c>
@@ -5164,16 +5466,16 @@
       <c r="C34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R34" s="4" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R34" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S34" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>130</v>
       </c>
@@ -5183,16 +5485,16 @@
       <c r="C35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R35" s="4" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R35" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S35" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>131</v>
       </c>
@@ -5202,16 +5504,16 @@
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R36" s="4" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R36" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S36" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>132</v>
       </c>
@@ -5221,16 +5523,16 @@
       <c r="C37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R37" s="4" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R37" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S37" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>133</v>
       </c>
@@ -5240,16 +5542,16 @@
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R38" s="4" t="e">
+        <f t="shared" ref="R38:R65" si="14">((H38/Q38)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R38" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S38" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>134</v>
       </c>
@@ -5259,16 +5561,16 @@
       <c r="C39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R39" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R39" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S39" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>135</v>
       </c>
@@ -5278,16 +5580,16 @@
       <c r="C40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R40" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R40" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S40" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>136</v>
       </c>
@@ -5297,16 +5599,16 @@
       <c r="C41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R41" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R41" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S41" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>137</v>
       </c>
@@ -5316,16 +5618,16 @@
       <c r="C42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R42" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R42" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S42" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>138</v>
       </c>
@@ -5335,16 +5637,16 @@
       <c r="C43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R43" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R43" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S43" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>139</v>
       </c>
@@ -5354,16 +5656,16 @@
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R44" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R44" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S44" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>140</v>
       </c>
@@ -5373,16 +5675,16 @@
       <c r="C45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R45" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R45" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S45" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>141</v>
       </c>
@@ -5392,16 +5694,16 @@
       <c r="C46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R46" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R46" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S46" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>142</v>
       </c>
@@ -5411,16 +5713,16 @@
       <c r="C47" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q47" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R47" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R47" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S47" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>143</v>
       </c>
@@ -5430,16 +5732,16 @@
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R48" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R48" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S48" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>144</v>
       </c>
@@ -5449,16 +5751,16 @@
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R49" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R49" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S49" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>145</v>
       </c>
@@ -5468,16 +5770,16 @@
       <c r="C50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q50" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R50" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R50" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S50" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>146</v>
       </c>
@@ -5487,16 +5789,16 @@
       <c r="C51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R51" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R51" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S51" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>147</v>
       </c>
@@ -5506,16 +5808,16 @@
       <c r="C52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R52" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R52" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S52" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>148</v>
       </c>
@@ -5525,16 +5827,16 @@
       <c r="C53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q53" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="R53" s="4" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R53" s="4" t="e">
-        <f t="shared" si="16"/>
+      <c r="S53" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>149</v>
       </c>
@@ -5548,7 +5850,7 @@
         <v>8</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F54" s="2">
         <v>798</v>
@@ -5560,38 +5862,38 @@
         <v>5.383</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" ref="I54:I65" si="17">(((G54/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I54:I65" si="15">(((G54/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.14917450544E-2</v>
       </c>
-      <c r="J54" s="2">
-        <f t="shared" si="10"/>
+      <c r="K54" s="2">
+        <f t="shared" ref="K54:K65" si="16">(I54/(1+I54))*100</f>
         <v>1.1361185210445737</v>
       </c>
-      <c r="L54" s="1">
+      <c r="M54" s="1">
         <v>8</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="N54" s="1">
+      <c r="N54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O54" s="1">
         <v>1040.2</v>
       </c>
-      <c r="O54" s="1">
+      <c r="P54" s="1">
         <v>-31.684999999999999</v>
       </c>
-      <c r="P54" s="1">
+      <c r="Q54" s="1">
         <v>84.808999999999997</v>
       </c>
-      <c r="Q54" s="4">
-        <f t="shared" si="15"/>
+      <c r="R54" s="4">
+        <f t="shared" si="14"/>
         <v>19.758683436514321</v>
       </c>
-      <c r="R54" s="4">
-        <f>Q54*(K54/100)*1000</f>
+      <c r="S54" s="4">
+        <f>R54*(L54/100)*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>150</v>
       </c>
@@ -5605,7 +5907,7 @@
         <v>9</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F55" s="2">
         <v>798.4</v>
@@ -5617,38 +5919,38 @@
         <v>11.074999999999999</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.1569626575975E-2</v>
       </c>
-      <c r="J55" s="2">
-        <f t="shared" si="10"/>
+      <c r="K55" s="2">
+        <f t="shared" si="16"/>
         <v>1.1437301271229945</v>
       </c>
-      <c r="L55" s="1">
+      <c r="M55" s="1">
         <v>9</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N55" s="1">
+      <c r="N55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O55" s="1">
         <v>1040.5999999999999</v>
       </c>
-      <c r="O55" s="1">
+      <c r="P55" s="1">
         <v>-31.512</v>
       </c>
-      <c r="P55" s="1">
+      <c r="Q55" s="1">
         <v>77.418999999999997</v>
       </c>
-      <c r="Q55" s="4">
-        <f t="shared" si="15"/>
+      <c r="R55" s="4">
+        <f t="shared" si="14"/>
         <v>44.531953135163093</v>
       </c>
-      <c r="R55" s="4">
-        <f t="shared" si="16"/>
+      <c r="S55" s="4">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>151</v>
       </c>
@@ -5662,7 +5964,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F56" s="2">
         <v>798.2</v>
@@ -5674,38 +5976,38 @@
         <v>10.484</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.1566187992775E-2</v>
       </c>
-      <c r="J56" s="2">
-        <f t="shared" si="10"/>
+      <c r="K56" s="2">
+        <f t="shared" si="16"/>
         <v>1.1433940883023672</v>
       </c>
-      <c r="L56" s="1">
+      <c r="M56" s="1">
         <v>10</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N56" s="1">
+      <c r="N56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O56" s="1">
         <v>1039.5999999999999</v>
       </c>
-      <c r="O56" s="1">
+      <c r="P56" s="1">
         <v>-32.006</v>
       </c>
-      <c r="P56" s="1">
+      <c r="Q56" s="1">
         <v>50.987000000000002</v>
       </c>
-      <c r="Q56" s="4">
-        <f t="shared" si="15"/>
+      <c r="R56" s="4">
+        <f t="shared" si="14"/>
         <v>64.009306013286292</v>
       </c>
-      <c r="R56" s="4">
-        <f t="shared" si="16"/>
+      <c r="S56" s="4">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>152</v>
       </c>
@@ -5719,7 +6021,7 @@
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F57" s="2">
         <v>798.8</v>
@@ -5731,42 +6033,46 @@
         <v>10.239000000000001</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.450401557475E-2</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="10"/>
+        <f>I57-AVERAGE($I$54:$I$56)</f>
+        <v>2.9614957003666672E-3</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="16"/>
         <v>1.4296656644116876</v>
       </c>
-      <c r="K57" s="2">
-        <f>J57-AVERAGE($J$54:$J$56)</f>
+      <c r="L57" s="2">
+        <f>K57-AVERAGE($K$54:$K$56)</f>
         <v>0.28858475225504265</v>
       </c>
-      <c r="L57" s="1">
+      <c r="M57" s="1">
         <v>11</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="N57" s="1">
+      <c r="N57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O57" s="1">
         <v>1043.0999999999999</v>
       </c>
-      <c r="O57" s="1">
+      <c r="P57" s="1">
         <v>-35.502000000000002</v>
       </c>
-      <c r="P57" s="1">
+      <c r="Q57" s="1">
         <v>42.061</v>
       </c>
-      <c r="Q57" s="4">
-        <f t="shared" si="15"/>
+      <c r="R57" s="4">
+        <f t="shared" si="14"/>
         <v>75.779810512931221</v>
       </c>
-      <c r="R57" s="4">
-        <f>Q57*(K57/100)*1000</f>
+      <c r="S57" s="4">
+        <f>R57*(L57/100)*1000</f>
         <v>218.68897842808332</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>153</v>
       </c>
@@ -5780,7 +6086,7 @@
         <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F58" s="2">
         <v>799</v>
@@ -5792,42 +6098,46 @@
         <v>9.984</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.35853168841E-2</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J58:J59" si="17">I58-AVERAGE($I$54:$I$56)</f>
+        <v>2.0427970097166674E-3</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="16"/>
         <v>1.3403229760532762</v>
       </c>
-      <c r="K58" s="2">
-        <f>J58-AVERAGE($J$54:$J$56)</f>
+      <c r="L58" s="2">
+        <f>K58-AVERAGE($K$54:$K$56)</f>
         <v>0.19924206389663124</v>
       </c>
-      <c r="L58" s="1">
+      <c r="M58" s="1">
         <v>12</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N58" s="1">
+      <c r="N58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O58" s="1">
         <v>1042.0999999999999</v>
       </c>
-      <c r="O58" s="1">
+      <c r="P58" s="1">
         <v>-34.183</v>
       </c>
-      <c r="P58" s="1">
+      <c r="Q58" s="1">
         <v>42.792000000000002</v>
       </c>
-      <c r="Q58" s="4">
-        <f t="shared" si="15"/>
+      <c r="R58" s="4">
+        <f t="shared" si="14"/>
         <v>72.630252377790015</v>
       </c>
-      <c r="R58" s="4">
-        <f t="shared" si="16"/>
+      <c r="S58" s="4">
+        <f t="shared" si="13"/>
         <v>144.71001385084094</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>154</v>
       </c>
@@ -5841,7 +6151,7 @@
         <v>13</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F59" s="2">
         <v>799.6</v>
@@ -5853,42 +6163,46 @@
         <v>11.978</v>
       </c>
       <c r="I59" s="2">
+        <f t="shared" si="15"/>
+        <v>1.3342765433724998E-2</v>
+      </c>
+      <c r="J59" s="2">
         <f t="shared" si="17"/>
-        <v>1.3342765433724998E-2</v>
-      </c>
-      <c r="J59" s="2">
-        <f t="shared" si="10"/>
+        <v>1.8002455593416657E-3</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="16"/>
         <v>1.3167080171548968</v>
       </c>
-      <c r="K59" s="2">
-        <f>J59-AVERAGE($J$54:$J$56)</f>
+      <c r="L59" s="2">
+        <f>K59-AVERAGE($K$54:$K$56)</f>
         <v>0.17562710499825185</v>
       </c>
-      <c r="L59" s="1">
+      <c r="M59" s="1">
         <v>13</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="N59" s="1">
+      <c r="N59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O59" s="1">
         <v>1041.7</v>
       </c>
-      <c r="O59" s="1">
+      <c r="P59" s="1">
         <v>-35.624000000000002</v>
       </c>
-      <c r="P59" s="1">
+      <c r="Q59" s="1">
         <v>42.276000000000003</v>
       </c>
-      <c r="Q59" s="4">
-        <f t="shared" si="15"/>
+      <c r="R59" s="4">
+        <f t="shared" si="14"/>
         <v>88.199472013320886</v>
       </c>
-      <c r="R59" s="4">
-        <f t="shared" si="16"/>
+      <c r="S59" s="4">
+        <f t="shared" si="13"/>
         <v>154.90217932073884</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>155</v>
       </c>
@@ -5902,7 +6216,7 @@
         <v>14</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F60" s="2">
         <v>797.8</v>
@@ -5914,38 +6228,38 @@
         <v>8.5530000000000008</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.1568981841624998E-2</v>
       </c>
-      <c r="J60" s="2">
-        <f t="shared" si="10"/>
+      <c r="K60" s="2">
+        <f t="shared" si="16"/>
         <v>1.1436671200181463</v>
       </c>
-      <c r="L60" s="1">
+      <c r="M60" s="1">
         <v>14</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="N60" s="1">
+      <c r="N60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O60" s="1">
         <v>1042.0999999999999</v>
       </c>
-      <c r="O60" s="1">
+      <c r="P60" s="1">
         <v>-34.189</v>
       </c>
-      <c r="P60" s="1">
+      <c r="Q60" s="1">
         <v>48.156999999999996</v>
       </c>
-      <c r="Q60" s="4">
-        <f t="shared" si="15"/>
+      <c r="R60" s="4">
+        <f t="shared" si="14"/>
         <v>55.288475322055866</v>
       </c>
-      <c r="R60" s="4">
-        <f t="shared" si="16"/>
+      <c r="S60" s="4">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>156</v>
       </c>
@@ -5959,7 +6273,7 @@
         <v>15</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F61" s="2">
         <v>798</v>
@@ -5971,38 +6285,38 @@
         <v>8.8249999999999993</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.1567083457149999E-2</v>
       </c>
-      <c r="J61" s="2">
-        <f t="shared" si="10"/>
+      <c r="K61" s="2">
+        <f t="shared" si="16"/>
         <v>1.1434815986319093</v>
       </c>
-      <c r="L61" s="1">
+      <c r="M61" s="1">
         <v>15</v>
       </c>
-      <c r="M61" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N61" s="1">
+      <c r="N61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O61" s="1">
         <v>1021.2</v>
       </c>
-      <c r="O61" s="1">
+      <c r="P61" s="1">
         <v>-33.421999999999997</v>
       </c>
-      <c r="P61" s="1">
+      <c r="Q61" s="1">
         <v>37.203000000000003</v>
       </c>
-      <c r="Q61" s="4">
-        <f t="shared" si="15"/>
+      <c r="R61" s="4">
+        <f t="shared" si="14"/>
         <v>73.843507593487629</v>
       </c>
-      <c r="R61" s="4">
-        <f t="shared" si="16"/>
+      <c r="S61" s="4">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>157</v>
       </c>
@@ -6016,7 +6330,7 @@
         <v>16</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F62" s="2">
         <v>799</v>
@@ -6028,38 +6342,38 @@
         <v>9.3620000000000001</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.1551585953700001E-2</v>
       </c>
-      <c r="J62" s="2">
-        <f t="shared" si="10"/>
+      <c r="K62" s="2">
+        <f t="shared" si="16"/>
         <v>1.1419670646662137</v>
       </c>
-      <c r="L62" s="1">
+      <c r="M62" s="1">
         <v>16</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N62" s="1">
+      <c r="N62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O62" s="1">
         <v>1041.2</v>
       </c>
-      <c r="O62" s="1">
+      <c r="P62" s="1">
         <v>-35.381999999999998</v>
       </c>
-      <c r="P62" s="1">
+      <c r="Q62" s="1">
         <v>32.929000000000002</v>
       </c>
-      <c r="Q62" s="4">
-        <f t="shared" si="15"/>
+      <c r="R62" s="4">
+        <f t="shared" si="14"/>
         <v>88.504562685468343</v>
       </c>
-      <c r="R62" s="4">
-        <f t="shared" si="16"/>
+      <c r="S62" s="4">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>158</v>
       </c>
@@ -6073,7 +6387,7 @@
         <v>17</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F63" s="2">
         <v>798.6</v>
@@ -6085,42 +6399,46 @@
         <v>7.9989999999999997</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.2803600363775E-2</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="10"/>
+        <f>I63-AVERAGE($I$60:$I$62)</f>
+        <v>1.241049946283334E-3</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="16"/>
         <v>1.2641740569619075</v>
       </c>
-      <c r="K63" s="2">
-        <f>J63-AVERAGE($J$60:$J$62)</f>
+      <c r="L63" s="2">
+        <f>K63-AVERAGE($K$60:$K$62)</f>
         <v>0.12113546252315111</v>
       </c>
-      <c r="L63" s="1">
+      <c r="M63" s="1">
         <v>17</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N63" s="1">
+      <c r="N63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O63" s="1">
         <v>1040.5999999999999</v>
       </c>
-      <c r="O63" s="1">
+      <c r="P63" s="1">
         <v>-38.909999999999997</v>
       </c>
-      <c r="P63" s="1">
+      <c r="Q63" s="1">
         <v>30.675000000000001</v>
       </c>
-      <c r="Q63" s="4">
-        <f t="shared" si="15"/>
+      <c r="R63" s="4">
+        <f t="shared" si="14"/>
         <v>81.175821278979925</v>
       </c>
-      <c r="R63" s="4">
-        <f t="shared" si="16"/>
+      <c r="S63" s="4">
+        <f t="shared" si="13"/>
         <v>98.332706563258853</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>159</v>
       </c>
@@ -6134,7 +6452,7 @@
         <v>18</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F64" s="2">
         <v>799.8</v>
@@ -6146,42 +6464,46 @@
         <v>10.75</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.2784138938024998E-2</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J64:J65" si="18">I64-AVERAGE($I$60:$I$62)</f>
+        <v>1.2215885205333326E-3</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="16"/>
         <v>1.2622767721688515</v>
       </c>
-      <c r="K64" s="2">
-        <f t="shared" ref="K64:K65" si="18">J64-AVERAGE($J$60:$J$62)</f>
+      <c r="L64" s="2">
+        <f t="shared" ref="L64:L65" si="19">K64-AVERAGE($K$60:$K$62)</f>
         <v>0.11923817773009504</v>
       </c>
-      <c r="L64" s="1">
+      <c r="M64" s="1">
         <v>18</v>
       </c>
-      <c r="M64" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="N64" s="1">
+      <c r="N64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O64" s="1">
         <v>1044.5999999999999</v>
       </c>
-      <c r="O64" s="1">
+      <c r="P64" s="1">
         <v>-40.68</v>
       </c>
-      <c r="P64" s="1">
+      <c r="Q64" s="1">
         <v>33.402000000000001</v>
       </c>
-      <c r="Q64" s="4">
-        <f t="shared" si="15"/>
+      <c r="R64" s="4">
+        <f t="shared" si="14"/>
         <v>100.18704292869639</v>
       </c>
-      <c r="R64" s="4">
-        <f t="shared" si="16"/>
+      <c r="S64" s="4">
+        <f t="shared" si="13"/>
         <v>119.46120430984561</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>160</v>
       </c>
@@ -6195,7 +6517,7 @@
         <v>19</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F65" s="2">
         <v>802.1</v>
@@ -6207,42 +6529,46 @@
         <v>9.3260000000000005</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.2872909306399999E-2</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
+        <v>1.3103588889083334E-3</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="16"/>
         <v>1.270930359388837</v>
       </c>
-      <c r="K65" s="2">
-        <f t="shared" si="18"/>
+      <c r="L65" s="2">
+        <f t="shared" si="19"/>
         <v>0.12789176495008059</v>
       </c>
-      <c r="L65" s="1">
+      <c r="M65" s="1">
         <v>19</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="N65" s="1">
+      <c r="N65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O65" s="1">
         <v>1044</v>
       </c>
-      <c r="O65" s="1">
+      <c r="P65" s="1">
         <v>-47.389000000000003</v>
       </c>
-      <c r="P65" s="1">
+      <c r="Q65" s="1">
         <v>38.073</v>
       </c>
-      <c r="Q65" s="4">
-        <f t="shared" si="15"/>
+      <c r="R65" s="4">
+        <f t="shared" si="14"/>
         <v>76.252463331007718</v>
       </c>
-      <c r="R65" s="4">
-        <f t="shared" si="16"/>
+      <c r="S65" s="4">
+        <f t="shared" si="13"/>
         <v>97.520621171938785</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>161</v>
       </c>
@@ -6253,7 +6579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>162</v>
       </c>
@@ -6264,7 +6590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>163</v>
       </c>
@@ -6275,7 +6601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>164</v>
       </c>
@@ -6286,7 +6612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>165</v>
       </c>
@@ -6297,7 +6623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>166</v>
       </c>
@@ -6308,7 +6634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>167</v>
       </c>
@@ -6319,7 +6645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>168</v>
       </c>
@@ -6330,7 +6656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>169</v>
       </c>
@@ -6341,7 +6667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>170</v>
       </c>
@@ -6352,7 +6678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>171</v>
       </c>
@@ -6363,7 +6689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>172</v>
       </c>
@@ -6374,7 +6700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>173</v>
       </c>
@@ -6385,7 +6711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>174</v>
       </c>
@@ -6396,7 +6722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>175</v>
       </c>
@@ -6583,7 +6909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>192</v>
       </c>
@@ -6594,7 +6920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>193</v>
       </c>
@@ -6605,7 +6931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>194</v>
       </c>
@@ -6616,7 +6942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>195</v>
       </c>
@@ -6627,7 +6953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>196</v>
       </c>
@@ -6638,7 +6964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>201</v>
       </c>
@@ -6664,42 +6990,42 @@
         <v>4.3890000000000002</v>
       </c>
       <c r="I102" s="2">
-        <f t="shared" ref="I102" si="19">(((G102/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I102" si="20">(((G102/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1847232471749998E-2</v>
       </c>
-      <c r="J102" s="2">
-        <f t="shared" ref="J102" si="20">(I102/(1+I102))*100</f>
+      <c r="K102" s="2">
+        <f>(I102/(1+I102))*100</f>
         <v>1.1708518926132223</v>
       </c>
-      <c r="K102" s="2">
-        <f>J102-AVERAGE($J$6:$J$8,$J$18:$J$20)</f>
+      <c r="L102" s="2">
+        <f>K102-AVERAGE($K$6:$K$8,$K$18:$K$20)</f>
         <v>2.5095742250994979E-2</v>
       </c>
-      <c r="L102" s="1">
+      <c r="M102" s="1">
         <v>7</v>
       </c>
-      <c r="M102" s="1" t="s">
+      <c r="N102" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N102" s="1">
+      <c r="O102" s="1">
         <v>1040.4000000000001</v>
       </c>
-      <c r="O102" s="1">
+      <c r="P102" s="1">
         <v>-32.052999999999997</v>
       </c>
-      <c r="P102" s="1">
+      <c r="Q102" s="1">
         <v>68.751999999999995</v>
       </c>
-      <c r="Q102" s="4">
-        <f t="shared" ref="Q102:Q103" si="21">((H102/P102)*$D$1)/256.4*(1/$D$2*1000)</f>
+      <c r="R102" s="4">
+        <f>((H102/Q102)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>19.872651215683263</v>
       </c>
-      <c r="R102" s="4">
-        <f t="shared" ref="R102:R103" si="22">Q102*(K102/100)*1000</f>
+      <c r="S102" s="4">
+        <f t="shared" ref="S102:S103" si="21">R102*(L102/100)*1000</f>
         <v>4.9871893275270915</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>202</v>
       </c>
@@ -6725,64 +7051,64 @@
         <v>5.1619999999999999</v>
       </c>
       <c r="I103" s="2">
-        <f t="shared" ref="I103:I107" si="23">(((G103/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I103:I107" si="22">(((G103/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.2762516458249999E-2</v>
       </c>
-      <c r="J103" s="2">
-        <f t="shared" ref="J103:J107" si="24">(I103/(1+I103))*100</f>
+      <c r="K103" s="2">
+        <f>(I103/(1+I103))*100</f>
         <v>1.2601687217731974</v>
       </c>
-      <c r="K103" s="2">
-        <f>J103-AVERAGE($J$12:$J$14,$J$24:$J$26)</f>
+      <c r="L103" s="2">
+        <f>K103-AVERAGE($K$12:$K$14,$K$24:$K$26)</f>
         <v>0.11399598810679712</v>
       </c>
-      <c r="L103" s="1">
+      <c r="M103" s="1">
         <v>8</v>
       </c>
-      <c r="M103" s="1" t="s">
+      <c r="N103" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N103" s="1">
+      <c r="O103" s="1">
         <v>1039.8</v>
       </c>
-      <c r="O103" s="1">
+      <c r="P103" s="1">
         <v>-32.298000000000002</v>
       </c>
-      <c r="P103" s="1">
+      <c r="Q103" s="1">
         <v>62.533000000000001</v>
       </c>
-      <c r="Q103" s="4">
+      <c r="R103" s="4">
+        <f>((H103/Q103)*$D$1)/256.4*(1/$D$2*1000)</f>
+        <v>25.697111072519601</v>
+      </c>
+      <c r="S103" s="4">
         <f t="shared" si="21"/>
-        <v>25.697111072519601</v>
-      </c>
-      <c r="R103" s="4">
-        <f t="shared" si="22"/>
         <v>29.293675682019892</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>203</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>204</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>205</v>
       </c>
@@ -6796,7 +7122,7 @@
         <v>27</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F106" s="2">
         <v>796.1</v>
@@ -6808,42 +7134,42 @@
         <v>2.617</v>
       </c>
       <c r="I106" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.2191317642724998E-2</v>
       </c>
-      <c r="J106" s="2">
-        <f t="shared" si="24"/>
+      <c r="K106" s="2">
+        <f>(I106/(1+I106))*100</f>
         <v>1.2044479566488624</v>
       </c>
-      <c r="K106" s="2">
-        <f>J106-AVERAGE($J$54:$J$56)</f>
+      <c r="L106" s="2">
+        <f>K106-AVERAGE($K$54:$K$56)</f>
         <v>6.3367044492217417E-2</v>
       </c>
-      <c r="L106" s="1">
+      <c r="M106" s="1">
         <v>27</v>
       </c>
-      <c r="M106" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N106" s="1">
+      <c r="N106" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O106" s="1">
         <v>1026</v>
       </c>
-      <c r="O106" s="1">
+      <c r="P106" s="1">
         <v>-34.973999999999997</v>
       </c>
-      <c r="P106" s="1">
+      <c r="Q106" s="1">
         <v>41.896999999999998</v>
       </c>
-      <c r="Q106" s="4">
-        <f>((H106/P106)*$D$1)/256.4*(1/0.1*1000)</f>
+      <c r="R106" s="4">
+        <f>((H106/Q106)*$D$1)/256.4*(1/0.1*1000)</f>
         <v>58.333443799121518</v>
       </c>
-      <c r="R106" s="4">
-        <f t="shared" ref="R106:R107" si="25">Q106*(K106/100)*1000</f>
+      <c r="S106" s="4">
+        <f t="shared" ref="S106:S107" si="23">R106*(L106/100)*1000</f>
         <v>36.964179286031978</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>206</v>
       </c>
@@ -6857,7 +7183,7 @@
         <v>28</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F107" s="2">
         <v>796.3</v>
@@ -6869,45 +7195,45 @@
         <v>2.714</v>
       </c>
       <c r="I107" s="2">
+        <f t="shared" si="22"/>
+        <v>1.2117626894425E-2</v>
+      </c>
+      <c r="K107" s="2">
+        <f>(I107/(1+I107))*100</f>
+        <v>1.1972548024488663</v>
+      </c>
+      <c r="L107" s="2">
+        <f>K107-AVERAGE($K$60:$K$62)</f>
+        <v>5.4216208010109845E-2</v>
+      </c>
+      <c r="M107" s="1">
+        <v>28</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O107" s="1">
+        <v>1024.3</v>
+      </c>
+      <c r="P107" s="1">
+        <v>-36.238999999999997</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>28.306000000000001</v>
+      </c>
+      <c r="R107" s="4">
+        <f>((H107/Q107)*$D$1)/256.4*(1/0.1*1000)</f>
+        <v>89.542282673430861</v>
+      </c>
+      <c r="S107" s="4">
         <f t="shared" si="23"/>
-        <v>1.2117626894425E-2</v>
-      </c>
-      <c r="J107" s="2">
-        <f t="shared" si="24"/>
-        <v>1.1972548024488663</v>
-      </c>
-      <c r="K107" s="2">
-        <f>J107-AVERAGE($J$60:$J$62)</f>
-        <v>5.4216208010109845E-2</v>
-      </c>
-      <c r="L107" s="1">
-        <v>28</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="N107" s="1">
-        <v>1024.3</v>
-      </c>
-      <c r="O107" s="1">
-        <v>-36.238999999999997</v>
-      </c>
-      <c r="P107" s="1">
-        <v>28.306000000000001</v>
-      </c>
-      <c r="Q107" s="4">
-        <f>((H107/P107)*$D$1)/256.4*(1/0.1*1000)</f>
-        <v>89.542282673430861</v>
-      </c>
-      <c r="R107" s="4">
-        <f t="shared" si="25"/>
         <v>48.546430231227831</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6915,10 +7241,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6539BBBF-B65D-4C71-B21D-C409855E9866}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6928,12 +7254,12 @@
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="51.7109375" customWidth="1"/>
     <col min="10" max="10" width="41.140625" customWidth="1"/>
-    <col min="11" max="11" width="53.42578125" customWidth="1"/>
-    <col min="12" max="12" width="46.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="11" max="12" width="53.42578125" customWidth="1"/>
+    <col min="13" max="13" width="46.85546875" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -6959,22 +7285,25 @@
         <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="J1" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="K1" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L1" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="M1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="N1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -7000,25 +7329,29 @@
         <v>1.4236399874999996</v>
       </c>
       <c r="I2">
-        <v>4165.8015001971562</v>
+        <v>1388.6005000657187</v>
       </c>
       <c r="J2">
-        <v>5190.2161833077525</v>
+        <v>1730.0720611025843</v>
       </c>
       <c r="K2">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>1024.4146831105963</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>341.47156103686552</v>
       </c>
       <c r="L2">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>719.57425480126631</v>
-      </c>
-      <c r="M2" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
-        <v>19.737418383558186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1215.2454808049458</v>
+      </c>
+      <c r="M2">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>239.85808493375549</v>
+      </c>
+      <c r="N2" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>19.73741838355819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -7044,25 +7377,29 @@
         <v>1.2781464648750005</v>
       </c>
       <c r="I3">
-        <v>3801.1540298579439</v>
+        <v>1267.0513432859814</v>
       </c>
       <c r="J3">
-        <v>5190.2161833077525</v>
+        <v>1730.0720611025843</v>
       </c>
       <c r="K3">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>1389.0621534498086</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>463.02071781660288</v>
       </c>
       <c r="L3">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1086.778543479096</v>
-      </c>
-      <c r="M3" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
-        <v>26.763088557219827</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1353.5788805485456</v>
+      </c>
+      <c r="M3">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>362.25951449303204</v>
+      </c>
+      <c r="N3" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>26.76308855721982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -7088,25 +7425,29 @@
         <v>1.4635275138749999</v>
       </c>
       <c r="I4">
-        <v>4083.032641299149</v>
+        <v>1361.0108804330496</v>
       </c>
       <c r="J4">
-        <v>5190.2161833077525</v>
+        <v>1730.0720611025843</v>
       </c>
       <c r="K4">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>1107.1835420086036</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>369.06118066953468</v>
       </c>
       <c r="L4">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>756.51706682103986</v>
-      </c>
-      <c r="M4" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
-        <v>21.332127659140966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1182.1247258425985</v>
+      </c>
+      <c r="M4">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>252.17235560701337</v>
+      </c>
+      <c r="N4" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>21.332127659140973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -7132,25 +7473,29 @@
         <v>1.0296552000000001</v>
       </c>
       <c r="I5">
-        <v>3578.3242170149015</v>
+        <v>1192.7747390049672</v>
       </c>
       <c r="J5">
-        <v>5198.3741948391498</v>
+        <v>1732.7913982797168</v>
       </c>
       <c r="K5">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>1620.0499778242483</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>540.0166592747496</v>
       </c>
       <c r="L5">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1573.3907601537371</v>
-      </c>
-      <c r="M5" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
-        <v>31.164551013518881</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1682.8851039452009</v>
+      </c>
+      <c r="M5">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>524.46358671791256</v>
+      </c>
+      <c r="N5" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>31.164551013518889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -7176,25 +7521,29 @@
         <v>1.3970977019999997</v>
       </c>
       <c r="I6">
-        <v>3551.7049237806818</v>
+        <v>1183.9016412602275</v>
       </c>
       <c r="J6">
-        <v>5198.3741948391498</v>
+        <v>1732.7913982797168</v>
       </c>
       <c r="K6">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>1646.669271058468</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>548.88975701948925</v>
       </c>
       <c r="L6">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1178.6357308448771</v>
-      </c>
-      <c r="M6" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
-        <v>31.676620599826212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1240.2793274938169</v>
+      </c>
+      <c r="M6">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>392.87857694829233</v>
+      </c>
+      <c r="N6" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>31.676620599826201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -7220,25 +7569,29 @@
         <v>1.5168491988749999</v>
       </c>
       <c r="I7">
-        <v>3442.2610075067828</v>
+        <v>1147.4203358355944</v>
       </c>
       <c r="J7">
-        <v>5198.3741948391498</v>
+        <v>1732.7913982797168</v>
       </c>
       <c r="K7">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>1756.113187332367</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>585.37106244412234</v>
       </c>
       <c r="L7">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1157.7374920557836</v>
-      </c>
-      <c r="M7" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
-        <v>33.781969544935876</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1142.3623386984511</v>
+      </c>
+      <c r="M7">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>385.91249735192787</v>
+      </c>
+      <c r="N7" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>33.781969544935869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -7264,25 +7617,29 @@
         <v>1.1469169998750004</v>
       </c>
       <c r="I8">
-        <v>4257.5574496191639</v>
+        <v>1419.1858165397214</v>
       </c>
       <c r="J8">
-        <v>5190.2161833077525</v>
+        <v>1730.0720611025843</v>
       </c>
       <c r="K8">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>932.65873368858865</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>310.88624456286288</v>
       </c>
       <c r="L8">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>813.18764460744478</v>
-      </c>
-      <c r="M8" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1508.4544577254853</v>
+      </c>
+      <c r="M8">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>271.06254820248159</v>
+      </c>
+      <c r="N8" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
         <v>17.969554653390183</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -7308,25 +7665,29 @@
         <v>1.3705949355</v>
       </c>
       <c r="I9">
-        <v>4437.7315666258455</v>
+        <v>1479.2438555419483</v>
       </c>
       <c r="J9">
-        <v>5190.2161833077525</v>
+        <v>1730.0720611025843</v>
       </c>
       <c r="K9">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>752.48461668190703</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>250.82820556063598</v>
       </c>
       <c r="L9">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>549.02042696327112</v>
-      </c>
-      <c r="M9" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
-        <v>14.4981363031076</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1262.2781657014114</v>
+      </c>
+      <c r="M9">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>183.00680898775727</v>
+      </c>
+      <c r="N9" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>14.498136303107618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -7352,25 +7713,29 @@
         <v>1.0947018468750003</v>
       </c>
       <c r="I10">
-        <v>4528.0630996695791</v>
+        <v>1509.3543665565264</v>
       </c>
       <c r="J10">
-        <v>5190.2161833077525</v>
+        <v>1730.0720611025843</v>
       </c>
       <c r="K10">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>662.15308363817348</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>220.71769454605783</v>
       </c>
       <c r="L10">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>604.87071025630792</v>
-      </c>
-      <c r="M10" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1580.4048070635386</v>
+      </c>
+      <c r="M10">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>201.62357008543597</v>
+      </c>
+      <c r="N10" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
         <v>12.75771683206035</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -7396,25 +7761,29 @@
         <v>1.4236399874999996</v>
       </c>
       <c r="I11">
-        <v>4670.2647573589929</v>
+        <v>1556.7549191196645</v>
       </c>
       <c r="J11">
-        <v>5198.3741948391498</v>
+        <v>1732.7913982797168</v>
       </c>
       <c r="K11">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>528.10943748015688</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>176.03647916005229</v>
       </c>
       <c r="L11">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>370.95715357612983</v>
-      </c>
-      <c r="M11" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1217.1556106137523</v>
+      </c>
+      <c r="M11">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>123.6523845253766</v>
+      </c>
+      <c r="N11" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
         <v>10.159127020991567</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -7440,25 +7809,29 @@
         <v>1.1992902288750005</v>
       </c>
       <c r="I12">
-        <v>4604.1741714774662</v>
+        <v>1534.7247238258221</v>
       </c>
       <c r="J12">
-        <v>5198.3741948391498</v>
+        <v>1732.7913982797168</v>
       </c>
       <c r="K12">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>594.20002336168363</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>198.06667445389462</v>
       </c>
       <c r="L12">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>495.45973864814658</v>
-      </c>
-      <c r="M12" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
-        <v>11.430497326483239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1444.8474243846458</v>
+      </c>
+      <c r="M12">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>165.15324621604893</v>
+      </c>
+      <c r="N12" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>11.430497326483243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -7484,25 +7857,29 @@
         <v>1.1992902288750005</v>
       </c>
       <c r="I13">
-        <v>4863.5698317737488</v>
+        <v>1621.1899439245826</v>
       </c>
       <c r="J13">
-        <v>5198.3741948391498</v>
+        <v>1732.7913982797168</v>
       </c>
       <c r="K13">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>334.80436306540105</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>111.60145435513414</v>
       </c>
       <c r="L13">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>279.16875749039144</v>
-      </c>
-      <c r="M13" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
-        <v>6.4405591155363275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1444.8474243846458</v>
+      </c>
+      <c r="M13">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>93.056252496797526</v>
+      </c>
+      <c r="N13" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>6.4405591155363542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -7527,9 +7904,9 @@
       <c r="H14">
         <v>2.0038577838749996</v>
       </c>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -7554,9 +7931,9 @@
       <c r="H15">
         <v>2.2938591554999999</v>
       </c>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -7581,9 +7958,9 @@
       <c r="H16">
         <v>2.2660522619999997</v>
       </c>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -7608,9 +7985,9 @@
       <c r="H17">
         <v>3.2190963498749996</v>
       </c>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -7635,9 +8012,9 @@
       <c r="H18">
         <v>2.673120139875</v>
       </c>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -7662,9 +8039,9 @@
       <c r="H19">
         <v>2.7015000588749998</v>
       </c>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -7689,9 +8066,9 @@
       <c r="H20">
         <v>1.7317166988749999</v>
       </c>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -7716,9 +8093,9 @@
       <c r="H21">
         <v>1.6692833600000001</v>
       </c>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -7743,9 +8120,9 @@
       <c r="H22">
         <v>1.6938577850000003</v>
       </c>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -7770,9 +8147,9 @@
       <c r="H23">
         <v>1.6326304662499993</v>
       </c>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -7797,9 +8174,9 @@
       <c r="H24">
         <v>1.7433406250000003</v>
       </c>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -7824,9 +8201,9 @@
       <c r="H25">
         <v>1.6938577850000003</v>
       </c>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -7852,25 +8229,29 @@
         <v>1.5841495962500001</v>
       </c>
       <c r="I26">
-        <v>3882.6451543007925</v>
+        <v>1294.2150514335974</v>
       </c>
       <c r="J26">
-        <v>6145.037641566606</v>
+        <v>2048.3458805222022</v>
       </c>
       <c r="K26">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>2262.3924872658135</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>754.13082908860474</v>
       </c>
       <c r="L26">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1428.1432085841832</v>
-      </c>
-      <c r="M26" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
-        <v>36.816576548895526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1293.0255358275808</v>
+      </c>
+      <c r="M26">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>476.04773619472792</v>
+      </c>
+      <c r="N26" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>36.816576548895533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -7896,25 +8277,29 @@
         <v>1.8817146162499998</v>
       </c>
       <c r="I27">
-        <v>3583.1233599152015</v>
+        <v>1194.3744533050674</v>
       </c>
       <c r="J27">
-        <v>6145.037641566606</v>
+        <v>2048.3458805222022</v>
       </c>
       <c r="K27">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>2561.9142816514045</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>853.97142721713476</v>
       </c>
       <c r="L27">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1361.478653312982</v>
-      </c>
-      <c r="M27" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
-        <v>41.690782564486852</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1088.5528883249447</v>
+      </c>
+      <c r="M27">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>453.82621777099399</v>
+      </c>
+      <c r="N27" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>41.690782564486845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -7940,25 +8325,29 @@
         <v>1.2685516249999997</v>
       </c>
       <c r="I28">
-        <v>4308.9611233271517</v>
+        <v>1436.320374442384</v>
       </c>
       <c r="J28">
-        <v>6145.037641566606</v>
+        <v>2048.3458805222022</v>
       </c>
       <c r="K28">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>1836.0765182394543</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>612.02550607981811</v>
       </c>
       <c r="L28">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1447.3802106709334</v>
-      </c>
-      <c r="M28" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1614.7122751288916</v>
+      </c>
+      <c r="M28">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>482.46007022364444</v>
+      </c>
+      <c r="N28" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
         <v>29.87901173818307</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -7984,25 +8373,29 @@
         <v>1.5962280649999994</v>
       </c>
       <c r="I29">
-        <v>4187.2553623701497</v>
+        <v>1395.7517874567163</v>
       </c>
       <c r="J29">
-        <v>5343.9420087877588</v>
+        <v>1646.8279723613966</v>
       </c>
       <c r="K29">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>1156.6866464176092</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>251.0761849046803</v>
       </c>
       <c r="L29">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>724.63745737837883</v>
-      </c>
-      <c r="M29" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
-        <v>21.644820331424153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1031.6996727916805</v>
+      </c>
+      <c r="M29">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>157.2934284329103</v>
+      </c>
+      <c r="N29" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>15.246048106934973</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -8028,25 +8421,29 @@
         <v>2.3444006599999998</v>
       </c>
       <c r="I30">
-        <v>4147.0239326851606</v>
+        <v>1382.3413108950535</v>
       </c>
       <c r="J30">
-        <v>5343.9420087877588</v>
+        <v>1646.8279723613966</v>
       </c>
       <c r="K30">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>1196.9180761025982</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>264.48666146634309</v>
       </c>
       <c r="L30">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>510.54331135642929</v>
-      </c>
-      <c r="M30" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
-        <v>22.397662140314129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>702.451590489399</v>
+      </c>
+      <c r="M30">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>112.81632272972621</v>
+      </c>
+      <c r="N30" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>16.060369747490629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -8072,25 +8469,29 @@
         <v>1.4766958399999999</v>
       </c>
       <c r="I31">
-        <v>4146.1356322252195</v>
+        <v>1382.04521074174</v>
       </c>
       <c r="J31">
-        <v>5343.9420087877588</v>
+        <v>1646.8279723613966</v>
       </c>
       <c r="K31">
-        <f>Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]]-Table14[[#This Row],[Media 13C 16:0 from TG (nmol/L)]]</f>
-        <v>1197.8063765625393</v>
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>264.78276161965664</v>
       </c>
       <c r="L31">
-        <f>Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>811.139534707797</v>
-      </c>
-      <c r="M31" s="6">
-        <f>(Table14[[#This Row],[Uncorrected 13C 16:0 from TG uptake (nmol/L)]]/Table14[[#This Row],[TRL starting media 13C 16:0 from TG (nmol/L)]])*100</f>
-        <v>22.414284709542621</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>1115.2113575138105</v>
+      </c>
+      <c r="M31">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>179.30758281248808</v>
+      </c>
+      <c r="N31" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>16.078349776873356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -8535,7 +8936,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K1" sqref="K1:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8574,13 +8975,13 @@
         <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -10027,10 +10428,10 @@
         <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">

--- a/TRL Calculations - Media.xlsx
+++ b/TRL Calculations - Media.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/TRL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1858" documentId="13_ncr:1_{94779E9C-2E3D-4E3A-B9AD-064335246722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF283E1B-A708-4B83-9FA6-5BAE4FB0B606}"/>
+  <xr:revisionPtr revIDLastSave="1937" documentId="13_ncr:1_{94779E9C-2E3D-4E3A-B9AD-064335246722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81F079F8-5971-4C02-A99C-1F82B730244A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10335" yWindow="-135" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TG" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="325">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -846,15 +846,6 @@
     <t>FA_166</t>
   </si>
   <si>
-    <t>TG_164</t>
-  </si>
-  <si>
-    <t>TG_165</t>
-  </si>
-  <si>
-    <t>TG_166</t>
-  </si>
-  <si>
     <t>TG_170</t>
   </si>
   <si>
@@ -1012,6 +1003,18 @@
   </si>
   <si>
     <t>Switched with 169</t>
+  </si>
+  <si>
+    <t>TG_167</t>
+  </si>
+  <si>
+    <t>TG_168</t>
+  </si>
+  <si>
+    <t>TG_169</t>
+  </si>
+  <si>
+    <t>TG_208</t>
   </si>
 </sst>
 </file>
@@ -1117,14 +1120,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1174,7 +1177,9 @@
     <tableColumn id="7" xr3:uid="{E95A375C-AF58-4DE0-8688-D66828CD4B8E}" name="Protein (mg/mL)"/>
     <tableColumn id="9" xr3:uid="{0102A5DF-EEBD-4BFA-8E08-E9A44ABF0308}" name="Media TG 13C 16:0 (nmol/L)"/>
     <tableColumn id="10" xr3:uid="{A3957CB4-CE5A-4832-AD28-38611BDCBFDF}" name="TRL starting media TG 13C 16:0 (nmol/L)"/>
-    <tableColumn id="12" xr3:uid="{B1215606-9E32-409C-89FD-D26AF791D992}" name="Uncorrected Media TG 13C 16:0 disappearance (nmol/L)"/>
+    <tableColumn id="12" xr3:uid="{B1215606-9E32-409C-89FD-D26AF791D992}" name="Uncorrected Media TG 13C 16:0 disappearance (nmol/L)">
+      <calculatedColumnFormula>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="14" xr3:uid="{5BB2385D-690A-4F37-99BA-949030F449E9}" name="TRL starting media TG 13C 16:0 (nmol/g of protein)"/>
     <tableColumn id="13" xr3:uid="{E9E3B424-238C-44FB-AAA5-D31916949368}" name="TG 13C 16:0 disappearance (nmol/g of protein)"/>
     <tableColumn id="8" xr3:uid="{08E8C185-E485-452E-9D1A-501636459C86}" name="TRL disappearance (%)"/>
@@ -1495,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
-      <selection activeCell="T46" sqref="T46"/>
+    <sheetView topLeftCell="F33" workbookViewId="0">
+      <selection activeCell="S60" sqref="S60:S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,24 +1564,24 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1640,7 +1645,7 @@
         <v>247</v>
       </c>
       <c r="U5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1673,15 +1678,15 @@
         <v>1.9654404292574999E-2</v>
       </c>
       <c r="J6" s="2">
-        <f>I6-$F$1</f>
+        <f t="shared" ref="J6:J52" si="1">I6-$F$1</f>
         <v>8.0973674482322979E-3</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K6:K14" si="1">(I6/(1+I6))*100</f>
+        <f t="shared" ref="K6:K14" si="2">(I6/(1+I6))*100</f>
         <v>1.9275554746621242</v>
       </c>
       <c r="L6" s="2">
-        <f>K6-$F$2</f>
+        <f t="shared" ref="L6:L52" si="3">K6-$F$2</f>
         <v>0.78505585348407214</v>
       </c>
       <c r="M6" s="1">
@@ -1742,15 +1747,15 @@
         <v>1.9675931256150001E-2</v>
       </c>
       <c r="J7" s="2">
-        <f>I7-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.1188944118072998E-3</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9296259383028689</v>
       </c>
       <c r="L7" s="2">
-        <f>K7-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.78712631712481684</v>
       </c>
       <c r="M7" s="1">
@@ -1769,15 +1774,15 @@
         <v>13.618</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" ref="R7:R35" si="2">((H7/Q7)*$D$1)/256.4*(1/$D$2*1000)/3</f>
+        <f t="shared" ref="R7:R35" si="4">((H7/Q7)*$D$1)/256.4*(1/$D$2*1000)/3</f>
         <v>161.38192377452773</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" ref="S7:S35" si="3">R7*(L7/100)*1000</f>
+        <f t="shared" ref="S7:S39" si="5">R7*(L7/100)*1000</f>
         <v>1270.2795931116193</v>
       </c>
       <c r="U7">
-        <f t="shared" ref="U7:U63" si="4">M7-D7</f>
+        <f t="shared" ref="U7:U63" si="6">M7-D7</f>
         <v>0</v>
       </c>
     </row>
@@ -1811,15 +1816,15 @@
         <v>1.9742756777574998E-2</v>
       </c>
       <c r="J8" s="2">
-        <f>I8-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.1857199332322963E-3</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9360526609635202</v>
       </c>
       <c r="L8" s="2">
-        <f>K8-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.79355303978546821</v>
       </c>
       <c r="M8" s="1">
@@ -1838,15 +1843,15 @@
         <v>14.384</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>171.94192471999961</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1364.4503702811983</v>
       </c>
       <c r="U8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1880,15 +1885,15 @@
         <v>1.9781046834249996E-2</v>
       </c>
       <c r="J9" s="2">
-        <f>I9-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.2240099899072942E-3</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9397347004690022</v>
       </c>
       <c r="L9" s="2">
-        <f>K9-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.79723507929095017</v>
       </c>
       <c r="M9" s="1">
@@ -1907,15 +1912,15 @@
         <v>13.827999999999999</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>149.99027812814376</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1195.7751127636236</v>
       </c>
       <c r="U9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1945,11 +1950,11 @@
         <v>17.829999999999998</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" ref="I10:I14" si="5">(((G10/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I10:I14" si="7">(((G10/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.9949238922924998E-2</v>
       </c>
       <c r="J10" s="2">
-        <f>I10-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.3922020785822966E-3</v>
       </c>
       <c r="K10" s="2">
@@ -1957,7 +1962,7 @@
         <v>1.9559050746477895</v>
       </c>
       <c r="L10" s="2">
-        <f>K10-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.81340545346973747</v>
       </c>
       <c r="M10" s="1">
@@ -1976,15 +1981,15 @@
         <v>13.276</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>145.90759637214856</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1186.8203459176691</v>
       </c>
       <c r="U10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2014,19 +2019,19 @@
         <v>15.801</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0076991840424999E-2</v>
       </c>
       <c r="J11" s="2">
-        <f>I11-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.519954996082298E-3</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.968183970525798</v>
       </c>
       <c r="L11" s="2">
-        <f>K11-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.82568434934774593</v>
       </c>
       <c r="M11" s="1">
@@ -2045,15 +2050,15 @@
         <v>12.323</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>139.30346794331078</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1150.2069329065716</v>
       </c>
       <c r="U11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2083,19 +2088,19 @@
         <v>19.472000000000001</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0285097761174996E-2</v>
       </c>
       <c r="J12" s="2">
-        <f>I12-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.7280609168322951E-3</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9881793633648921</v>
       </c>
       <c r="L12" s="2">
-        <f>K12-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.84567974218684006</v>
       </c>
       <c r="M12" s="1">
@@ -2114,15 +2119,15 @@
         <v>12.576000000000001</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>168.21388292342553</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1422.5507314292977</v>
       </c>
       <c r="U12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2152,19 +2157,19 @@
         <v>18.047999999999998</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0051859140299999E-2</v>
       </c>
       <c r="J13" s="2">
-        <f>I13-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.4948222959572977E-3</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9657685989808118</v>
       </c>
       <c r="L13" s="2">
-        <f>K13-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.82326897780275976</v>
       </c>
       <c r="M13" s="1">
@@ -2183,15 +2188,15 @@
         <v>10.885999999999999</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>180.11693828032378</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1482.8468766300491</v>
       </c>
       <c r="U13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2221,19 +2226,19 @@
         <v>18.172999999999998</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9910507103824998E-2</v>
       </c>
       <c r="J14" s="2">
-        <f>I14-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.3534702594822968E-3</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9521817811607409</v>
       </c>
       <c r="L14" s="2">
-        <f>K14-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.80968215998268889</v>
       </c>
       <c r="M14" s="1">
@@ -2252,15 +2257,15 @@
         <v>10.565</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>186.87488089522006</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1513.0925720974949</v>
       </c>
       <c r="U14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2290,19 +2295,19 @@
         <v>16.998999999999999</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" ref="I15:I47" si="6">(((G15/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I15:I47" si="8">(((G15/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.9937180002674998E-2</v>
       </c>
       <c r="J15" s="2">
-        <f>I15-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.3801431583322965E-3</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" ref="K15:K47" si="7">(I15/(1+I15))*100</f>
+        <f t="shared" ref="K15:K47" si="9">(I15/(1+I15))*100</f>
         <v>1.9547458798023922</v>
       </c>
       <c r="L15" s="2">
-        <f>K15-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.81224625862434019</v>
       </c>
       <c r="M15" s="1">
@@ -2321,15 +2326,15 @@
         <v>9.6120000000000001</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>192.13364213580891</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1560.5983198067865</v>
       </c>
       <c r="U15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2359,19 +2364,19 @@
         <v>17.43</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0095557801799998E-2</v>
       </c>
       <c r="J16" s="2">
-        <f>I16-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.5385209574572966E-3</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9699681709333032</v>
       </c>
       <c r="L16" s="2">
-        <f>K16-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.82746854975525119</v>
       </c>
       <c r="M16" s="1">
@@ -2390,15 +2395,15 @@
         <v>10.185</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>185.92173240194214</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1538.4438627861896</v>
       </c>
       <c r="U16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2428,19 +2433,19 @@
         <v>20.657</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9980651813200002E-2</v>
       </c>
       <c r="J17" s="2">
-        <f>I17-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.4236149688573011E-3</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9589245911361928</v>
       </c>
       <c r="L17" s="2">
-        <f>K17-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.81642496995814073</v>
       </c>
       <c r="M17" s="1">
@@ -2459,15 +2464,15 @@
         <v>11.273999999999999</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>199.05955217571253</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1625.1718890493703</v>
       </c>
       <c r="U17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2497,19 +2502,19 @@
         <v>6.2089999999999996</v>
       </c>
       <c r="I18" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.109267529265E-2</v>
       </c>
       <c r="J18" s="11">
-        <f>I18-$F$1</f>
+        <f t="shared" si="1"/>
         <v>9.5356384483072983E-3</v>
       </c>
       <c r="K18" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0656964644864129</v>
       </c>
       <c r="L18" s="11">
-        <f>K18-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.92319684330836083</v>
       </c>
       <c r="M18" s="12">
@@ -2528,18 +2533,18 @@
         <v>8.6120000000000001</v>
       </c>
       <c r="R18" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78.32699087495935</v>
       </c>
       <c r="S18" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>723.11230721605261</v>
       </c>
       <c r="T18" s="14" t="s">
         <v>248</v>
       </c>
       <c r="U18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2569,19 +2574,19 @@
         <v>9.3450000000000006</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9799911283749999E-2</v>
       </c>
       <c r="J19" s="2">
-        <f>I19-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.2428744394072977E-3</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.941548637597484</v>
       </c>
       <c r="L19" s="2">
-        <f>K19-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.79904901641943193</v>
       </c>
       <c r="M19" s="1">
@@ -2600,15 +2605,15 @@
         <v>7.6040000000000001</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>133.51528932277756</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1066.8526061032128</v>
       </c>
       <c r="U19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2638,19 +2643,19 @@
         <v>5.758</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0093945965924998E-2</v>
       </c>
       <c r="J20" s="2">
-        <f>I20-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.5369091215822968E-3</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.969813275080079</v>
       </c>
       <c r="L20" s="2">
-        <f>K20-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.82731365390202694</v>
       </c>
       <c r="M20" s="1">
@@ -2669,15 +2674,15 @@
         <v>4.5579999999999998</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>137.24329724980723</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1135.4325372130004</v>
       </c>
       <c r="U20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2707,19 +2712,19 @@
         <v>1.2010000000000001</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9594312663249999E-2</v>
       </c>
       <c r="J21" s="7">
-        <f>I21-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.0372758189072979E-3</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9217753983021262</v>
       </c>
       <c r="L21" s="7">
-        <f>K21-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.77927577712407414</v>
       </c>
       <c r="M21" s="8">
@@ -2738,18 +2743,18 @@
         <v>11.590999999999999</v>
       </c>
       <c r="R21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.256824758942104</v>
       </c>
       <c r="S21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87.721708619741264</v>
       </c>
       <c r="T21" s="10" t="s">
         <v>248</v>
       </c>
       <c r="U21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2779,19 +2784,19 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.00332812394E-2</v>
       </c>
       <c r="J22" s="7">
-        <f>I22-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.4762443950572985E-3</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9639830981846389</v>
       </c>
       <c r="L22" s="7">
-        <f>K22-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.82148347700658686</v>
       </c>
       <c r="M22" s="8">
@@ -2810,18 +2815,18 @@
         <v>10.064</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.071747265757088</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>82.737739634057178</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>248</v>
       </c>
       <c r="U22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2851,19 +2856,19 @@
         <v>1.2290000000000001</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0554501203274997E-2</v>
       </c>
       <c r="J23" s="7">
-        <f>I23-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.9974643589322955E-3</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0140522803084409</v>
       </c>
       <c r="L23" s="7">
-        <f>K23-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.87155265913038882</v>
       </c>
       <c r="M23" s="8">
@@ -2882,18 +2887,18 @@
         <v>10.032</v>
       </c>
       <c r="R23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.309390363387003</v>
       </c>
       <c r="S23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>115.99834562614315</v>
       </c>
       <c r="T23" s="10" t="s">
         <v>248</v>
       </c>
       <c r="U23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2923,19 +2928,19 @@
         <v>8.92</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0292834573374999E-2</v>
       </c>
       <c r="J24" s="2">
-        <f>I24-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.7357977290322981E-3</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9889225804335122</v>
       </c>
       <c r="L24" s="2">
-        <f>K24-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.84642295925546018</v>
       </c>
       <c r="M24" s="1">
@@ -2954,15 +2959,15 @@
         <v>7.431</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>130.41015069033213</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1103.8214566426141</v>
       </c>
       <c r="U24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2992,19 +2997,19 @@
         <v>6.968</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1026506445099999E-2</v>
       </c>
       <c r="J25" s="2">
-        <f>I25-$F$1</f>
+        <f t="shared" si="1"/>
         <v>9.4694696007572975E-3</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0593497144660642</v>
       </c>
       <c r="L25" s="2">
-        <f>K25-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.91685009328801215</v>
       </c>
       <c r="M25" s="1">
@@ -3023,15 +3028,15 @@
         <v>6.4029999999999996</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>118.22748301675522</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1083.968788331189</v>
       </c>
       <c r="U25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3061,19 +3066,19 @@
         <v>9.83</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9940666343974997E-2</v>
       </c>
       <c r="J26" s="2">
-        <f>I26-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.3836294996322957E-3</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.955081016178446</v>
       </c>
       <c r="L26" s="2">
-        <f>K26-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.81258139500039395</v>
       </c>
       <c r="M26" s="1">
@@ -3092,15 +3097,15 @@
         <v>7.7210000000000001</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>138.31642934585841</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1123.9335710933105</v>
       </c>
       <c r="U26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3130,19 +3135,19 @@
         <v>3.8359999999999999</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0351636733999999E-2</v>
       </c>
       <c r="J27" s="2">
-        <f>I27-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.7945998896572977E-3</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9945708911824442</v>
       </c>
       <c r="L27" s="2">
-        <f>K27-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.8520712700043922</v>
       </c>
       <c r="M27" s="1">
@@ -3161,15 +3166,15 @@
         <v>3.4470000000000001</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>120.90134122722999</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1030.1655936472023</v>
       </c>
       <c r="U27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3199,19 +3204,19 @@
         <v>6.2839999999999998</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0570237497224999E-2</v>
       </c>
       <c r="J28" s="2">
-        <f>I28-$F$1</f>
+        <f t="shared" si="1"/>
         <v>9.0132006528822976E-3</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0155631372976357</v>
       </c>
       <c r="L28" s="2">
-        <f>K28-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.87306351611958366</v>
       </c>
       <c r="M28" s="1">
@@ -3230,15 +3235,15 @@
         <v>5.8739999999999997</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>116.22405879097498</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1014.7098542573782</v>
       </c>
       <c r="U28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3268,19 +3273,19 @@
         <v>8.3650000000000002</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0379802073474999E-2</v>
       </c>
       <c r="J29" s="2">
-        <f>I29-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.822765229132298E-3</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9972761154289784</v>
       </c>
       <c r="L29" s="2">
-        <f>K29-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.85477649425092639</v>
       </c>
       <c r="M29" s="1">
@@ -3299,15 +3304,15 @@
         <v>7.2430000000000003</v>
       </c>
       <c r="R29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>125.47039458088979</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1072.4914401213341</v>
       </c>
       <c r="U29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3337,19 +3342,19 @@
         <v>17.157</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" ref="I30:I38" si="8">(((G30/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I30:I38" si="10">(((G30/1000)+1)*0.0112372)*(17/16)</f>
         <v>2.0118278717874995E-2</v>
       </c>
       <c r="J30" s="2">
-        <f>I30-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.5612418735322941E-3</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" ref="K30:K37" si="9">(I30/(1+I30))*100</f>
+        <f t="shared" ref="K30:K37" si="11">(I30/(1+I30))*100</f>
         <v>1.9721515766936795</v>
       </c>
       <c r="L30" s="2">
-        <f>K30-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.82965195551562743</v>
       </c>
       <c r="M30" s="1">
@@ -3368,15 +3373,15 @@
         <v>11.92</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>156.37196712700725</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1297.3430831474698</v>
       </c>
       <c r="U30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3410,7 +3415,7 @@
         <v>2.0370357909199999E-2</v>
       </c>
       <c r="J31" s="2">
-        <f>I31-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.8133210648572973E-3</v>
       </c>
       <c r="K31" s="2">
@@ -3418,7 +3423,7 @@
         <v>1.9963690390751923</v>
       </c>
       <c r="L31" s="2">
-        <f>K31-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.85386941789714021</v>
       </c>
       <c r="M31" s="1">
@@ -3437,15 +3442,15 @@
         <v>7.1829999999999998</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>140.20634610710897</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1197.1791113596212</v>
       </c>
       <c r="U31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3475,19 +3480,19 @@
         <v>9.1790000000000003</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1014996742999999E-2</v>
       </c>
       <c r="J32" s="2">
-        <f>I32-$F$1</f>
+        <f t="shared" si="1"/>
         <v>9.457959898657298E-3</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.0582456486963521</v>
       </c>
       <c r="L32" s="2">
-        <f>K32-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.91574602751830003</v>
       </c>
       <c r="M32" s="1">
@@ -3506,15 +3511,15 @@
         <v>6.3440000000000003</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>157.19039280696913</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1439.4647777702314</v>
       </c>
       <c r="U32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3544,19 +3549,19 @@
         <v>10.885</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0616801644725E-2</v>
       </c>
       <c r="J33" s="2">
-        <f>I33-$F$1</f>
+        <f t="shared" si="1"/>
         <v>9.0597648003822983E-3</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.0200335337906452</v>
       </c>
       <c r="L33" s="2">
-        <f>K33-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.87753391261259317</v>
       </c>
       <c r="M33" s="1">
@@ -3575,15 +3580,15 @@
         <v>7.4180000000000001</v>
       </c>
       <c r="R33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>159.4172848427373</v>
       </c>
       <c r="S33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1398.940737061235</v>
       </c>
       <c r="U33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3613,19 +3618,19 @@
         <v>11.666</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0360818228725E-2</v>
       </c>
       <c r="J34" s="2">
-        <f>I34-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.8037813843822987E-3</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.9954527717038328</v>
       </c>
       <c r="L34" s="2">
-        <f>K34-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.8529531505257808</v>
       </c>
       <c r="M34" s="1">
@@ -3644,15 +3649,15 @@
         <v>7.8019999999999996</v>
       </c>
       <c r="R34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>162.44630217576474</v>
       </c>
       <c r="S34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1385.5908523208154</v>
       </c>
       <c r="U34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3682,19 +3687,19 @@
         <v>13.339</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0147602191274996E-2</v>
       </c>
       <c r="J35" s="2">
-        <f>I35-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.5905653469322951E-3</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.9749693228703364</v>
       </c>
       <c r="L35" s="2">
-        <f>K35-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.8324697016922844</v>
       </c>
       <c r="M35" s="1">
@@ -3713,222 +3718,222 @@
         <v>8.7080000000000002</v>
       </c>
       <c r="R35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>166.41737059774849</v>
       </c>
       <c r="S35" s="4">
+        <f t="shared" si="5"/>
+        <v>1385.3741885792203</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>164</v>
+      </c>
+      <c r="B36" s="11">
+        <v>6</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="11">
+        <v>5</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F36" s="11">
+        <v>776.6</v>
+      </c>
+      <c r="G36" s="11">
+        <v>562.51900000000001</v>
+      </c>
+      <c r="H36" s="11">
+        <v>19.158999999999999</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="10"/>
+        <v>1.8655734663474997E-2</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="1"/>
+        <v>7.098697819132296E-3</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" si="11"/>
+        <v>1.8314072192052344</v>
+      </c>
+      <c r="L36" s="11">
         <f t="shared" si="3"/>
-        <v>1385.3741885792203</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>164</v>
-      </c>
-      <c r="B36" s="7">
+        <v>0.68890759802718238</v>
+      </c>
+      <c r="M36" s="12">
+        <v>5</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="O36" s="12">
+        <v>630.79999999999995</v>
+      </c>
+      <c r="P36" s="12">
+        <v>-26.745999999999999</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>16.414000000000001</v>
+      </c>
+      <c r="R36" s="13">
+        <f t="shared" ref="R36:R63" si="12">((H36/Q36)*$D$1)/256.4*(1/$D$2*1000)/3</f>
+        <v>126.80962317490302</v>
+      </c>
+      <c r="S36" s="13">
+        <f t="shared" si="5"/>
+        <v>873.60112908154565</v>
+      </c>
+      <c r="U36" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>165</v>
+      </c>
+      <c r="B37" s="11">
         <v>6</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="7">
-        <v>23</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F36" s="7">
-        <v>787.5</v>
-      </c>
-      <c r="G36" s="7">
-        <v>26.364000000000001</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0.156</v>
-      </c>
-      <c r="I36" s="7">
-        <f t="shared" si="8"/>
-        <v>1.2254298637100002E-2</v>
-      </c>
-      <c r="J36" s="7">
-        <f>I36-$F$1</f>
-        <v>6.9726179275730014E-4</v>
-      </c>
-      <c r="K36" s="7">
+      <c r="C37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="11">
+        <v>6</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F37" s="11">
+        <v>778.3</v>
+      </c>
+      <c r="G37" s="11">
+        <v>619.58399999999995</v>
+      </c>
+      <c r="H37" s="11">
+        <v>25.177</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="10"/>
+        <v>1.9337063657599997E-2</v>
+      </c>
+      <c r="J37" s="11">
+        <f t="shared" si="1"/>
+        <v>7.7800268132572955E-3</v>
+      </c>
+      <c r="K37" s="11">
+        <f t="shared" si="11"/>
+        <v>1.8970235015505532</v>
+      </c>
+      <c r="L37" s="11">
+        <f t="shared" si="3"/>
+        <v>0.75452388037250118</v>
+      </c>
+      <c r="M37" s="12">
+        <v>6</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="O37" s="12">
+        <v>631</v>
+      </c>
+      <c r="P37" s="12">
+        <v>-32.316000000000003</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>25.879000000000001</v>
+      </c>
+      <c r="R37" s="13">
+        <f t="shared" si="12"/>
+        <v>105.69398998637278</v>
+      </c>
+      <c r="S37" s="13">
+        <f t="shared" si="5"/>
+        <v>797.48639456570277</v>
+      </c>
+      <c r="U37" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>166</v>
+      </c>
+      <c r="B38" s="11">
+        <v>6</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="11">
+        <v>7</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F38" s="11">
+        <v>778.3</v>
+      </c>
+      <c r="G38" s="11">
+        <v>627.39200000000005</v>
+      </c>
+      <c r="H38" s="11">
+        <v>25.318000000000001</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="10"/>
+        <v>1.94302874688E-2</v>
+      </c>
+      <c r="J38" s="11">
+        <f t="shared" si="1"/>
+        <v>7.8732506244572984E-3</v>
+      </c>
+      <c r="K38" s="11">
         <f t="shared" si="9"/>
-        <v>1.2105948726124649</v>
-      </c>
-      <c r="L36" s="7">
-        <f>K36-$F$2</f>
-        <v>6.8095251434412862E-2</v>
-      </c>
-      <c r="M36" s="8">
-        <v>23</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="O36" s="8">
-        <v>642.9</v>
-      </c>
-      <c r="P36" s="8">
-        <v>-33.866999999999997</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>12.510999999999999</v>
-      </c>
-      <c r="R36" s="9">
-        <f t="shared" ref="R36:R63" si="10">((H36/Q36)*$D$1)/256.4*(1/$D$2*1000)/3</f>
-        <v>1.3546477435789948</v>
-      </c>
-      <c r="S36" s="9">
-        <f t="shared" ref="S36:S54" si="11">R36*(L36/100)*1000</f>
-        <v>0.92245078704071704</v>
-      </c>
-      <c r="U36" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>165</v>
-      </c>
-      <c r="B37" s="7">
-        <v>6</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="7">
-        <v>24</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F37" s="7">
-        <v>788.3</v>
-      </c>
-      <c r="G37" s="7">
-        <v>-5.8090000000000002</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="I37" s="7">
-        <f t="shared" si="8"/>
-        <v>1.1870168299274999E-2</v>
-      </c>
-      <c r="J37" s="7">
-        <f>I37-$F$1</f>
-        <v>3.1313145493229791E-4</v>
-      </c>
-      <c r="K37" s="7">
-        <f t="shared" si="9"/>
-        <v>1.1730920300996786</v>
-      </c>
-      <c r="L37" s="7">
-        <f>K37-$F$2</f>
-        <v>3.0592408921626513E-2</v>
-      </c>
-      <c r="M37" s="8">
-        <v>24</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="O37" s="8">
-        <v>643.1</v>
-      </c>
-      <c r="P37" s="8">
-        <v>-33.872999999999998</v>
-      </c>
-      <c r="Q37" s="8">
-        <v>11.27</v>
-      </c>
-      <c r="R37" s="9">
-        <f t="shared" si="10"/>
-        <v>2.2846424061044082</v>
-      </c>
-      <c r="S37" s="9">
-        <f t="shared" si="11"/>
-        <v>0.69892714727234762</v>
-      </c>
-      <c r="U37" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>166</v>
-      </c>
-      <c r="B38" s="7">
-        <v>6</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="7">
-        <v>25</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F38" s="7">
-        <v>788.6</v>
-      </c>
-      <c r="G38" s="7">
-        <v>-15.861000000000001</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="I38" s="7">
-        <f t="shared" si="8"/>
-        <v>1.1750152193974999E-2</v>
-      </c>
-      <c r="J38" s="7">
-        <f>I38-$F$1</f>
-        <v>1.9311534963229772E-4</v>
-      </c>
-      <c r="K38" s="7">
-        <f t="shared" si="7"/>
-        <v>1.1613689573947534</v>
-      </c>
-      <c r="L38" s="7">
-        <f>K38-$F$2</f>
-        <v>1.8869336216701393E-2</v>
-      </c>
-      <c r="M38" s="8">
-        <v>25</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="O38" s="8">
-        <v>642.9</v>
-      </c>
-      <c r="P38" s="8">
-        <v>-33.726999999999997</v>
-      </c>
-      <c r="Q38" s="8">
-        <v>9.93</v>
-      </c>
-      <c r="R38" s="9">
-        <f t="shared" si="10"/>
-        <v>3.7745366813665497</v>
-      </c>
-      <c r="S38" s="9">
-        <f t="shared" si="11"/>
-        <v>0.71223001702977717</v>
-      </c>
-      <c r="U38" s="10">
-        <f t="shared" si="4"/>
+        <v>1.9059947215267203</v>
+      </c>
+      <c r="L38" s="11">
+        <f t="shared" si="3"/>
+        <v>0.7634951003486683</v>
+      </c>
+      <c r="M38" s="12">
+        <v>7</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="O38" s="12">
+        <v>631</v>
+      </c>
+      <c r="P38" s="12">
+        <v>-39.787999999999997</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>14.615</v>
+      </c>
+      <c r="R38" s="13">
+        <f t="shared" si="12"/>
+        <v>188.20206292115293</v>
+      </c>
+      <c r="S38" s="13">
+        <f t="shared" si="5"/>
+        <v>1436.9135291581206</v>
+      </c>
+      <c r="U38" s="14">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3946,7 +3951,7 @@
         <v>26</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F39" s="2">
         <v>797.1</v>
@@ -3958,26 +3963,26 @@
         <v>16.707999999999998</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9714089978049999E-2</v>
       </c>
       <c r="J39" s="2">
-        <f>I39-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.1570531337072979E-3</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9332958298609328</v>
       </c>
       <c r="L39" s="2">
-        <f>K39-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.79079620868288081</v>
       </c>
       <c r="M39" s="1">
         <v>26</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O39" s="1">
         <v>644.1</v>
@@ -3989,15 +3994,15 @@
         <v>10.523</v>
       </c>
       <c r="R39" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>172.49586939352011</v>
       </c>
       <c r="S39" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1364.0907952985306</v>
       </c>
       <c r="U39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4015,7 +4020,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F40" s="2">
         <v>797.5</v>
@@ -4027,26 +4032,26 @@
         <v>17.593</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9956199665999999E-2</v>
       </c>
       <c r="J40" s="2">
-        <f>I40-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.3991628216572977E-3</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9565741815712239</v>
       </c>
       <c r="L40" s="2">
-        <f>K40-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.81407456039317183</v>
       </c>
       <c r="M40" s="1">
         <v>27</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O40" s="1">
         <v>644.1</v>
@@ -4058,15 +4063,15 @@
         <v>11.015000000000001</v>
       </c>
       <c r="R40" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>173.5198665020288</v>
       </c>
       <c r="S40" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="S40:S54" si="13">R40*(L40/100)*1000</f>
         <v>1412.5810904212096</v>
       </c>
       <c r="U40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4084,7 +4089,7 @@
         <v>28</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F41" s="2">
         <v>798</v>
@@ -4096,26 +4101,26 @@
         <v>18.082999999999998</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9668683964474999E-2</v>
       </c>
       <c r="J41" s="2">
-        <f>I41-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.1116471201322978E-3</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9289289034554922</v>
       </c>
       <c r="L41" s="2">
-        <f>K41-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.78642928227744013</v>
       </c>
       <c r="M41" s="1">
         <v>28</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O41" s="1">
         <v>644.79999999999995</v>
@@ -4127,15 +4132,15 @@
         <v>11.574</v>
       </c>
       <c r="R41" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>169.73867509507133</v>
       </c>
       <c r="S41" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1334.8746442974052</v>
       </c>
       <c r="U41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4153,7 +4158,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F42" s="2">
         <v>770.6</v>
@@ -4165,26 +4170,26 @@
         <v>0.112</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.076352646745E-2</v>
       </c>
       <c r="J42" s="2">
-        <f>I42-$F$1</f>
+        <f t="shared" si="1"/>
         <v>9.2064896231072984E-3</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0341172004162615</v>
       </c>
       <c r="L42" s="2">
-        <f>K42-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.8916175792382095</v>
       </c>
       <c r="M42" s="1">
         <v>5</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O42" s="1">
         <v>627.6</v>
@@ -4196,15 +4201,15 @@
         <v>0.109</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>111.63113191194316</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>995.32279602948006</v>
       </c>
       <c r="U42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4222,7 +4227,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F43" s="2">
         <v>776</v>
@@ -4234,26 +4239,26 @@
         <v>8.2279999999999998</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9947042050324996E-2</v>
       </c>
       <c r="J43" s="2">
-        <f>I43-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.3900052059822944E-3</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9556938966386839</v>
       </c>
       <c r="L43" s="2">
-        <f>K43-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.81319427546063183</v>
       </c>
       <c r="M43" s="1">
         <v>6</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O43" s="1">
         <v>630.6</v>
@@ -4265,15 +4270,15 @@
         <v>7.8090000000000002</v>
       </c>
       <c r="R43" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>114.47025858154744</v>
       </c>
       <c r="S43" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>930.86558989012644</v>
       </c>
       <c r="U43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4291,7 +4296,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F44" s="2">
         <v>776.4</v>
@@ -4303,26 +4308,26 @@
         <v>9.1470000000000002</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9652661121925E-2</v>
       </c>
       <c r="J44" s="2">
-        <f>I44-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.0956242775822983E-3</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9273878126597692</v>
       </c>
       <c r="L44" s="2">
-        <f>K44-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.78488819148171718</v>
       </c>
       <c r="M44" s="1">
         <v>7</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O44" s="1">
         <v>631.20000000000005</v>
@@ -4334,15 +4339,15 @@
         <v>10.121</v>
       </c>
       <c r="R44" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>98.185884751860783</v>
       </c>
       <c r="S44" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>770.64941511920324</v>
       </c>
       <c r="U44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4360,7 +4365,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F45" s="2">
         <v>775</v>
@@ -4372,26 +4377,26 @@
         <v>6.5940000000000003</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9728548742825001E-2</v>
       </c>
       <c r="J45" s="2">
-        <f>I45-$F$1</f>
+        <f t="shared" si="1"/>
         <v>8.1715118984823001E-3</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9346863208985758</v>
       </c>
       <c r="L45" s="2">
-        <f>K45-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.7921866997205238</v>
       </c>
       <c r="M45" s="1">
         <v>8</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O45" s="1">
         <v>630.1</v>
@@ -4403,15 +4408,15 @@
         <v>6.5579999999999998</v>
       </c>
       <c r="R45" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>109.23739480838765</v>
       </c>
       <c r="S45" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>865.36411279324489</v>
       </c>
       <c r="U45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4429,7 +4434,7 @@
         <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F46" s="2">
         <v>775.6</v>
@@ -4441,26 +4446,26 @@
         <v>8.0169999999999995</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9452160678599999E-2</v>
       </c>
       <c r="J46" s="2">
-        <f>I46-$F$1</f>
+        <f t="shared" si="1"/>
         <v>7.8951238342572973E-3</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.90809941151644</v>
       </c>
       <c r="L46" s="2">
-        <f>K46-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.76559979033838799</v>
       </c>
       <c r="M46" s="1">
         <v>9</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O46" s="1">
         <v>630.1</v>
@@ -4472,15 +4477,15 @@
         <v>7.0289999999999999</v>
       </c>
       <c r="R46" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>123.91165111203492</v>
       </c>
       <c r="S46" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>948.6673411185742</v>
       </c>
       <c r="U46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4498,7 +4503,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F47" s="2">
         <v>774.6</v>
@@ -4510,26 +4515,26 @@
         <v>5.98</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9400761023474999E-2</v>
       </c>
       <c r="J47" s="2">
-        <f>I47-$F$1</f>
+        <f t="shared" si="1"/>
         <v>7.8437241791322974E-3</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9031534765578062</v>
       </c>
       <c r="L47" s="2">
-        <f>K47-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.76065385537975416</v>
       </c>
       <c r="M47" s="1">
         <v>10</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O47" s="1">
         <v>629.9</v>
@@ -4541,15 +4546,15 @@
         <v>6.0410000000000004</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>107.54399165648249</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>818.03751876431534</v>
       </c>
       <c r="U47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4567,7 +4572,7 @@
         <v>5</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F48" s="2">
         <v>775.2</v>
@@ -4579,26 +4584,26 @@
         <v>10.922000000000001</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" ref="I48:I54" si="12">(((G48/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I48:I52" si="14">(((G48/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.8412084776799998E-2</v>
       </c>
       <c r="J48" s="2">
-        <f>I48-$F$1</f>
+        <f t="shared" si="1"/>
         <v>6.8550479324572967E-3</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" ref="K48:K53" si="13">(I48/(1+I48))*100</f>
+        <f t="shared" ref="K48:K52" si="15">(I48/(1+I48))*100</f>
         <v>1.8079208850742652</v>
       </c>
       <c r="L48" s="2">
-        <f>K48-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.66542126389621314</v>
       </c>
       <c r="M48" s="1">
         <v>5</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O48" s="1">
         <v>629.5</v>
@@ -4610,15 +4615,15 @@
         <v>11.542</v>
       </c>
       <c r="R48" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>102.80515824110124</v>
       </c>
       <c r="S48" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>684.08738331843779</v>
       </c>
       <c r="U48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4636,7 +4641,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F49" s="2">
         <v>772.5</v>
@@ -4648,26 +4653,26 @@
         <v>5.5720000000000001</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.9259014982674998E-2</v>
       </c>
       <c r="J49" s="2">
-        <f>I49-$F$1</f>
+        <f t="shared" si="1"/>
         <v>7.701978138332297E-3</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.8895113704736135</v>
       </c>
       <c r="L49" s="2">
-        <f>K49-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.74701174929556147</v>
       </c>
       <c r="M49" s="1">
         <v>6</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O49" s="1">
         <v>628.70000000000005</v>
@@ -4679,15 +4684,15 @@
         <v>6.9450000000000003</v>
       </c>
       <c r="R49" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>87.16309871497333</v>
       </c>
       <c r="S49" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>651.11858845093934</v>
       </c>
       <c r="U49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4705,7 +4710,7 @@
         <v>7</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F50" s="2">
         <v>773.7</v>
@@ -4717,26 +4722,26 @@
         <v>7.1559999999999997</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.9271670879175001E-2</v>
       </c>
       <c r="J50" s="2">
-        <f>I50-$F$1</f>
+        <f t="shared" si="1"/>
         <v>7.7146340348323E-3</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.8907295699243931</v>
       </c>
       <c r="L50" s="2">
-        <f>K50-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.74822994874634108</v>
       </c>
       <c r="M50" s="1">
         <v>7</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O50" s="1">
         <v>629.5</v>
@@ -4748,15 +4753,15 @@
         <v>7.8179999999999996</v>
       </c>
       <c r="R50" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>99.441683815557653</v>
       </c>
       <c r="S50" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>744.05245984564556</v>
       </c>
       <c r="U50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4774,7 +4779,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F51" s="2">
         <v>773.5</v>
@@ -4786,26 +4791,26 @@
         <v>7.0270000000000001</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.9214325340599997E-2</v>
       </c>
       <c r="J51" s="2">
-        <f>I51-$F$1</f>
+        <f t="shared" si="1"/>
         <v>7.6572884962572956E-3</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.8852095052901627</v>
       </c>
       <c r="L51" s="2">
-        <f>K51-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.7427098841121107</v>
       </c>
       <c r="M51" s="1">
         <v>8</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O51" s="1">
         <v>629.1</v>
@@ -4817,15 +4822,15 @@
         <v>6.4729999999999999</v>
       </c>
       <c r="R51" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>117.93919256641529</v>
       </c>
       <c r="S51" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>875.94604043278207</v>
       </c>
       <c r="U51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4843,7 +4848,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F52" s="2">
         <v>773.7</v>
@@ -4855,26 +4860,26 @@
         <v>7.0679999999999996</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.9396486673525001E-2</v>
       </c>
       <c r="J52" s="2">
-        <f>I52-$F$1</f>
+        <f t="shared" si="1"/>
         <v>7.8394498291822993E-3</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9027421545094043</v>
       </c>
       <c r="L52" s="2">
-        <f>K52-$F$2</f>
+        <f t="shared" si="3"/>
         <v>0.76024253333135228</v>
       </c>
       <c r="M52" s="1">
         <v>9</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O52" s="1">
         <v>629.29999999999995</v>
@@ -4886,18 +4891,18 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="R52" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>98.762016075498323</v>
       </c>
       <c r="S52" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>750.83085298148592</v>
       </c>
       <c r="T52" t="s">
         <v>251</v>
       </c>
       <c r="U52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4915,7 +4920,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F53" s="2">
         <v>774.6</v>
@@ -4927,26 +4932,26 @@
         <v>7.8259999999999996</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" ref="I53:I63" si="14">(((G53/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I53:I60" si="16">(((G53/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.9033035593E-2</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" ref="J53:J63" si="15">I53-$F$1</f>
+        <f t="shared" ref="J53:J60" si="17">I53-$F$1</f>
         <v>7.4759987486572987E-3</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" ref="K53:K63" si="16">(I53/(1+I53))*100</f>
+        <f t="shared" ref="K53:K60" si="18">(I53/(1+I53))*100</f>
         <v>1.8677545210223943</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" ref="L53:L63" si="17">K53-$F$2</f>
+        <f t="shared" ref="L53:L60" si="19">K53-$F$2</f>
         <v>0.72525489984434222</v>
       </c>
       <c r="M53" s="1">
         <v>10</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O53" s="1">
         <v>629.5</v>
@@ -4958,663 +4963,717 @@
         <v>7.3330000000000002</v>
       </c>
       <c r="R53" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>115.94498326957945</v>
       </c>
       <c r="S53" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>840.89667228632777</v>
       </c>
       <c r="U53">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
         <v>201</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="C54" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="15">
         <v>7</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="15">
         <v>803</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="15">
         <v>687.73800000000006</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="15">
         <v>21.690999999999999</v>
       </c>
-      <c r="I54" s="2">
-        <f t="shared" si="14"/>
+      <c r="I54" s="15">
+        <f t="shared" si="16"/>
         <v>2.0150790044449998E-2</v>
       </c>
-      <c r="J54" s="2">
-        <f t="shared" si="15"/>
+      <c r="J54" s="15">
+        <f t="shared" si="17"/>
         <v>8.5937532001072962E-3</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="15">
+        <f t="shared" si="18"/>
+        <v>1.9752756397485109</v>
+      </c>
+      <c r="L54" s="15">
+        <f t="shared" si="19"/>
+        <v>0.83277601857045891</v>
+      </c>
+      <c r="M54" s="15">
+        <v>7</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O54" s="15">
+        <v>647.29999999999995</v>
+      </c>
+      <c r="P54" s="15">
+        <v>-33.524999999999999</v>
+      </c>
+      <c r="Q54" s="15">
+        <v>11.316000000000001</v>
+      </c>
+      <c r="R54" s="15">
+        <f t="shared" si="12"/>
+        <v>208.24780823211245</v>
+      </c>
+      <c r="S54" s="15">
+        <f t="shared" si="13"/>
+        <v>1734.2378061556303</v>
+      </c>
+      <c r="U54" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>202</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="15">
+        <v>8</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" s="15">
+        <v>802.4</v>
+      </c>
+      <c r="G55" s="15">
+        <v>682.68299999999999</v>
+      </c>
+      <c r="H55" s="15">
+        <v>19.494</v>
+      </c>
+      <c r="I55" s="15">
         <f t="shared" si="16"/>
-        <v>1.9752756397485109</v>
-      </c>
-      <c r="L54" s="2">
+        <v>2.0090435745574998E-2</v>
+      </c>
+      <c r="J55" s="15">
         <f t="shared" si="17"/>
-        <v>0.83277601857045891</v>
-      </c>
-      <c r="M54" s="1">
-        <v>7</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O54" s="1">
-        <v>647.29999999999995</v>
-      </c>
-      <c r="P54" s="1">
-        <v>-33.524999999999999</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>11.316000000000001</v>
-      </c>
-      <c r="R54" s="4">
-        <f t="shared" si="10"/>
-        <v>208.24780823211245</v>
-      </c>
-      <c r="S54" s="4">
-        <f t="shared" si="11"/>
-        <v>1734.2378061556303</v>
-      </c>
-      <c r="U54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>202</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="2">
+        <v>8.5333989012322965E-3</v>
+      </c>
+      <c r="K55" s="15">
+        <f t="shared" si="18"/>
+        <v>1.9694759446392693</v>
+      </c>
+      <c r="L55" s="15">
+        <f t="shared" si="19"/>
+        <v>0.8269763234612173</v>
+      </c>
+      <c r="M55" s="15">
         <v>8</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="N55" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F55" s="2">
-        <v>802.4</v>
-      </c>
-      <c r="G55" s="2">
-        <v>682.68299999999999</v>
-      </c>
-      <c r="H55" s="2">
-        <v>19.494</v>
-      </c>
-      <c r="I55" s="2">
-        <f t="shared" si="14"/>
-        <v>2.0090435745574998E-2</v>
-      </c>
-      <c r="J55" s="2">
-        <f t="shared" si="15"/>
-        <v>8.5333989012322965E-3</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="16"/>
-        <v>1.9694759446392693</v>
-      </c>
-      <c r="L55" s="2">
-        <f t="shared" si="17"/>
-        <v>0.8269763234612173</v>
-      </c>
-      <c r="M55" s="1">
-        <v>8</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O55" s="1">
+      <c r="O55" s="15">
         <v>646.6</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P55" s="15">
         <v>-32.984999999999999</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="Q55" s="15">
         <v>10.083</v>
       </c>
-      <c r="R55" s="4">
-        <f t="shared" si="10"/>
+      <c r="R55" s="15">
+        <f t="shared" si="12"/>
         <v>210.04144539479884</v>
       </c>
-      <c r="S55" s="4">
+      <c r="S55" s="15">
         <f>R55*(L55/100)*1000</f>
         <v>1736.9930228707078</v>
       </c>
-      <c r="U55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="U55" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
         <v>203</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="2">
+      <c r="C56" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="15">
         <v>5</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="15">
         <v>772.3</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="15">
         <v>714.53099999999995</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="15">
         <v>2.66</v>
       </c>
-      <c r="I56" s="2">
-        <f t="shared" si="14"/>
+      <c r="I56" s="15">
+        <f t="shared" si="16"/>
         <v>2.0470685737774996E-2</v>
       </c>
-      <c r="J56" s="2">
-        <f t="shared" si="15"/>
+      <c r="J56" s="15">
+        <f t="shared" si="17"/>
         <v>8.9136488934322949E-3</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="15">
+        <f t="shared" si="18"/>
+        <v>2.0060042903608934</v>
+      </c>
+      <c r="L56" s="15">
+        <f t="shared" si="19"/>
+        <v>0.86350466918284141</v>
+      </c>
+      <c r="M56" s="15">
+        <v>5</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="O56" s="15">
+        <v>628.5</v>
+      </c>
+      <c r="P56" s="15">
+        <v>-32.926000000000002</v>
+      </c>
+      <c r="Q56" s="15">
+        <v>2.11</v>
+      </c>
+      <c r="R56" s="15">
+        <f t="shared" si="12"/>
+        <v>136.95975959101557</v>
+      </c>
+      <c r="S56" s="15">
+        <f t="shared" ref="S56:S63" si="20">R56*(L56/100)*1000</f>
+        <v>1182.653918970014</v>
+      </c>
+      <c r="T56" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="U56" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>204</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="15">
+        <v>6</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F57" s="15">
+        <v>771.8</v>
+      </c>
+      <c r="G57" s="15">
+        <v>712.80600000000004</v>
+      </c>
+      <c r="H57" s="15">
+        <v>2.448</v>
+      </c>
+      <c r="I57" s="15">
         <f t="shared" si="16"/>
-        <v>2.0060042903608934</v>
-      </c>
-      <c r="L56" s="2">
+        <v>2.0450090057150001E-2</v>
+      </c>
+      <c r="J57" s="15">
         <f t="shared" si="17"/>
-        <v>0.86350466918284141</v>
-      </c>
-      <c r="M56" s="1">
+        <v>8.8930532128072993E-3</v>
+      </c>
+      <c r="K57" s="15">
+        <f t="shared" si="18"/>
+        <v>2.004026483647495</v>
+      </c>
+      <c r="L57" s="15">
+        <f t="shared" si="19"/>
+        <v>0.86152686246944299</v>
+      </c>
+      <c r="M57" s="15">
+        <v>6</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="O57" s="15">
+        <v>628.29999999999995</v>
+      </c>
+      <c r="P57" s="15">
+        <v>-32.953000000000003</v>
+      </c>
+      <c r="Q57" s="15">
+        <v>1.788</v>
+      </c>
+      <c r="R57" s="15">
+        <f t="shared" si="12"/>
+        <v>148.74339940040556</v>
+      </c>
+      <c r="S57" s="15">
+        <f t="shared" si="20"/>
+        <v>1281.4643419847064</v>
+      </c>
+      <c r="T57" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="U57" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>205</v>
+      </c>
+      <c r="B58" s="15">
         <v>5</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O56" s="1">
-        <v>628.5</v>
-      </c>
-      <c r="P56" s="1">
-        <v>-32.926000000000002</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>2.11</v>
-      </c>
-      <c r="R56" s="4">
-        <f t="shared" si="10"/>
-        <v>136.95975959101557</v>
-      </c>
-      <c r="S56" s="4">
-        <f t="shared" ref="S56:S63" si="18">R56*(L56/100)*1000</f>
-        <v>1182.653918970014</v>
-      </c>
-      <c r="T56" t="s">
-        <v>248</v>
-      </c>
-      <c r="U56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>204</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="2">
-        <v>6</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F57" s="2">
-        <v>771.8</v>
-      </c>
-      <c r="G57" s="2">
-        <v>712.80600000000004</v>
-      </c>
-      <c r="H57" s="2">
-        <v>2.448</v>
-      </c>
-      <c r="I57" s="2">
-        <f t="shared" si="14"/>
-        <v>2.0450090057150001E-2</v>
-      </c>
-      <c r="J57" s="2">
-        <f t="shared" si="15"/>
-        <v>8.8930532128072993E-3</v>
-      </c>
-      <c r="K57" s="2">
+      <c r="C58" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="15">
+        <v>4</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F58" s="15">
+        <v>793.8</v>
+      </c>
+      <c r="G58" s="15">
+        <v>686.98699999999997</v>
+      </c>
+      <c r="H58" s="15">
+        <v>7.4660000000000002</v>
+      </c>
+      <c r="I58" s="15">
         <f t="shared" si="16"/>
-        <v>2.004026483647495</v>
-      </c>
-      <c r="L57" s="2">
+        <v>2.0141823461175001E-2</v>
+      </c>
+      <c r="J58" s="15">
         <f t="shared" si="17"/>
-        <v>0.86152686246944299</v>
-      </c>
-      <c r="M57" s="1">
-        <v>6</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O57" s="1">
-        <v>628.29999999999995</v>
-      </c>
-      <c r="P57" s="1">
-        <v>-32.953000000000003</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>1.788</v>
-      </c>
-      <c r="R57" s="4">
-        <f t="shared" si="10"/>
-        <v>148.74339940040556</v>
-      </c>
-      <c r="S57" s="4">
+        <v>8.5847866168322993E-3</v>
+      </c>
+      <c r="K58" s="15">
         <f t="shared" si="18"/>
-        <v>1281.4643419847064</v>
-      </c>
-      <c r="T57" t="s">
-        <v>248</v>
-      </c>
-      <c r="U57">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>205</v>
-      </c>
-      <c r="B58" s="2">
-        <v>5</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="2">
+        <v>1.9744140469446763</v>
+      </c>
+      <c r="L58" s="15">
+        <f t="shared" si="19"/>
+        <v>0.83191442576662422</v>
+      </c>
+      <c r="M58" s="15">
         <v>4</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="N58" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="F58" s="2">
-        <v>793.8</v>
-      </c>
-      <c r="G58" s="2">
-        <v>686.98699999999997</v>
-      </c>
-      <c r="H58" s="2">
-        <v>7.4660000000000002</v>
-      </c>
-      <c r="I58" s="2">
-        <f t="shared" si="14"/>
-        <v>2.0141823461175001E-2</v>
-      </c>
-      <c r="J58" s="2">
-        <f t="shared" si="15"/>
-        <v>8.5847866168322993E-3</v>
-      </c>
-      <c r="K58" s="2">
-        <f t="shared" si="16"/>
-        <v>1.9744140469446763</v>
-      </c>
-      <c r="L58" s="2">
-        <f t="shared" si="17"/>
-        <v>0.83191442576662422</v>
-      </c>
-      <c r="M58" s="1">
-        <v>4</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O58" s="1">
+      <c r="O58" s="15">
         <v>645</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58" s="15">
         <v>-31.172000000000001</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58" s="15">
         <v>9.859</v>
       </c>
-      <c r="R58" s="4">
+      <c r="R58" s="15">
         <f>((H58/Q58)*$D$1)/256.4*(1/0.1*1000)/3</f>
         <v>246.81421986568071</v>
       </c>
-      <c r="S58" s="4">
+      <c r="S58" s="15">
+        <f t="shared" si="20"/>
+        <v>2053.2830999059515</v>
+      </c>
+      <c r="T58" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="U58" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>206</v>
+      </c>
+      <c r="B59" s="15">
+        <v>5</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="15">
+        <v>30</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" s="15">
+        <v>790.7</v>
+      </c>
+      <c r="G59" s="15">
+        <v>715.16399999999999</v>
+      </c>
+      <c r="H59" s="15">
+        <v>8.6080000000000005</v>
+      </c>
+      <c r="I59" s="15">
+        <f t="shared" si="16"/>
+        <v>2.0478243457099997E-2</v>
+      </c>
+      <c r="J59" s="15">
+        <f t="shared" si="17"/>
+        <v>8.9212066127572955E-3</v>
+      </c>
+      <c r="K59" s="15">
         <f t="shared" si="18"/>
-        <v>2053.2830999059515</v>
-      </c>
-      <c r="T58" t="s">
-        <v>250</v>
-      </c>
-      <c r="U58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>206</v>
-      </c>
-      <c r="B59" s="2">
-        <v>5</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="2">
+        <v>2.0067300394102801</v>
+      </c>
+      <c r="L59" s="15">
+        <f t="shared" si="19"/>
+        <v>0.86423041823222801</v>
+      </c>
+      <c r="M59" s="15">
         <v>30</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="N59" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="F59" s="2">
-        <v>790.7</v>
-      </c>
-      <c r="G59" s="2">
-        <v>715.16399999999999</v>
-      </c>
-      <c r="H59" s="2">
-        <v>8.6080000000000005</v>
-      </c>
-      <c r="I59" s="2">
-        <f t="shared" si="14"/>
-        <v>2.0478243457099997E-2</v>
-      </c>
-      <c r="J59" s="2">
-        <f t="shared" si="15"/>
-        <v>8.9212066127572955E-3</v>
-      </c>
-      <c r="K59" s="2">
-        <f t="shared" si="16"/>
-        <v>2.0067300394102801</v>
-      </c>
-      <c r="L59" s="2">
-        <f t="shared" si="17"/>
-        <v>0.86423041823222801</v>
-      </c>
-      <c r="M59" s="1">
-        <v>30</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="O59" s="1">
+      <c r="O59" s="15">
         <v>642.29999999999995</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59" s="15">
         <v>-32.645000000000003</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q59" s="15">
         <v>14.689</v>
       </c>
-      <c r="R59" s="4">
+      <c r="R59" s="15">
         <f>((H59/Q59)*$D$1)/256.4*(1/0.1*1000)/3</f>
         <v>190.99635794268318</v>
       </c>
-      <c r="S59" s="4">
+      <c r="S59" s="15">
+        <f t="shared" si="20"/>
+        <v>1650.6486230563742</v>
+      </c>
+      <c r="T59" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="U59" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>207</v>
+      </c>
+      <c r="B60" s="16">
+        <v>6</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="16">
+        <v>8</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="F60" s="16">
+        <v>773.5</v>
+      </c>
+      <c r="G60" s="16">
+        <v>645.76599999999996</v>
+      </c>
+      <c r="H60" s="16">
+        <v>8.7189999999999994</v>
+      </c>
+      <c r="I60" s="16">
+        <f t="shared" si="16"/>
+        <v>1.9649664301149998E-2</v>
+      </c>
+      <c r="J60" s="16">
+        <f t="shared" si="17"/>
+        <v>8.0926274568072967E-3</v>
+      </c>
+      <c r="K60" s="16">
         <f t="shared" si="18"/>
-        <v>1650.6486230563742</v>
-      </c>
-      <c r="T59" t="s">
-        <v>250</v>
-      </c>
-      <c r="U59">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>207</v>
-      </c>
-      <c r="B60" s="7">
+        <v>1.9270995704801743</v>
+      </c>
+      <c r="L60" s="16">
+        <f t="shared" si="19"/>
+        <v>0.78459994930212229</v>
+      </c>
+      <c r="M60" s="16">
+        <v>8</v>
+      </c>
+      <c r="N60" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="O60" s="16">
+        <v>630.79999999999995</v>
+      </c>
+      <c r="P60" s="16">
+        <v>-36.466999999999999</v>
+      </c>
+      <c r="Q60" s="16">
+        <v>18.651</v>
+      </c>
+      <c r="R60" s="16">
+        <f>((H60/Q60)*$D$1)/256.4*(1/0.1*1000)/3</f>
+        <v>152.36303463183512</v>
+      </c>
+      <c r="S60" s="16">
+        <f t="shared" si="20"/>
+        <v>1195.4402924765532</v>
+      </c>
+      <c r="U60" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <v>208</v>
+      </c>
+      <c r="B61" s="16">
         <v>6</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="7">
-        <v>29</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F60" s="7">
-        <v>792.1</v>
-      </c>
-      <c r="G60" s="7">
-        <v>720.73699999999997</v>
-      </c>
-      <c r="H60" s="7">
-        <v>6.76</v>
-      </c>
-      <c r="I60" s="2">
-        <f t="shared" si="14"/>
-        <v>2.0544782429924999E-2</v>
-      </c>
-      <c r="J60" s="2">
-        <f t="shared" si="15"/>
-        <v>8.987745585582298E-3</v>
-      </c>
-      <c r="K60" s="2">
-        <f t="shared" si="16"/>
-        <v>2.0131191480894857</v>
-      </c>
-      <c r="L60" s="2">
-        <f t="shared" si="17"/>
-        <v>0.87061952691143363</v>
-      </c>
-      <c r="M60" s="8">
-        <v>29</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="O60" s="8">
-        <v>643.70000000000005</v>
-      </c>
-      <c r="P60" s="8">
-        <v>-33.838000000000001</v>
-      </c>
-      <c r="Q60" s="8">
-        <v>10.712999999999999</v>
-      </c>
-      <c r="R60" s="4">
-        <f t="shared" si="10"/>
-        <v>68.553462447157159</v>
-      </c>
-      <c r="S60" s="4">
-        <f t="shared" si="18"/>
-        <v>596.839830438847</v>
-      </c>
-      <c r="U60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>208</v>
-      </c>
-      <c r="B61" s="2">
-        <v>6</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U61">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="C61" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="16">
+        <v>9</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="F61" s="16">
+        <v>773.1</v>
+      </c>
+      <c r="G61" s="16">
+        <v>665.95100000000002</v>
+      </c>
+      <c r="H61" s="16">
+        <v>5.5940000000000003</v>
+      </c>
+      <c r="I61" s="16">
+        <f t="shared" ref="I61:I63" si="21">(((G61/1000)+1)*0.0112372)*(17/16)</f>
+        <v>1.9890663613275003E-2</v>
+      </c>
+      <c r="J61" s="16">
+        <f t="shared" ref="J61:J63" si="22">I61-$F$1</f>
+        <v>8.3336267689323017E-3</v>
+      </c>
+      <c r="K61" s="16">
+        <f t="shared" ref="K61:K63" si="23">(I61/(1+I61))*100</f>
+        <v>1.950274114953287</v>
+      </c>
+      <c r="L61" s="16">
+        <f t="shared" ref="L61:L63" si="24">K61-$F$2</f>
+        <v>0.80777449377523491</v>
+      </c>
+      <c r="M61" s="16">
+        <v>9</v>
+      </c>
+      <c r="N61" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="O61" s="16">
+        <v>630.1</v>
+      </c>
+      <c r="P61" s="16">
+        <v>-39.792000000000002</v>
+      </c>
+      <c r="Q61" s="16">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="R61" s="16">
+        <f>((H61/Q61)*$D$1)/256.4*(1/0.1*1000)/3</f>
+        <v>182.86995672404632</v>
+      </c>
+      <c r="S61" s="16">
+        <f t="shared" si="20"/>
+        <v>1477.1768671946563</v>
+      </c>
+      <c r="U61" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
         <v>209</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="C62" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="15">
         <v>11</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F62" s="2">
+      <c r="E62" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="F62" s="15">
         <v>775.6</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="15">
         <v>646.04399999999998</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="15">
         <v>7.327</v>
       </c>
-      <c r="I62" s="2">
-        <f t="shared" si="14"/>
+      <c r="I62" s="15">
+        <f t="shared" si="21"/>
         <v>1.9652983489099995E-2</v>
       </c>
-      <c r="J62" s="2">
-        <f t="shared" si="15"/>
+      <c r="J62" s="15">
+        <f t="shared" si="22"/>
         <v>8.0959466447572941E-3</v>
       </c>
-      <c r="K62" s="2">
-        <f t="shared" si="16"/>
+      <c r="K62" s="15">
+        <f t="shared" si="23"/>
         <v>1.9274188186897103</v>
       </c>
-      <c r="L62" s="2">
-        <f t="shared" si="17"/>
+      <c r="L62" s="15">
+        <f t="shared" si="24"/>
         <v>0.78491919751165828</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62" s="15">
         <v>11</v>
       </c>
-      <c r="N62" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="O62" s="1">
+      <c r="N62" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="O62" s="15">
         <v>629.70000000000005</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62" s="15">
         <v>-36.271999999999998</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="Q62" s="15">
         <v>4.3710000000000004</v>
       </c>
-      <c r="R62" s="4">
-        <f t="shared" si="10"/>
+      <c r="R62" s="15">
+        <f t="shared" si="12"/>
         <v>182.11226199372081</v>
       </c>
-      <c r="S62" s="4">
-        <f t="shared" si="18"/>
+      <c r="S62" s="15">
+        <f t="shared" si="20"/>
         <v>1429.434105411442</v>
       </c>
-      <c r="U62">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="U62" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
         <v>210</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="C63" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="15">
         <v>11</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F63" s="2">
+      <c r="E63" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F63" s="15">
         <v>775</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="15">
         <v>633.05399999999997</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="15">
         <v>9.5069999999999997</v>
       </c>
-      <c r="I63" s="2">
-        <f t="shared" si="14"/>
+      <c r="I63" s="15">
+        <f t="shared" si="21"/>
         <v>1.9497889059350001E-2</v>
       </c>
-      <c r="J63" s="2">
-        <f t="shared" si="15"/>
+      <c r="J63" s="15">
+        <f t="shared" si="22"/>
         <v>7.9408522150073001E-3</v>
       </c>
-      <c r="K63" s="2">
-        <f t="shared" si="16"/>
+      <c r="K63" s="15">
+        <f t="shared" si="23"/>
         <v>1.9124992085407775</v>
       </c>
-      <c r="L63" s="2">
-        <f t="shared" si="17"/>
+      <c r="L63" s="15">
+        <f t="shared" si="24"/>
         <v>0.76999958736272545</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63" s="15">
         <v>11</v>
       </c>
-      <c r="N63" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="O63" s="1">
+      <c r="N63" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="O63" s="15">
         <v>629.1</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P63" s="15">
         <v>-37.164999999999999</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="Q63" s="15">
         <v>5.992</v>
       </c>
-      <c r="R63" s="4">
-        <f t="shared" si="10"/>
+      <c r="R63" s="15">
+        <f t="shared" si="12"/>
         <v>172.3715126842724</v>
       </c>
-      <c r="S63" s="4">
-        <f t="shared" si="18"/>
+      <c r="S63" s="15">
+        <f t="shared" si="20"/>
         <v>1327.2599363997854</v>
       </c>
-      <c r="U63">
-        <f t="shared" si="4"/>
+      <c r="U63" s="15">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5633,8 +5692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2164ACBF-CB39-409E-845E-5FA3CBD74056}">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="I79" workbookViewId="0">
+      <selection activeCell="S99" activeCellId="15" sqref="S9:S11 S15:S17 S21:S23 S27:S29 S33:S35 S39:S41 S45:S47 S51:S53 S57:S59 S63:S65 S69:S71 S75:S77 S81:S83 S87:S89 S93:S95 S99:S101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5666,7 +5725,7 @@
         <v>23.945</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F1" s="3">
         <f>AVERAGE(I6:I8,I12:I14,I18:I20,I24:I26,I30:I32,I36:I38,I42:I44,I48:I50,I54:I56,I60:I62,I66:I68,I72:I74,I78:I80,I84:I86,I90:I92,I96:I98)</f>
@@ -5681,7 +5740,7 @@
         <v>0.3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F2" s="3">
         <f>AVERAGE(K6:K8,K12:K14,K18:K20,K24:K26,K30:K32,K36:K38,K42:K44,K48:K50,K54:K56,K60:K62,K66:K68,K72:K74,K78:K80,K84:K86,K90:K92,K96:K98)</f>
@@ -5689,24 +5748,24 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -5770,7 +5829,7 @@
         <v>247</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -9876,19 +9935,19 @@
         <v>20</v>
       </c>
       <c r="D69" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>253</v>
       </c>
       <c r="F69" s="7">
-        <v>796.3</v>
+        <v>769.7</v>
       </c>
       <c r="G69" s="7">
-        <v>56.421999999999997</v>
+        <v>70.816000000000003</v>
       </c>
       <c r="H69" s="7">
-        <v>15.013</v>
+        <v>2.5070000000000001</v>
       </c>
       <c r="I69" s="7">
         <v>1.2613176879549999E-2</v>
@@ -9906,30 +9965,30 @@
         <v>0.10513837120086444</v>
       </c>
       <c r="M69" s="8">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N69" s="8" t="s">
         <v>253</v>
       </c>
       <c r="O69" s="8">
-        <v>1045.4000000000001</v>
+        <v>986.3</v>
       </c>
       <c r="P69" s="8">
-        <v>-31.911999999999999</v>
+        <v>-35.630000000000003</v>
       </c>
       <c r="Q69" s="8">
-        <v>136.173</v>
+        <v>18.469000000000001</v>
       </c>
       <c r="R69" s="9">
         <f t="shared" si="31"/>
-        <v>34.320376619049405</v>
+        <v>42.255818501731355</v>
       </c>
       <c r="S69" s="9">
         <f t="shared" si="32"/>
-        <v>36.083884967270855</v>
+        <v>44.427079310313864</v>
       </c>
       <c r="T69" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="U69" s="10">
         <f t="shared" si="4"/>
@@ -10000,7 +10059,7 @@
         <v>66.701097791040297</v>
       </c>
       <c r="T70" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="U70" s="10">
         <f t="shared" si="4"/>
@@ -10071,7 +10130,7 @@
         <v>83.120800472087922</v>
       </c>
       <c r="T71" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="U71" s="10">
         <f t="shared" ref="U71:U111" si="35">M71-D71</f>
@@ -10136,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="T72" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="U72" s="10">
         <f>M72-D72</f>
@@ -10201,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="T73" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="U73" s="10">
         <f t="shared" si="35"/>
@@ -10266,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="U74" s="10">
         <f t="shared" si="35"/>
@@ -10494,7 +10553,7 @@
         <v>13</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F78" s="2">
         <v>777.9</v>
@@ -10517,7 +10576,7 @@
         <v>13</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O78" s="1">
         <v>1005.1</v>
@@ -10529,7 +10588,7 @@
         <v>79.713999999999999</v>
       </c>
       <c r="R78" s="4">
-        <f t="shared" ref="R78:R102" si="40">((H78/Q78)*$D$1)/256.4*(1/$D$2*1000)</f>
+        <f t="shared" ref="R78:R101" si="40">((H78/Q78)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>51.103174543219787</v>
       </c>
       <c r="S78" s="4">
@@ -10555,7 +10614,7 @@
         <v>14</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F79" s="2">
         <v>778.3</v>
@@ -10578,7 +10637,7 @@
         <v>14</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O79" s="1">
         <v>1007.2</v>
@@ -10616,7 +10675,7 @@
         <v>15</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F80" s="2">
         <v>777.3</v>
@@ -10639,7 +10698,7 @@
         <v>15</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O80" s="1">
         <v>999.2</v>
@@ -10677,7 +10736,7 @@
         <v>16</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F81" s="2">
         <v>779.6</v>
@@ -10708,7 +10767,7 @@
         <v>16</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O81" s="1">
         <v>1015.5</v>
@@ -10746,7 +10805,7 @@
         <v>17</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F82" s="2">
         <v>777.1</v>
@@ -10777,7 +10836,7 @@
         <v>17</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O82" s="1">
         <v>1012.4</v>
@@ -10815,7 +10874,7 @@
         <v>18</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F83" s="2">
         <v>778.5</v>
@@ -10846,7 +10905,7 @@
         <v>18</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O83" s="1">
         <v>1018</v>
@@ -10884,7 +10943,7 @@
         <v>19</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F84" s="2">
         <v>776</v>
@@ -10907,7 +10966,7 @@
         <v>19</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O84" s="1">
         <v>988.6</v>
@@ -10945,7 +11004,7 @@
         <v>20</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F85" s="2">
         <v>777.5</v>
@@ -10968,7 +11027,7 @@
         <v>20</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O85" s="1">
         <v>987.9</v>
@@ -11006,7 +11065,7 @@
         <v>21</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F86" s="2">
         <v>776.6</v>
@@ -11029,7 +11088,7 @@
         <v>21</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O86" s="1">
         <v>986.7</v>
@@ -11064,58 +11123,58 @@
         <v>20</v>
       </c>
       <c r="D87" s="2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F87" s="2">
-        <v>777.9</v>
+        <v>774.6</v>
       </c>
       <c r="G87" s="2">
-        <v>103.761</v>
+        <v>84.066000000000003</v>
       </c>
       <c r="H87" s="2">
-        <v>5.93</v>
+        <v>12.173</v>
       </c>
       <c r="I87" s="2">
         <f t="shared" si="38"/>
-        <v>1.3178382053524999E-2</v>
+        <v>1.2943233108649999E-2</v>
       </c>
       <c r="J87" s="2">
         <f>I87-AVERAGE($I$84:$I$86)</f>
-        <v>1.6542291484333334E-3</v>
+        <v>1.419080203558333E-3</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="39"/>
-        <v>1.3006971217462082</v>
+        <v>1.2777846463249618</v>
       </c>
       <c r="L87" s="2">
         <f>K87-AVERAGE($K$84:$K$86)</f>
-        <v>0.16141115419665186</v>
+        <v>0.13849867877540545</v>
       </c>
       <c r="M87" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O87" s="1">
-        <v>989.2</v>
+        <v>1001.9</v>
       </c>
       <c r="P87" s="1">
-        <v>-34.774000000000001</v>
+        <v>-35.106000000000002</v>
       </c>
       <c r="Q87" s="1">
-        <v>18.791</v>
+        <v>63.777000000000001</v>
       </c>
       <c r="R87" s="4">
         <f t="shared" si="40"/>
-        <v>98.238193271012207</v>
+        <v>59.416778493113164</v>
       </c>
       <c r="S87" s="4">
         <f t="shared" si="41"/>
-        <v>158.5674016206784</v>
+        <v>82.291453183870985</v>
       </c>
       <c r="U87">
         <f t="shared" si="35"/>
@@ -11136,7 +11195,7 @@
         <v>23</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F88" s="2">
         <v>778.3</v>
@@ -11167,7 +11226,7 @@
         <v>23</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O88" s="1">
         <v>1009.5</v>
@@ -11205,7 +11264,7 @@
         <v>24</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F89" s="2">
         <v>780.2</v>
@@ -11236,7 +11295,7 @@
         <v>24</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O89" s="1">
         <v>1014.7</v>
@@ -11274,7 +11333,7 @@
         <v>13</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F90" s="2">
         <v>774.6</v>
@@ -11297,7 +11356,7 @@
         <v>13</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O90" s="1">
         <v>992.8</v>
@@ -11335,7 +11394,7 @@
         <v>14</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F91" s="2">
         <v>773.1</v>
@@ -11358,7 +11417,7 @@
         <v>14</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O91" s="1">
         <v>984</v>
@@ -11396,7 +11455,7 @@
         <v>15</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F92" s="2">
         <v>773.7</v>
@@ -11419,7 +11478,7 @@
         <v>15</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O92" s="1">
         <v>994.2</v>
@@ -11457,7 +11516,7 @@
         <v>16</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F93" s="2">
         <v>776</v>
@@ -11488,7 +11547,7 @@
         <v>16</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O93" s="1">
         <v>1008.4</v>
@@ -11526,7 +11585,7 @@
         <v>17</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F94" s="2">
         <v>776.9</v>
@@ -11557,7 +11616,7 @@
         <v>17</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O94" s="1">
         <v>1005.9</v>
@@ -11595,7 +11654,7 @@
         <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F95" s="2">
         <v>777.1</v>
@@ -11626,7 +11685,7 @@
         <v>18</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O95" s="1">
         <v>1006.5</v>
@@ -11664,7 +11723,7 @@
         <v>19</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F96" s="2">
         <v>772</v>
@@ -11687,7 +11746,7 @@
         <v>19</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O96" s="1">
         <v>989.2</v>
@@ -11725,7 +11784,7 @@
         <v>20</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F97" s="2">
         <v>775.6</v>
@@ -11748,7 +11807,7 @@
         <v>20</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O97" s="1">
         <v>984.8</v>
@@ -11786,7 +11845,7 @@
         <v>21</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F98" s="2">
         <v>775.8</v>
@@ -11809,7 +11868,7 @@
         <v>21</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O98" s="1">
         <v>987.5</v>
@@ -11847,7 +11906,7 @@
         <v>22</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F99" s="2">
         <v>775.8</v>
@@ -11878,7 +11937,7 @@
         <v>22</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O99" s="1">
         <v>989</v>
@@ -11916,7 +11975,7 @@
         <v>23</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F100" s="2">
         <v>776</v>
@@ -11947,7 +12006,7 @@
         <v>23</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O100" s="1">
         <v>1008.6</v>
@@ -11985,7 +12044,7 @@
         <v>24</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F101" s="2">
         <v>777.9</v>
@@ -12016,7 +12075,7 @@
         <v>24</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O101" s="1">
         <v>1012.2</v>
@@ -12040,698 +12099,698 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="17">
+    <row r="102" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15">
         <v>201</v>
       </c>
-      <c r="B102" s="17" t="s">
+      <c r="B102" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C102" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="17">
+      <c r="C102" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="15">
         <v>7</v>
       </c>
-      <c r="E102" s="17" t="s">
+      <c r="E102" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F102" s="17">
+      <c r="F102" s="15">
         <v>798.8</v>
       </c>
-      <c r="G102" s="17">
+      <c r="G102" s="15">
         <v>-7.73</v>
       </c>
-      <c r="H102" s="17">
+      <c r="H102" s="15">
         <v>4.3890000000000002</v>
       </c>
-      <c r="I102" s="17">
+      <c r="I102" s="15">
         <f t="shared" si="38"/>
         <v>1.1847232471749998E-2</v>
       </c>
-      <c r="J102" s="17">
+      <c r="J102" s="15">
         <f>I102-$F$1</f>
         <v>2.9019562740729629E-4</v>
       </c>
-      <c r="K102" s="17">
+      <c r="K102" s="15">
         <f>(I102/(1+I102))*100</f>
         <v>1.1708518926132223</v>
       </c>
-      <c r="L102" s="17">
+      <c r="L102" s="15">
         <f>K102-$F$2</f>
         <v>2.8352271435170273E-2</v>
       </c>
-      <c r="M102" s="17">
+      <c r="M102" s="15">
         <v>7</v>
       </c>
-      <c r="N102" s="17" t="s">
+      <c r="N102" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="O102" s="17">
+      <c r="O102" s="15">
         <v>1040.4000000000001</v>
       </c>
-      <c r="P102" s="17">
+      <c r="P102" s="15">
         <v>-32.052999999999997</v>
       </c>
-      <c r="Q102" s="17">
+      <c r="Q102" s="15">
         <v>68.751999999999995</v>
       </c>
-      <c r="R102" s="17">
+      <c r="R102" s="15">
         <f t="shared" ref="R102:R111" si="50">((H102/Q102)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>19.872651215683263</v>
       </c>
-      <c r="S102" s="17">
+      <c r="S102" s="15">
         <f t="shared" si="41"/>
         <v>5.6343480140351838</v>
       </c>
-      <c r="U102" s="17">
+      <c r="U102" s="15">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="17">
+    <row r="103" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15">
         <v>202</v>
       </c>
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C103" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" s="17">
+      <c r="C103" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="15">
         <v>8</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E103" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F103" s="17">
+      <c r="F103" s="15">
         <v>799.2</v>
       </c>
-      <c r="G103" s="17">
+      <c r="G103" s="15">
         <v>68.930000000000007</v>
       </c>
-      <c r="H103" s="17">
+      <c r="H103" s="15">
         <v>5.1619999999999999</v>
       </c>
-      <c r="I103" s="17">
+      <c r="I103" s="15">
         <f t="shared" si="38"/>
         <v>1.2762516458249999E-2</v>
       </c>
-      <c r="J103" s="17">
+      <c r="J103" s="15">
         <f t="shared" ref="J103:J111" si="51">I103-$F$1</f>
         <v>1.2054796139072971E-3</v>
       </c>
-      <c r="K103" s="17">
+      <c r="K103" s="15">
         <f>(I103/(1+I103))*100</f>
         <v>1.2601687217731974</v>
       </c>
-      <c r="L103" s="17">
+      <c r="L103" s="15">
         <f t="shared" ref="L103:L111" si="52">K103-$F$2</f>
         <v>0.11766910059514535</v>
       </c>
-      <c r="M103" s="17">
+      <c r="M103" s="15">
         <v>8</v>
       </c>
-      <c r="N103" s="17" t="s">
+      <c r="N103" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="O103" s="17">
+      <c r="O103" s="15">
         <v>1039.8</v>
       </c>
-      <c r="P103" s="17">
+      <c r="P103" s="15">
         <v>-32.298000000000002</v>
       </c>
-      <c r="Q103" s="17">
+      <c r="Q103" s="15">
         <v>62.533000000000001</v>
       </c>
-      <c r="R103" s="17">
+      <c r="R103" s="15">
         <f t="shared" si="50"/>
         <v>25.697111072519601</v>
       </c>
-      <c r="S103" s="17">
+      <c r="S103" s="15">
         <f t="shared" ref="S103:S111" si="53">R103*(L103/100)*1000</f>
         <v>30.23755947796932</v>
       </c>
-      <c r="U103" s="17">
+      <c r="U103" s="15">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="17">
+    <row r="104" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15">
         <v>203</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C104" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" s="17">
+      <c r="C104" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="15">
         <v>25</v>
       </c>
-      <c r="E104" s="17" t="s">
+      <c r="E104" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="F104" s="17">
+      <c r="F104" s="15">
         <v>788.6</v>
       </c>
-      <c r="G104" s="17">
+      <c r="G104" s="15">
         <v>37.040999999999997</v>
       </c>
-      <c r="H104" s="17">
+      <c r="H104" s="15">
         <v>4.8079999999999998</v>
       </c>
-      <c r="I104" s="17">
+      <c r="I104" s="15">
         <f t="shared" si="38"/>
         <v>1.2381776945525001E-2</v>
       </c>
-      <c r="J104" s="17">
+      <c r="J104" s="15">
         <f t="shared" si="51"/>
         <v>8.2474010118229954E-4</v>
       </c>
-      <c r="K104" s="17">
+      <c r="K104" s="15">
         <f>(I104/(1+I104))*100</f>
         <v>1.2230343559602861</v>
       </c>
-      <c r="L104" s="17">
+      <c r="L104" s="15">
         <f t="shared" si="52"/>
         <v>8.0534734782234052E-2</v>
       </c>
-      <c r="M104" s="17">
+      <c r="M104" s="15">
         <v>25</v>
       </c>
-      <c r="N104" s="17" t="s">
+      <c r="N104" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="O104" s="17">
+      <c r="O104" s="15">
         <v>1005.5</v>
       </c>
-      <c r="P104" s="17">
+      <c r="P104" s="15">
         <v>-35.829000000000001</v>
       </c>
-      <c r="Q104" s="17">
+      <c r="Q104" s="15">
         <v>23.908999999999999</v>
       </c>
-      <c r="R104" s="17">
+      <c r="R104" s="15">
         <f t="shared" si="50"/>
         <v>62.600616869210306</v>
       </c>
-      <c r="S104" s="17">
+      <c r="S104" s="15">
         <f t="shared" si="53"/>
         <v>50.415240767660983</v>
       </c>
-      <c r="U104" s="17">
+      <c r="U104" s="15">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="17">
+    <row r="105" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15">
         <v>204</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C105" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D105" s="17">
+      <c r="C105" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="15">
         <v>25</v>
       </c>
-      <c r="E105" s="17" t="s">
+      <c r="E105" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F105" s="17">
+      <c r="F105" s="15">
         <v>789.2</v>
       </c>
-      <c r="G105" s="17">
+      <c r="G105" s="15">
         <v>56.631999999999998</v>
       </c>
-      <c r="H105" s="17">
+      <c r="H105" s="15">
         <v>4.2480000000000002</v>
       </c>
-      <c r="I105" s="17">
+      <c r="I105" s="15">
         <f t="shared" si="38"/>
         <v>1.2615684179799998E-2</v>
       </c>
-      <c r="J105" s="17">
+      <c r="J105" s="15">
         <f t="shared" si="51"/>
         <v>1.0586473354572967E-3</v>
       </c>
-      <c r="K105" s="17">
+      <c r="K105" s="15">
         <f t="shared" ref="K105:K107" si="54">(I105/(1+I105))*100</f>
         <v>1.2458511532949907</v>
       </c>
-      <c r="L105" s="17">
+      <c r="L105" s="15">
         <f t="shared" si="52"/>
         <v>0.1033515321169387</v>
       </c>
-      <c r="M105" s="17">
+      <c r="M105" s="15">
         <v>25</v>
       </c>
-      <c r="N105" s="17" t="s">
+      <c r="N105" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="O105" s="17">
+      <c r="O105" s="15">
         <v>1035</v>
       </c>
-      <c r="P105" s="17">
+      <c r="P105" s="15">
         <v>-41.420999999999999</v>
       </c>
-      <c r="Q105" s="17">
+      <c r="Q105" s="15">
         <v>27.792000000000002</v>
       </c>
-      <c r="R105" s="17">
+      <c r="R105" s="15">
         <f t="shared" si="50"/>
         <v>47.581734875612646</v>
       </c>
-      <c r="S105" s="17">
+      <c r="S105" s="15">
         <f t="shared" si="53"/>
         <v>49.176452001765433</v>
       </c>
-      <c r="U105" s="17">
+      <c r="U105" s="15">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="17">
+    <row r="106" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="15">
         <v>205</v>
       </c>
-      <c r="B106" s="17">
+      <c r="B106" s="15">
         <v>5</v>
       </c>
-      <c r="C106" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D106" s="17">
+      <c r="C106" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="15">
         <v>27</v>
       </c>
-      <c r="E106" s="17" t="s">
+      <c r="E106" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="F106" s="17">
+      <c r="F106" s="15">
         <v>796.1</v>
       </c>
-      <c r="G106" s="17">
+      <c r="G106" s="15">
         <v>21.088999999999999</v>
       </c>
-      <c r="H106" s="17">
+      <c r="H106" s="15">
         <v>2.617</v>
       </c>
-      <c r="I106" s="17">
+      <c r="I106" s="15">
         <f t="shared" si="38"/>
         <v>1.2191317642724998E-2</v>
       </c>
-      <c r="J106" s="17">
+      <c r="J106" s="15">
         <f t="shared" si="51"/>
         <v>6.3428079838229699E-4</v>
       </c>
-      <c r="K106" s="17">
+      <c r="K106" s="15">
         <f t="shared" si="54"/>
         <v>1.2044479566488624</v>
       </c>
-      <c r="L106" s="17">
+      <c r="L106" s="15">
         <f t="shared" si="52"/>
         <v>6.1948335470810356E-2</v>
       </c>
-      <c r="M106" s="17">
+      <c r="M106" s="15">
         <v>27</v>
       </c>
-      <c r="N106" s="17" t="s">
+      <c r="N106" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="O106" s="17">
+      <c r="O106" s="15">
         <v>1026</v>
       </c>
-      <c r="P106" s="17">
+      <c r="P106" s="15">
         <v>-34.973999999999997</v>
       </c>
-      <c r="Q106" s="17">
+      <c r="Q106" s="15">
         <v>41.896999999999998</v>
       </c>
-      <c r="R106" s="18">
+      <c r="R106" s="16">
         <f>((H106/Q106)*$D$1)/256.4*(1/0.1*1000)</f>
         <v>58.333443799121518</v>
       </c>
-      <c r="S106" s="17">
+      <c r="S106" s="15">
         <f t="shared" si="53"/>
         <v>36.136597456356427</v>
       </c>
-      <c r="T106" s="18" t="s">
+      <c r="T106" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="U106" s="17">
+      <c r="U106" s="15">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="17">
+    <row r="107" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="15">
         <v>206</v>
       </c>
-      <c r="B107" s="17">
+      <c r="B107" s="15">
         <v>5</v>
       </c>
-      <c r="C107" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" s="17">
+      <c r="C107" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="15">
         <v>28</v>
       </c>
-      <c r="E107" s="17" t="s">
+      <c r="E107" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="F107" s="17">
+      <c r="F107" s="15">
         <v>796.3</v>
       </c>
-      <c r="G107" s="17">
+      <c r="G107" s="15">
         <v>14.917</v>
       </c>
-      <c r="H107" s="17">
+      <c r="H107" s="15">
         <v>2.714</v>
       </c>
-      <c r="I107" s="17">
+      <c r="I107" s="15">
         <f t="shared" si="38"/>
         <v>1.2117626894425E-2</v>
       </c>
-      <c r="J107" s="17">
+      <c r="J107" s="15">
         <f t="shared" si="51"/>
         <v>5.6059005008229912E-4</v>
       </c>
-      <c r="K107" s="17">
+      <c r="K107" s="15">
         <f t="shared" si="54"/>
         <v>1.1972548024488663</v>
       </c>
-      <c r="L107" s="17">
+      <c r="L107" s="15">
         <f t="shared" si="52"/>
         <v>5.4755181270814246E-2</v>
       </c>
-      <c r="M107" s="17">
+      <c r="M107" s="15">
         <v>28</v>
       </c>
-      <c r="N107" s="17" t="s">
+      <c r="N107" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="O107" s="17">
+      <c r="O107" s="15">
         <v>1024.3</v>
       </c>
-      <c r="P107" s="17">
+      <c r="P107" s="15">
         <v>-36.238999999999997</v>
       </c>
-      <c r="Q107" s="17">
+      <c r="Q107" s="15">
         <v>28.306000000000001</v>
       </c>
-      <c r="R107" s="18">
+      <c r="R107" s="16">
         <f>((H107/Q107)*$D$1)/256.4*(1/0.1*1000)</f>
         <v>89.542282673430861</v>
       </c>
-      <c r="S107" s="17">
+      <c r="S107" s="15">
         <f t="shared" si="53"/>
         <v>49.029039191861969</v>
       </c>
-      <c r="T107" s="18" t="s">
+      <c r="T107" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="U107" s="17">
+      <c r="U107" s="15">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="17">
+    <row r="108" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15">
         <v>207</v>
       </c>
-      <c r="B108" s="17">
+      <c r="B108" s="15">
         <v>6</v>
       </c>
-      <c r="C108" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="17">
+      <c r="C108" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="15">
         <v>19</v>
       </c>
-      <c r="E108" s="17" t="s">
+      <c r="E108" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F108" s="17">
+      <c r="F108" s="15">
         <v>793.2</v>
       </c>
-      <c r="G108" s="17">
+      <c r="G108" s="15">
         <v>59.351999999999997</v>
       </c>
-      <c r="H108" s="17">
+      <c r="H108" s="15">
         <v>2.46</v>
       </c>
-      <c r="I108" s="17">
+      <c r="I108" s="15">
         <f t="shared" si="38"/>
         <v>1.26481596878E-2</v>
       </c>
-      <c r="J108" s="17">
+      <c r="J108" s="15">
         <f t="shared" si="51"/>
         <v>1.0911228434572987E-3</v>
       </c>
-      <c r="K108" s="17">
+      <c r="K108" s="15">
         <f t="shared" ref="K108:K109" si="55">(I108/(1+I108))*100</f>
         <v>1.2490181872941371</v>
       </c>
-      <c r="L108" s="17">
+      <c r="L108" s="15">
         <f t="shared" si="52"/>
         <v>0.10651856611608501</v>
       </c>
-      <c r="M108" s="17">
+      <c r="M108" s="15">
         <v>19</v>
       </c>
-      <c r="N108" s="17" t="s">
+      <c r="N108" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="O108" s="17">
+      <c r="O108" s="15">
         <v>1033.9000000000001</v>
       </c>
-      <c r="P108" s="17">
+      <c r="P108" s="15">
         <v>-38.667000000000002</v>
       </c>
-      <c r="Q108" s="17">
+      <c r="Q108" s="15">
         <v>23.36</v>
       </c>
-      <c r="R108" s="17">
+      <c r="R108" s="15">
         <f t="shared" si="50"/>
         <v>32.782180294061085</v>
       </c>
-      <c r="S108" s="17">
+      <c r="S108" s="15">
         <f t="shared" si="53"/>
         <v>34.919108390823645</v>
       </c>
-      <c r="U108" s="17">
+      <c r="U108" s="15">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="17">
+    <row r="109" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="15">
         <v>208</v>
       </c>
-      <c r="B109" s="17">
+      <c r="B109" s="15">
         <v>6</v>
       </c>
-      <c r="C109" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" s="17">
-        <v>20</v>
-      </c>
-      <c r="E109" s="17" t="s">
+      <c r="C109" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="15">
+        <v>20</v>
+      </c>
+      <c r="E109" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="F109" s="17">
+      <c r="F109" s="15">
         <v>793.6</v>
       </c>
-      <c r="G109" s="17">
+      <c r="G109" s="15">
         <v>47.725999999999999</v>
       </c>
-      <c r="H109" s="17">
+      <c r="H109" s="15">
         <v>3.71</v>
       </c>
-      <c r="I109" s="17">
+      <c r="I109" s="15">
         <f t="shared" si="38"/>
         <v>1.2509350770149998E-2</v>
       </c>
-      <c r="J109" s="17">
+      <c r="J109" s="15">
         <f t="shared" si="51"/>
         <v>9.5231392580729692E-4</v>
       </c>
-      <c r="K109" s="17">
+      <c r="K109" s="15">
         <f t="shared" si="55"/>
         <v>1.2354800240249584</v>
       </c>
-      <c r="L109" s="17">
+      <c r="L109" s="15">
         <f t="shared" si="52"/>
         <v>9.298040284690634E-2</v>
       </c>
-      <c r="M109" s="17">
-        <v>20</v>
-      </c>
-      <c r="N109" s="17" t="s">
+      <c r="M109" s="15">
+        <v>20</v>
+      </c>
+      <c r="N109" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="O109" s="17">
+      <c r="O109" s="15">
         <v>1036.2</v>
       </c>
-      <c r="P109" s="17">
+      <c r="P109" s="15">
         <v>-39.466999999999999</v>
       </c>
-      <c r="Q109" s="17">
+      <c r="Q109" s="15">
         <v>26.908000000000001</v>
       </c>
-      <c r="R109" s="17">
+      <c r="R109" s="15">
         <f t="shared" si="50"/>
         <v>42.920824533293505</v>
       </c>
-      <c r="S109" s="17">
+      <c r="S109" s="15">
         <f t="shared" si="53"/>
         <v>39.90795555627011</v>
       </c>
-      <c r="U109" s="17">
+      <c r="U109" s="15">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="17">
+    <row r="110" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="15">
         <v>209</v>
       </c>
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C110" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110" s="17">
+      <c r="C110" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="15">
         <v>25</v>
       </c>
-      <c r="E110" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="F110" s="17">
+      <c r="E110" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="F110" s="15">
         <v>775.6</v>
       </c>
-      <c r="G110" s="17">
+      <c r="G110" s="15">
         <v>45.441000000000003</v>
       </c>
-      <c r="H110" s="17">
+      <c r="H110" s="15">
         <v>3.0790000000000002</v>
       </c>
-      <c r="I110" s="17">
+      <c r="I110" s="15">
         <f t="shared" si="38"/>
         <v>1.2482068955525E-2</v>
       </c>
-      <c r="J110" s="17">
+      <c r="J110" s="15">
         <f t="shared" si="51"/>
         <v>9.2503211118229872E-4</v>
       </c>
-      <c r="K110" s="17">
+      <c r="K110" s="15">
         <f t="shared" ref="K110:K111" si="56">(I110/(1+I110))*100</f>
         <v>1.2328187666969237</v>
       </c>
-      <c r="L110" s="17">
+      <c r="L110" s="15">
         <f t="shared" si="52"/>
         <v>9.0319145518871657E-2</v>
       </c>
-      <c r="M110" s="17">
+      <c r="M110" s="15">
         <v>25</v>
       </c>
-      <c r="N110" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="O110" s="17">
+      <c r="N110" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="O110" s="15">
         <v>1009.3</v>
       </c>
-      <c r="P110" s="17">
+      <c r="P110" s="15">
         <v>-36.779000000000003</v>
       </c>
-      <c r="Q110" s="17">
+      <c r="Q110" s="15">
         <v>20.361999999999998</v>
       </c>
-      <c r="R110" s="17">
+      <c r="R110" s="15">
         <f t="shared" si="50"/>
         <v>47.072235261476088</v>
       </c>
-      <c r="S110" s="17">
+      <c r="S110" s="15">
         <f t="shared" si="53"/>
         <v>42.515240664798206</v>
       </c>
-      <c r="U110" s="17">
+      <c r="U110" s="15">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="17">
+    <row r="111" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="15">
         <v>210</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C111" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="17">
+      <c r="C111" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="15">
         <v>25</v>
       </c>
-      <c r="E111" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="F111" s="17">
+      <c r="E111" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="F111" s="15">
         <v>774.3</v>
       </c>
-      <c r="G111" s="17">
+      <c r="G111" s="15">
         <v>29.577999999999999</v>
       </c>
-      <c r="H111" s="17">
+      <c r="H111" s="15">
         <v>3.8220000000000001</v>
       </c>
-      <c r="I111" s="17">
+      <c r="I111" s="15">
         <f t="shared" si="38"/>
         <v>1.229267227045E-2</v>
       </c>
-      <c r="J111" s="17">
+      <c r="J111" s="15">
         <f t="shared" si="51"/>
         <v>7.3563542610729886E-4</v>
       </c>
-      <c r="K111" s="17">
+      <c r="K111" s="15">
         <f t="shared" si="56"/>
         <v>1.2143397465160963</v>
       </c>
-      <c r="L111" s="17">
+      <c r="L111" s="15">
         <f t="shared" si="52"/>
         <v>7.1840125338044292E-2</v>
       </c>
-      <c r="M111" s="17">
+      <c r="M111" s="15">
         <v>25</v>
       </c>
-      <c r="N111" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="O111" s="17">
+      <c r="N111" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="O111" s="15">
         <v>990.7</v>
       </c>
-      <c r="P111" s="17">
+      <c r="P111" s="15">
         <v>-35.520000000000003</v>
       </c>
-      <c r="Q111" s="17">
+      <c r="Q111" s="15">
         <v>22.385000000000002</v>
       </c>
-      <c r="R111" s="17">
+      <c r="R111" s="15">
         <f t="shared" si="50"/>
         <v>53.150719729928355</v>
       </c>
-      <c r="S111" s="17">
+      <c r="S111" s="15">
         <f t="shared" si="53"/>
         <v>38.183543672053169</v>
       </c>
-      <c r="U111" s="17">
+      <c r="U111" s="15">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12755,8 +12814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6539BBBF-B65D-4C71-B21D-C409855E9866}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12841,26 +12900,26 @@
         <v>1.4236399874999996</v>
       </c>
       <c r="I2">
-        <v>1389.2348206616291</v>
+        <v>1392.1477928468289</v>
       </c>
       <c r="J2">
-        <v>1730.8169722355278</v>
+        <v>1734.2378061556303</v>
       </c>
       <c r="K2">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>341.58215157389873</v>
+        <v>342.09001330880142</v>
       </c>
       <c r="L2">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1215.7687248409973</v>
+        <v>1218.1716033426819</v>
       </c>
       <c r="M2">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>239.93576646701123</v>
+        <v>240.29250113263026</v>
       </c>
       <c r="N2" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>19.735313268433593</v>
+        <v>19.72566923028446</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -12889,26 +12948,26 @@
         <v>1.2781464648750005</v>
       </c>
       <c r="I3">
-        <v>1267.6286131871441</v>
+        <v>1270.2795931116193</v>
       </c>
       <c r="J3">
-        <v>1730.8169722355278</v>
+        <v>1734.2378061556303</v>
       </c>
       <c r="K3">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>463.18835904838375</v>
+        <v>463.95821304401102</v>
       </c>
       <c r="L3">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1354.161686317223</v>
+        <v>1356.8380884464868</v>
       </c>
       <c r="M3">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>362.39067413426864</v>
+        <v>362.9929947734002</v>
       </c>
       <c r="N3" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>26.76125589698421</v>
+        <v>26.752860040140046</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -12937,26 +12996,26 @@
         <v>1.4635275138749999</v>
       </c>
       <c r="I4">
-        <v>1361.6259238999219</v>
+        <v>1364.4503702811983</v>
       </c>
       <c r="J4">
-        <v>1730.8169722355278</v>
+        <v>1734.2378061556303</v>
       </c>
       <c r="K4">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>369.19104833560596</v>
+        <v>369.78743587443205</v>
       </c>
       <c r="L4">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1182.6337091899436</v>
+        <v>1184.9710987420165</v>
       </c>
       <c r="M4">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>252.26109166755208</v>
+        <v>252.66859172011141</v>
       </c>
       <c r="N4" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>21.330449970036856</v>
+        <v>21.322764073178519</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -12985,26 +13044,26 @@
         <v>1.0296552000000001</v>
       </c>
       <c r="I5">
-        <v>1193.3112605124898</v>
+        <v>1195.7751127636236</v>
       </c>
       <c r="J5">
-        <v>1733.5427253279215</v>
+        <v>1736.9930228707078</v>
       </c>
       <c r="K5">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>540.23146481543176</v>
+        <v>541.21791010708421</v>
       </c>
       <c r="L5">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1683.6147919496948</v>
+        <v>1686.9657171358992</v>
       </c>
       <c r="M5">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>524.67220562323359</v>
+        <v>525.63024020767739</v>
       </c>
       <c r="N5" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>31.163435254429057</v>
+        <v>31.158323780288981</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -13033,26 +13092,26 @@
         <v>1.3970977019999997</v>
       </c>
       <c r="I6">
-        <v>1184.4235588440968</v>
+        <v>1186.8203459176691</v>
       </c>
       <c r="J6">
-        <v>1733.5427253279215</v>
+        <v>1736.9930228707078</v>
       </c>
       <c r="K6">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>549.11916648382476</v>
+        <v>550.17267695303872</v>
       </c>
       <c r="L6">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1240.8171045205268</v>
+        <v>1243.2867224562281</v>
       </c>
       <c r="M6">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>393.0427812584183</v>
+        <v>393.79685197781453</v>
       </c>
       <c r="N6" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>31.676125339221272</v>
+        <v>31.673856469715396</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -13081,26 +13140,26 @@
         <v>1.5168491988749999</v>
       </c>
       <c r="I7">
-        <v>1147.918630175446</v>
+        <v>1150.2069329065716</v>
       </c>
       <c r="J7">
-        <v>1733.5427253279215</v>
+        <v>1736.9930228707078</v>
       </c>
       <c r="K7">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>585.62409515247555</v>
+        <v>586.78608996413618</v>
       </c>
       <c r="L7">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1142.8576595574805</v>
+        <v>1145.1323072583496</v>
       </c>
       <c r="M7">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>386.07931202839069</v>
+        <v>386.84537025785903</v>
       </c>
       <c r="N7" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>33.781924529243859</v>
+        <v>33.781718305025876</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -13129,26 +13188,26 @@
         <v>1.1469169998750004</v>
       </c>
       <c r="I8">
-        <v>1419.7875246449305</v>
+        <v>1422.5507314292977</v>
       </c>
       <c r="J8">
-        <v>1730.8169722355278</v>
+        <v>1734.2378061556303</v>
       </c>
       <c r="K8">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>311.02944759059733</v>
+        <v>311.68707472633264</v>
       </c>
       <c r="L8">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1509.1039477348102</v>
+        <v>1512.0865819798996</v>
       </c>
       <c r="M8">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>271.18740730540713</v>
+        <v>271.76079416409613</v>
       </c>
       <c r="N8" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>17.97009461889381</v>
+        <v>17.972568330595017</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -13177,26 +13236,26 @@
         <v>1.3705949355</v>
       </c>
       <c r="I9">
-        <v>1479.8881413747538</v>
+        <v>1482.8468766300491</v>
       </c>
       <c r="J9">
-        <v>1730.8169722355278</v>
+        <v>1734.2378061556303</v>
       </c>
       <c r="K9">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>250.92883086077404</v>
+        <v>251.39092952558121</v>
       </c>
       <c r="L9">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1262.8216604376385</v>
+        <v>1265.3175356459139</v>
       </c>
       <c r="M9">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>183.08022622981161</v>
+        <v>183.41737811388637</v>
       </c>
       <c r="N9" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>14.497710323274315</v>
+        <v>14.495758807314424</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -13225,26 +13284,26 @@
         <v>1.0947018468750003</v>
       </c>
       <c r="I10">
-        <v>1510.0228258331358</v>
+        <v>1513.0925720974949</v>
       </c>
       <c r="J10">
-        <v>1730.8169722355278</v>
+        <v>1734.2378061556303</v>
       </c>
       <c r="K10">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>220.79414640239202</v>
+        <v>221.14523405813543</v>
       </c>
       <c r="L10">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1581.0852764854822</v>
+        <v>1584.2101765940074</v>
       </c>
       <c r="M10">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>201.69340814824042</v>
+        <v>202.01412347063223</v>
       </c>
       <c r="N10" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>12.756643246756108</v>
+        <v>12.751724894543665</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -13273,26 +13332,26 @@
         <v>1.4236399874999996</v>
       </c>
       <c r="I11">
-        <v>1557.4421892055059</v>
+        <v>1560.5983198067865</v>
       </c>
       <c r="J11">
-        <v>1733.5427253279215</v>
+        <v>1736.9930228707078</v>
       </c>
       <c r="K11">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>176.10053612241563</v>
+        <v>176.39470306392127</v>
       </c>
       <c r="L11">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1217.683361347647</v>
+        <v>1220.1069358279094</v>
       </c>
       <c r="M11">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>123.69737972284631</v>
+        <v>123.90400987097962</v>
       </c>
       <c r="N11" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>10.158419146496895</v>
+        <v>10.155176258128879</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -13321,26 +13380,26 @@
         <v>1.1992902288750005</v>
       </c>
       <c r="I12">
-        <v>1535.3897736503466</v>
+        <v>1538.4438627861896</v>
       </c>
       <c r="J12">
-        <v>1733.5427253279215</v>
+        <v>1736.9930228707078</v>
       </c>
       <c r="K12">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>198.15295167757495</v>
+        <v>198.54916008451823</v>
       </c>
       <c r="L12">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1445.4739008038771</v>
+        <v>1448.3508504026602</v>
       </c>
       <c r="M12">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>165.22518645336851</v>
+        <v>165.55555553118126</v>
       </c>
       <c r="N12" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>11.430520216344355</v>
+        <v>11.430625078526706</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -13369,26 +13428,26 @@
         <v>1.1992902288750005</v>
       </c>
       <c r="I13">
-        <v>1621.9019882807434</v>
+        <v>1625.1718890493703</v>
       </c>
       <c r="J13">
-        <v>1733.5427253279215</v>
+        <v>1736.9930228707078</v>
       </c>
       <c r="K13">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>111.64073704717816</v>
+        <v>111.82113382133753</v>
       </c>
       <c r="L13">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1445.4739008038771</v>
+        <v>1448.3508504026602</v>
       </c>
       <c r="M13">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>93.089007447265914</v>
+        <v>93.239427061981345</v>
       </c>
       <c r="N13" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>6.4400337768461924</v>
+        <v>6.4376271147325665</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -13417,26 +13476,26 @@
         <v>2.0038577838749996</v>
       </c>
       <c r="I14">
-        <v>721.82564960597108</v>
+        <v>723.11230721605261</v>
       </c>
       <c r="J14">
-        <v>1180.4041157414686</v>
+        <v>1182.653918970014</v>
       </c>
       <c r="K14">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>458.57846613549748</v>
+        <v>459.54161175396143</v>
       </c>
       <c r="L14">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>589.06581357227799</v>
+        <v>590.18854955017503</v>
       </c>
       <c r="M14">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>228.84781037140885</v>
+        <v>229.32845606703373</v>
       </c>
       <c r="N14" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>38.849277126371447</v>
+        <v>38.856812156356028</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -13465,26 +13524,26 @@
         <v>2.2938591554999999</v>
       </c>
       <c r="I15">
-        <v>1064.6593843140136</v>
+        <v>1066.8526061032128</v>
       </c>
       <c r="J15">
-        <v>1180.4041157414686</v>
+        <v>1182.653918970014</v>
       </c>
       <c r="K15">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>115.74473142745501</v>
+        <v>115.80131286680125</v>
       </c>
       <c r="L15">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>514.59310956873992</v>
+        <v>515.57390353908943</v>
       </c>
       <c r="M15">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>50.458517102034435</v>
+        <v>50.48318358568082</v>
       </c>
       <c r="N15" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>9.805517439656688</v>
+        <v>9.7916483435537813</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -13513,26 +13572,26 @@
         <v>2.2660522619999997</v>
       </c>
       <c r="I16">
-        <v>1133.1780763832585</v>
+        <v>1135.4325372130004</v>
       </c>
       <c r="J16">
-        <v>1180.4041157414686</v>
+        <v>1182.653918970014</v>
       </c>
       <c r="K16">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>47.226039358210073</v>
+        <v>47.22138175701366</v>
       </c>
       <c r="L16">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>520.90771935668124</v>
+        <v>521.90054872177268</v>
       </c>
       <c r="M16">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>20.840666453353883</v>
+        <v>20.8386110721632</v>
       </c>
       <c r="N16" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>4.0008365549068872</v>
+        <v>3.9928317996983651</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -13561,26 +13620,26 @@
         <v>3.2190963498749996</v>
       </c>
       <c r="I17">
-        <v>87.536795614918091</v>
+        <v>87.721708619741264</v>
       </c>
       <c r="J17">
-        <v>1279.0209718941401</v>
+        <v>1281.4643419847064</v>
       </c>
       <c r="K17">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>1191.4841762792221</v>
+        <v>1193.7426333649651</v>
       </c>
       <c r="L17">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>397.32298536010131</v>
+        <v>398.08200895709967</v>
       </c>
       <c r="M17">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>370.13001376162242</v>
+        <v>370.83159483912902</v>
       </c>
       <c r="N17" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>93.15595306578264</v>
+        <v>93.154572800373074</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -13609,26 +13668,26 @@
         <v>2.673120139875</v>
       </c>
       <c r="I18">
-        <v>82.572293596598755</v>
+        <v>82.737739634057178</v>
       </c>
       <c r="J18">
-        <v>1279.0209718941401</v>
+        <v>1281.4643419847064</v>
       </c>
       <c r="K18">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>1196.4486782975414</v>
+        <v>1198.7266023506493</v>
       </c>
       <c r="L18">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>478.47493003211952</v>
+        <v>479.38898176294839</v>
       </c>
       <c r="M18">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>447.58507500283525</v>
+        <v>448.43723425266774</v>
       </c>
       <c r="N18" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>93.544101667518802</v>
+        <v>93.543500437482749</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -13657,26 +13716,26 @@
         <v>2.7015000588749998</v>
       </c>
       <c r="I19">
-        <v>115.77971564680519</v>
+        <v>115.99834562614315</v>
       </c>
       <c r="J19">
-        <v>1279.0209718941401</v>
+        <v>1281.4643419847064</v>
       </c>
       <c r="K19">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>1163.2412562473348</v>
+        <v>1165.4659963585632</v>
       </c>
       <c r="L19">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>473.44843384040854</v>
+        <v>474.35288323419599</v>
       </c>
       <c r="M19">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>430.59086836805386</v>
+        <v>431.41438865779793</v>
       </c>
       <c r="N19" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>90.947785987016019</v>
+        <v>90.947984908695361</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -13705,26 +13764,26 @@
         <v>1.7317166988749999</v>
       </c>
       <c r="I20">
-        <v>1101.6792421780567</v>
+        <v>1103.8214566426141</v>
       </c>
       <c r="J20">
-        <v>1180.4041157414686</v>
+        <v>1182.653918970014</v>
       </c>
       <c r="K20">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>78.724873563411847</v>
+        <v>78.83246232739998</v>
       </c>
       <c r="L20">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>681.63812043177245</v>
+        <v>682.93729553934463</v>
       </c>
       <c r="M20">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>45.460596190216926</v>
+        <v>45.522724576492827</v>
       </c>
       <c r="N20" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>6.6693154076272414</v>
+        <v>6.6657253709568733</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -13753,26 +13812,26 @@
         <v>1.6692833600000001</v>
       </c>
       <c r="I21">
-        <v>1082.0266954581571</v>
+        <v>1083.968788331189</v>
       </c>
       <c r="J21">
-        <v>1180.4041157414686</v>
+        <v>1182.653918970014</v>
       </c>
       <c r="K21">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>98.377420283311494</v>
+        <v>98.685130638825058</v>
       </c>
       <c r="L21">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>707.13226048180843</v>
+        <v>708.48002640487232</v>
       </c>
       <c r="M21">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>58.933924964849282</v>
+        <v>59.118261766429548</v>
       </c>
       <c r="N21" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>8.3342152887628593</v>
+        <v>8.3443794550455639</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -13801,26 +13860,26 @@
         <v>1.6938577850000003</v>
       </c>
       <c r="I22">
-        <v>1121.6614821948458</v>
+        <v>1123.9335710933105</v>
       </c>
       <c r="J22">
-        <v>1180.4041157414686</v>
+        <v>1182.653918970014</v>
       </c>
       <c r="K22">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>58.742633546622756</v>
+        <v>58.720347876703499</v>
       </c>
       <c r="L22">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>696.87321225817573</v>
+        <v>698.20142484394808</v>
       </c>
       <c r="M22">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>34.679790751513856</v>
+        <v>34.666633997672648</v>
       </c>
       <c r="N22" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>4.9764849819863333</v>
+        <v>4.965133665463493</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -13849,26 +13908,26 @@
         <v>1.6326304662499993</v>
       </c>
       <c r="I23">
-        <v>1028.1795779836184</v>
+        <v>1030.1655936472023</v>
       </c>
       <c r="J23">
-        <v>1279.0209718941401</v>
+        <v>1281.4643419847064</v>
       </c>
       <c r="K23">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>250.84139391052167</v>
+        <v>251.29874833750409</v>
       </c>
       <c r="L23">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>783.41118724308296</v>
+        <v>784.90777213542458</v>
       </c>
       <c r="M23">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>153.64248009329452</v>
+        <v>153.92261355670644</v>
       </c>
       <c r="N23" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>19.611984433612783</v>
+        <v>19.610280216482469</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -13897,26 +13956,26 @@
         <v>1.7433406250000003</v>
       </c>
       <c r="I24">
-        <v>1012.8006711258993</v>
+        <v>1014.7098542573782</v>
       </c>
       <c r="J24">
-        <v>1279.0209718941401</v>
+        <v>1281.4643419847064</v>
       </c>
       <c r="K24">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>266.2203007682408</v>
+        <v>266.75448772732818</v>
       </c>
       <c r="L24">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>733.66096880472787</v>
+        <v>735.06251366379195</v>
       </c>
       <c r="M24">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>152.70699079145291</v>
+        <v>153.01340650357881</v>
       </c>
       <c r="N24" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>20.814381203928757</v>
+        <v>20.816380057379057</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -13945,26 +14004,26 @@
         <v>1.6938577850000003</v>
       </c>
       <c r="I25">
-        <v>1070.4303697773303</v>
+        <v>1072.4914401213341</v>
       </c>
       <c r="J25">
-        <v>1279.0209718941401</v>
+        <v>1281.4643419847064</v>
       </c>
       <c r="K25">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>208.59060211680981</v>
+        <v>208.97290186337227</v>
       </c>
       <c r="L25">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>755.09348141298642</v>
+        <v>756.53596974477182</v>
       </c>
       <c r="M25">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>123.14528643667082</v>
+        <v>123.37098410146176</v>
       </c>
       <c r="N25" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>16.308614690492668</v>
+        <v>16.307352067223285</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -13993,26 +14052,26 @@
         <v>1.5841495962500001</v>
       </c>
       <c r="I26">
-        <v>1294.7744005099794</v>
+        <v>1297.3430831474698</v>
       </c>
       <c r="J26">
-        <v>2049.2287453249937</v>
+        <v>2053.2830999059515</v>
       </c>
       <c r="K26">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>754.45434481501434</v>
+        <v>755.94001675848176</v>
       </c>
       <c r="L26">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1293.5828473371007</v>
+        <v>1296.1421729150356</v>
       </c>
       <c r="M26">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>476.25195663399415</v>
+        <v>477.18979226958328</v>
       </c>
       <c r="N26" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>36.816502137020485</v>
+        <v>36.816161239193306</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -14041,26 +14100,26 @@
         <v>1.8817146162499998</v>
       </c>
       <c r="I27">
-        <v>1194.8759772779299</v>
+        <v>1197.1791113596212</v>
       </c>
       <c r="J27">
-        <v>2049.2287453249937</v>
+        <v>2053.2830999059515</v>
       </c>
       <c r="K27">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>854.35276804706382</v>
+        <v>856.10398854633036</v>
       </c>
       <c r="L27">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1089.022069355462</v>
+        <v>1091.1766758754652</v>
       </c>
       <c r="M27">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>454.02887380960681</v>
+        <v>454.95952529317577</v>
       </c>
       <c r="N27" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>41.691430007320598</v>
+        <v>41.694396091096415</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -14089,26 +14148,26 @@
         <v>1.2685516249999997</v>
       </c>
       <c r="I28">
-        <v>1436.8826510617043</v>
+        <v>1439.4647777702314</v>
       </c>
       <c r="J28">
-        <v>2049.2287453249937</v>
+        <v>2053.2830999059515</v>
       </c>
       <c r="K28">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>612.34609426328939</v>
+        <v>613.81832213572011</v>
       </c>
       <c r="L28">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1615.4082379776969</v>
+        <v>1618.6042881037276</v>
       </c>
       <c r="M28">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>482.71279007922874</v>
+        <v>483.87334818614119</v>
       </c>
       <c r="N28" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>29.881783361680075</v>
+        <v>29.894480803150593</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -14137,26 +14196,26 @@
         <v>1.5962280649999994</v>
       </c>
       <c r="I29">
-        <v>1396.3220297621269</v>
+        <v>1398.940737061235</v>
       </c>
       <c r="J29">
-        <v>1647.5111743340415</v>
+        <v>1650.6486230563742</v>
       </c>
       <c r="K29">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>251.18914457191454</v>
+        <v>251.70788599513912</v>
       </c>
       <c r="L29">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1032.1276830413592</v>
+        <v>1034.0932221714663</v>
       </c>
       <c r="M29">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>157.36419505436689</v>
+        <v>157.6891745698878</v>
       </c>
       <c r="N29" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>15.24658214676149</v>
+        <v>15.249028925918331</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -14185,26 +14244,26 @@
         <v>2.3444006599999998</v>
       </c>
       <c r="I30">
-        <v>1382.9223881223413</v>
+        <v>1385.5908523208154</v>
       </c>
       <c r="J30">
-        <v>1647.5111743340415</v>
+        <v>1650.6486230563742</v>
       </c>
       <c r="K30">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>264.58878621170015</v>
+        <v>265.05777073555873</v>
       </c>
       <c r="L30">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>702.74300909557053</v>
+        <v>704.08128235912295</v>
       </c>
       <c r="M30">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>112.85988386119128</v>
+        <v>113.05992838935592</v>
       </c>
       <c r="N30" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>16.059908444545297</v>
+        <v>16.05779491971904</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -14233,26 +14292,26 @@
         <v>1.4766958399999999</v>
       </c>
       <c r="I31">
-        <v>1382.6404926471096</v>
+        <v>1385.3741885792203</v>
       </c>
       <c r="J31">
-        <v>1647.5111743340415</v>
+        <v>1650.6486230563742</v>
       </c>
       <c r="K31">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
-        <v>264.8706816869319</v>
+        <v>265.27443447715382</v>
       </c>
       <c r="L31">
         <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1115.6740133662472</v>
+        <v>1117.7986544990702</v>
       </c>
       <c r="M31">
         <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
-        <v>179.36712118518051</v>
+        <v>179.6405375376109</v>
       </c>
       <c r="N31" s="6">
         <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
-        <v>16.07701882774775</v>
+        <v>16.070920895688047</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -14280,8 +14339,31 @@
       <c r="H32">
         <v>1.7807449962499993</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>873.60112908154565</v>
+      </c>
+      <c r="J32">
+        <f>AVERAGE($J$2:$J$31,$J$38:$J$49)</f>
+        <v>1506.2869990390641</v>
+      </c>
+      <c r="K32">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>632.68586995751843</v>
+      </c>
+      <c r="L32">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>845.87462113390438</v>
+      </c>
+      <c r="M32">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>355.29279671702949</v>
+      </c>
+      <c r="N32" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>42.003009410632927</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -14306,8 +14388,31 @@
       <c r="H33">
         <v>1.6692833599999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>797.48639456570277</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33:J36" si="0">AVERAGE($J$2:$J$31,$J$38:$J$49)</f>
+        <v>1506.2869990390641</v>
+      </c>
+      <c r="K33">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>708.80060447336132</v>
+      </c>
+      <c r="L33">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>902.35548687136281</v>
+      </c>
+      <c r="M33">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>424.61371236178945</v>
+      </c>
+      <c r="N33" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>47.056145669818619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -14332,8 +14437,31 @@
       <c r="H34">
         <v>2.6098511562500004</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>1436.9135291581206</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>1506.2869990390641</v>
+      </c>
+      <c r="K34">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>69.373469880943503</v>
+      </c>
+      <c r="L34">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>577.154369678075</v>
+      </c>
+      <c r="M34">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>26.5813894079016</v>
+      </c>
+      <c r="N34" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>4.6055944136277027</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -14358,8 +14486,31 @@
       <c r="H35">
         <v>2.1552348650000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>1364.0907952985306</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>1506.2869990390641</v>
+      </c>
+      <c r="K35">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>142.19620374053352</v>
+      </c>
+      <c r="L35">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>698.89691536660621</v>
+      </c>
+      <c r="M35">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>65.977126692655602</v>
+      </c>
+      <c r="N35" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>9.4401799810559073</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -14384,8 +14535,31 @@
       <c r="H36">
         <v>3.2322898962499993</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>1412.5810904212096</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>1506.2869990390641</v>
+      </c>
+      <c r="K36">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>93.705908617854448</v>
+      </c>
+      <c r="L36">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>466.01234647505186</v>
+      </c>
+      <c r="M36">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>28.990564468418839</v>
+      </c>
+      <c r="N36" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>6.2209863510495769</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -14410,8 +14584,31 @@
       <c r="H37">
         <v>3.7884931399999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>1334.8746442974052</v>
+      </c>
+      <c r="J37">
+        <f>AVERAGE($J$2:$J$31,$J$38:$J$49)</f>
+        <v>1506.2869990390641</v>
+      </c>
+      <c r="K37">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>171.41235474165887</v>
+      </c>
+      <c r="L37">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>397.59528218099513</v>
+      </c>
+      <c r="M37">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>45.24552332742482</v>
+      </c>
+      <c r="N37" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>11.379793814260589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -14436,8 +14633,30 @@
       <c r="H38">
         <v>3.5196162158750006</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>995.32279602948006</v>
+      </c>
+      <c r="J38">
+        <v>1429.434105411442</v>
+      </c>
+      <c r="K38">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>434.11130938196197</v>
+      </c>
+      <c r="L38">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>406.13351505884992</v>
+      </c>
+      <c r="M38">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>123.34052429464641</v>
+      </c>
+      <c r="N38" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>30.369452340512705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -14462,8 +14681,30 @@
       <c r="H39">
         <v>4.878398304000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>930.86558989012644</v>
+      </c>
+      <c r="J39">
+        <v>1429.434105411442</v>
+      </c>
+      <c r="K39">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>498.56851552131559</v>
+      </c>
+      <c r="L39">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>293.0129965483527</v>
+      </c>
+      <c r="M39">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>102.19922287044881</v>
+      </c>
+      <c r="N39" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>34.87873373343151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -14488,8 +14729,30 @@
       <c r="H40">
         <v>4.736844052875</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>770.64941511920324</v>
+      </c>
+      <c r="J40">
+        <v>1429.434105411442</v>
+      </c>
+      <c r="K40">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>658.78469029223879</v>
+      </c>
+      <c r="L40">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>301.76929817730758</v>
+      </c>
+      <c r="M40">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>139.07671076745567</v>
+      </c>
+      <c r="N40" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>46.087097530292738</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>110</v>
       </c>
@@ -14514,8 +14777,30 @@
       <c r="H41">
         <v>3.9243386940000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>865.36411279324489</v>
+      </c>
+      <c r="J41">
+        <v>1327.2599363997854</v>
+      </c>
+      <c r="K41">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>461.89582360654049</v>
+      </c>
+      <c r="L41">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>338.21238172664852</v>
+      </c>
+      <c r="M41">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>117.70029541862486</v>
+      </c>
+      <c r="N41" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>34.800705644701409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -14540,8 +14825,30 @@
       <c r="H42">
         <v>4.9724629635000008</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>948.6673411185742</v>
+      </c>
+      <c r="J42">
+        <v>1327.2599363997854</v>
+      </c>
+      <c r="K42">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>378.59259528121117</v>
+      </c>
+      <c r="L42">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>266.92203564761354</v>
+      </c>
+      <c r="M42">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>76.137841158444473</v>
+      </c>
+      <c r="N42" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>28.524374532704567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -14566,8 +14873,30 @@
       <c r="H43">
         <v>4.5314080835000006</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>818.03751876431534</v>
+      </c>
+      <c r="J43">
+        <v>1327.2599363997854</v>
+      </c>
+      <c r="K43">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>509.22241763547004</v>
+      </c>
+      <c r="L43">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>292.90231908988147</v>
+      </c>
+      <c r="M43">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>112.37619924139635</v>
+      </c>
+      <c r="N43" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>38.36644229741043</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -14592,8 +14921,30 @@
       <c r="H44">
         <v>4.3407587435000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>684.08738331843779</v>
+      </c>
+      <c r="J44">
+        <v>1429.434105411442</v>
+      </c>
+      <c r="K44">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>745.34672209300425</v>
+      </c>
+      <c r="L44">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>329.30512610310933</v>
+      </c>
+      <c r="M44">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>171.70885693868883</v>
+      </c>
+      <c r="N44" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>52.142782886691165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -14618,8 +14969,30 @@
       <c r="H45">
         <v>3.6333652874999993</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>651.11858845093934</v>
+      </c>
+      <c r="J45">
+        <v>1429.434105411442</v>
+      </c>
+      <c r="K45">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>778.31551696050269</v>
+      </c>
+      <c r="L45">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>393.41877083737683</v>
+      </c>
+      <c r="M45">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>214.21339594952653</v>
+      </c>
+      <c r="N45" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>54.449205739111406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -14644,8 +15017,30 @@
       <c r="H46">
         <v>5.3772584000000014</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>744.05245984564556</v>
+      </c>
+      <c r="J46">
+        <v>1429.434105411442</v>
+      </c>
+      <c r="K46">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>685.38164556579648</v>
+      </c>
+      <c r="L46">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>265.82953599764551</v>
+      </c>
+      <c r="M46">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>127.45931003907052</v>
+      </c>
+      <c r="N46" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>47.947760793668706</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -14670,8 +15065,30 @@
       <c r="H47">
         <v>5.8386396875000015</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>875.94604043278207</v>
+      </c>
+      <c r="J47">
+        <v>1327.2599363997854</v>
+      </c>
+      <c r="K47">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>451.3138959670033</v>
+      </c>
+      <c r="L47">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>227.32348756531914</v>
+      </c>
+      <c r="M47">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>77.297781696175818</v>
+      </c>
+      <c r="N47" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>34.003429440596221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>123</v>
       </c>
@@ -14696,8 +15113,30 @@
       <c r="H48">
         <v>5.2842505235000008</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>750.83085298148592</v>
+      </c>
+      <c r="J48">
+        <v>1327.2599363997854</v>
+      </c>
+      <c r="K48">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>576.42908341829946</v>
+      </c>
+      <c r="L48">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>251.17278798520712</v>
+      </c>
+      <c r="M48">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>109.0843594289894</v>
+      </c>
+      <c r="N48" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>43.430007009920971</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>124</v>
       </c>
@@ -14721,6 +15160,28 @@
       </c>
       <c r="H49">
         <v>4.8940926828750007</v>
+      </c>
+      <c r="I49">
+        <v>840.89667228632777</v>
+      </c>
+      <c r="J49">
+        <v>1327.2599363997854</v>
+      </c>
+      <c r="K49">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]-Table14[[#This Row],[Media TG 13C 16:0 (nmol/L)]]</f>
+        <v>486.3632641134576</v>
+      </c>
+      <c r="L49">
+        <f>Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>271.19632226092125</v>
+      </c>
+      <c r="M49">
+        <f>Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[Protein (mg/mL)]]</f>
+        <v>99.377616164748829</v>
+      </c>
+      <c r="N49" s="6">
+        <f>(Table14[[#This Row],[Uncorrected Media TG 13C 16:0 disappearance (nmol/L)]]/Table14[[#This Row],[TRL starting media TG 13C 16:0 (nmol/L)]])*100</f>
+        <v>36.64416070846876</v>
       </c>
     </row>
   </sheetData>
@@ -14735,8 +15196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED9E5B9-47A7-4CA2-B03F-A2A84027B87D}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15893,14 +16354,14 @@
         <v>1.7807449962499993</v>
       </c>
       <c r="I32">
-        <v>36.083884967270855</v>
+        <v>44.427079310313864</v>
       </c>
       <c r="J32">
         <v>34.919108390823645</v>
       </c>
       <c r="K32">
         <f>(Table142[[#This Row],[Uncorrected media 13C 16:0 (nmol/L)]]-Table142[[#This Row],[TRL starting media 13C 16:0 (nmol/L)]])/Table142[[#This Row],[Protein (mg/mL)]]</f>
-        <v>0.65409510002839644</v>
+        <v>5.3393219913646712</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -16217,14 +16678,14 @@
         <v>3.9243386940000002</v>
       </c>
       <c r="I41">
-        <v>158.5674016206784</v>
+        <v>82.291453183870985</v>
       </c>
       <c r="J41">
         <v>38.183543672053169</v>
       </c>
       <c r="K41">
         <f>(Table142[[#This Row],[Uncorrected media 13C 16:0 (nmol/L)]]-Table142[[#This Row],[TRL starting media 13C 16:0 (nmol/L)]])/Table142[[#This Row],[Protein (mg/mL)]]</f>
-        <v>30.676215111779857</v>
+        <v>11.239577659098405</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
